--- a/Inicio/EDT .xlsx
+++ b/Inicio/EDT .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C2D8D0-B036-4435-A661-F87136B6A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66CAEA-4111-4D41-A946-D505C504993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7632" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>ESTRUCTURA DE DESGLOSE DE TRABAJO EDT</t>
   </si>
@@ -278,9 +278,6 @@
     <t>1.2.5 Plan de Calidad</t>
   </si>
   <si>
-    <t>1.2.6 Plan de Comunicación</t>
-  </si>
-  <si>
     <t>1.4.3 Control de Calidad</t>
   </si>
   <si>
@@ -291,27 +288,6 @@
   </si>
   <si>
     <t>1.4.6 Control de Alcance</t>
-  </si>
-  <si>
-    <t>1.2.7 Diseño del Sistema</t>
-  </si>
-  <si>
-    <t>1.2.7.1 Modelado de Base de Datos</t>
-  </si>
-  <si>
-    <t>1.2.7.2 Diseño de la Arquitectura de Software</t>
-  </si>
-  <si>
-    <t>1.2.7.1.1 Diagrama Entidad-Relación (ER)</t>
-  </si>
-  <si>
-    <t>1.2.7.2.1 Diagrama de Arquitectura del Software (MTV)</t>
-  </si>
-  <si>
-    <t>1.2.7.2.2 Diagrama de Componentes (UML)</t>
-  </si>
-  <si>
-    <t>1.2.7.2.3 Diagrama de Despliegue (UML)</t>
   </si>
   <si>
     <t>1.2.1 Cronograma (Carta Gantt)</t>
@@ -334,6 +310,33 @@
   <si>
     <t>1.2.2.2.1 Casos de Uso</t>
   </si>
+  <si>
+    <t>1.2.6 Plan de Costos</t>
+  </si>
+  <si>
+    <t>1.2.7  Plan de Comunicación</t>
+  </si>
+  <si>
+    <t>1.2.8 Diseño del Sistema</t>
+  </si>
+  <si>
+    <t>1.2.8.1 Modelado de Base de Datos</t>
+  </si>
+  <si>
+    <t>1.2.8.1.1 Diagrama Entidad-Relación (ER)</t>
+  </si>
+  <si>
+    <t>1.2.8.2 Diseño de la Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>1.2.8.2.1 Diagrama de Arquitectura del Software (MTV)</t>
+  </si>
+  <si>
+    <t>1.2.8.2.2 Diagrama de Componentes (UML)</t>
+  </si>
+  <si>
+    <t>1.2.8.2.3 Diagrama de Despliegue (UML)</t>
+  </si>
 </sst>
 </file>
 
@@ -353,12 +356,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -370,36 +375,43 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF595959"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF595959"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1179,9 +1191,9 @@
   </sheetPr>
   <dimension ref="A1:AE921"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1768,7 +1780,7 @@
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1786,7 +1798,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="22" t="s">
@@ -1851,7 +1863,7 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1869,7 +1881,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V18" s="18"/>
       <c r="W18" s="22" t="s">
@@ -1935,7 +1947,7 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1953,7 +1965,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
@@ -2017,7 +2029,7 @@
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2035,7 +2047,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
       <c r="U22" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
@@ -2094,7 +2106,7 @@
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2390,7 +2402,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="33"/>
       <c r="G32" s="22" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="33"/>
@@ -2463,8 +2475,8 @@
       <c r="D34" s="10"/>
       <c r="E34" s="25"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="20" t="s">
-        <v>46</v>
+      <c r="G34" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="33"/>
@@ -2537,8 +2549,8 @@
       <c r="D36" s="10"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="39" t="s">
-        <v>47</v>
+      <c r="G36" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2574,7 +2586,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="17"/>
@@ -2611,8 +2623,8 @@
       <c r="D38" s="10"/>
       <c r="E38" s="17"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="34" t="s">
-        <v>49</v>
+      <c r="G38" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2685,8 +2697,8 @@
       <c r="D40" s="10"/>
       <c r="E40" s="17"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="38" t="s">
-        <v>48</v>
+      <c r="G40" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -2697,7 +2709,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="16"/>
       <c r="P40" s="23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="18"/>
@@ -2759,8 +2771,8 @@
       <c r="D42" s="10"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="34" t="s">
-        <v>50</v>
+      <c r="G42" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2796,7 +2808,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="17"/>
@@ -2832,7 +2844,7 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="34" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -2901,8 +2913,8 @@
       <c r="D46" s="10"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="36" t="s">
-        <v>52</v>
+      <c r="G46" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -2936,7 +2948,9 @@
       <c r="D47" s="10"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -2969,7 +2983,9 @@
       <c r="D48" s="10"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="G48" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>

--- a/Inicio/EDT .xlsx
+++ b/Inicio/EDT .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66CAEA-4111-4D41-A946-D505C504993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87CAC3-2606-4803-835F-BFC06FE7EA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1191,12 +1191,12 @@
   </sheetPr>
   <dimension ref="A1:AE921"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.69921875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -1217,7 +1217,7 @@
     <col min="24" max="31" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="3" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1250,7 +1250,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="35.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="53" t="s">
         <v>0</v>
@@ -1285,7 +1285,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="12.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1318,7 +1318,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="24.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1355,7 +1355,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="24.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -1392,7 +1392,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1425,7 +1425,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="19.2" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="50" t="s">
         <v>3</v>
@@ -1462,7 +1462,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="36" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="51"/>
       <c r="C8" s="46"/>
@@ -1495,7 +1495,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="52"/>
       <c r="C9" s="48"/>
@@ -1528,7 +1528,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="50" t="s">
         <v>4</v>
@@ -1563,7 +1563,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="66" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="51"/>
       <c r="C11" s="7"/>
@@ -1606,7 +1606,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="52"/>
       <c r="C12" s="7"/>
@@ -1639,7 +1639,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" ht="18" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="42" t="s">
         <v>9</v>
@@ -1684,7 +1684,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" ht="68.400000000000006" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="43"/>
       <c r="C14" s="6"/>
@@ -1727,7 +1727,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" ht="18" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="43"/>
       <c r="C15" s="6"/>
@@ -1770,7 +1770,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" ht="57" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="43"/>
       <c r="C16" s="6"/>
@@ -1813,7 +1813,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="43"/>
       <c r="C17" s="6"/>
@@ -1853,7 +1853,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" ht="60" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="43"/>
       <c r="C18" s="6"/>
@@ -1896,7 +1896,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="43"/>
       <c r="C19" s="6"/>
@@ -1937,7 +1937,7 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" ht="58.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="43"/>
       <c r="C20" s="6"/>
@@ -1978,7 +1978,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" ht="18" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="43"/>
       <c r="C21" s="6"/>
@@ -2019,7 +2019,7 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" ht="61.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="43"/>
       <c r="C22" s="6"/>
@@ -2060,7 +2060,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="43"/>
       <c r="C23" s="6"/>
@@ -2069,6 +2069,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -2096,7 +2097,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" ht="71.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="43"/>
       <c r="C24" s="6"/>
@@ -2135,7 +2136,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="43"/>
       <c r="C25" s="6"/>
@@ -2172,7 +2173,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" ht="59.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="43"/>
       <c r="C26" s="6"/>
@@ -2209,7 +2210,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="43"/>
       <c r="C27" s="6"/>
@@ -2246,7 +2247,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" ht="46.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="43"/>
       <c r="C28" s="6"/>
@@ -2283,7 +2284,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="43"/>
       <c r="C29" s="6"/>
@@ -2320,7 +2321,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" ht="66" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="43"/>
       <c r="C30" s="6"/>
@@ -2357,7 +2358,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="43"/>
       <c r="C31" s="6"/>
@@ -2394,7 +2395,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" ht="58.8" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="43"/>
       <c r="C32" s="6"/>
@@ -2431,7 +2432,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" ht="24.6" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="43"/>
       <c r="C33" s="6"/>
@@ -2468,7 +2469,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" ht="65.400000000000006" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="43"/>
       <c r="C34" s="6"/>
@@ -2505,7 +2506,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" ht="22.8" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="43"/>
       <c r="C35" s="6"/>
@@ -2542,7 +2543,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" ht="52.2" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="43"/>
       <c r="C36" s="6"/>
@@ -2579,7 +2580,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="43"/>
       <c r="C37" s="6"/>
@@ -2616,7 +2617,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" ht="69.599999999999994" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="43"/>
       <c r="C38" s="6"/>
@@ -2653,7 +2654,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" ht="20.399999999999999" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="43"/>
       <c r="C39" s="6"/>
@@ -2690,7 +2691,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" ht="104.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" ht="104.4" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="43"/>
       <c r="C40" s="6"/>
@@ -2727,7 +2728,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" ht="18" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="43"/>
       <c r="C41" s="6"/>
@@ -2764,7 +2765,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" ht="84" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="43"/>
       <c r="C42" s="6"/>
@@ -2801,7 +2802,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" ht="28.8" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="43"/>
       <c r="C43" s="6"/>
@@ -2836,7 +2837,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" ht="58.5" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="43"/>
       <c r="C44" s="6"/>
@@ -2871,7 +2872,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" ht="18" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="43"/>
       <c r="C45" s="6"/>
@@ -2906,7 +2907,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" ht="55.5" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="43"/>
       <c r="C46" s="6"/>
@@ -2941,7 +2942,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" ht="18" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="43"/>
       <c r="C47" s="6"/>
@@ -2976,7 +2977,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" ht="67.5" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="43"/>
       <c r="C48" s="6"/>
@@ -3011,7 +3012,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" ht="18" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="43"/>
       <c r="C49" s="6"/>
@@ -3044,7 +3045,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="17.25" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3077,7 +3078,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" ht="17.25" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3110,7 +3111,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="17.25" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3143,7 +3144,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="17.25" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3176,7 +3177,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="17.25" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3209,7 +3210,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="17.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3242,7 +3243,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="17.25" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3275,7 +3276,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="17.25" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3308,7 +3309,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="17.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3341,7 +3342,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="17.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3374,7 +3375,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="17.25" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3407,7 +3408,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" ht="17.25" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3440,7 +3441,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" ht="17.25" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3473,7 +3474,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" ht="17.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3506,7 +3507,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" ht="17.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3539,7 +3540,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" ht="17.25" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3572,7 +3573,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" ht="17.25" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3605,7 +3606,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" ht="17.25" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3638,7 +3639,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" ht="17.25" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3671,7 +3672,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" ht="17.25" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3704,7 +3705,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" ht="17.25" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3737,7 +3738,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" ht="17.25" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3770,7 +3771,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" ht="17.25" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3803,7 +3804,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" ht="17.25" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3836,7 +3837,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" ht="17.25" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3869,7 +3870,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" ht="17.25" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3902,7 +3903,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" ht="17.25" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3935,7 +3936,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" ht="17.25" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3968,7 +3969,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" ht="17.25" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4001,7 +4002,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" ht="17.25" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4034,7 +4035,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" ht="17.25" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4067,7 +4068,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="17.25" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4100,7 +4101,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="17.25" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4133,7 +4134,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="17.25" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4166,7 +4167,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" ht="17.25" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4199,7 +4200,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" ht="17.25" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4232,7 +4233,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" ht="17.25" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4265,7 +4266,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" ht="17.25" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4298,7 +4299,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" ht="17.25" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4331,7 +4332,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" ht="17.25" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4364,7 +4365,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" ht="17.25" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4397,7 +4398,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" ht="17.25" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4430,7 +4431,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" ht="17.25" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4463,7 +4464,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" ht="17.25" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4496,7 +4497,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" ht="17.25" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4529,7 +4530,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" ht="17.25" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4562,7 +4563,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" ht="17.25" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4595,7 +4596,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" ht="17.25" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4628,7 +4629,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" ht="17.25" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4661,7 +4662,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" ht="17.25" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4694,7 +4695,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" ht="17.25" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4727,7 +4728,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" ht="17.25" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4760,7 +4761,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" ht="17.25" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4793,7 +4794,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" ht="17.25" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4826,7 +4827,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" ht="17.25" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4859,7 +4860,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" ht="17.25" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4892,7 +4893,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" ht="17.25" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4925,7 +4926,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" ht="17.25" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4958,7 +4959,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" ht="17.25" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4991,7 +4992,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" ht="17.25" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5024,7 +5025,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" ht="17.25" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5057,7 +5058,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" ht="17.25" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5090,7 +5091,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" ht="17.25" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5123,7 +5124,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" ht="17.25" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5156,7 +5157,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" ht="17.25" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5189,7 +5190,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" ht="17.25" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5222,7 +5223,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" ht="17.25" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5255,7 +5256,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="17.25" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5288,7 +5289,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" ht="17.25" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5321,7 +5322,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" ht="17.25" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5354,7 +5355,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" ht="17.25" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5387,7 +5388,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" ht="17.25" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5420,7 +5421,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" ht="17.25" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5453,7 +5454,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" ht="17.25" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5486,7 +5487,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" ht="17.25" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5519,7 +5520,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" ht="17.25" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5552,7 +5553,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" ht="17.25" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5585,7 +5586,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" ht="17.25" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5618,7 +5619,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" ht="17.25" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5651,7 +5652,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" ht="17.25" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5684,7 +5685,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" ht="17.25" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5717,7 +5718,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" ht="17.25" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5750,7 +5751,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" ht="17.25" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5783,7 +5784,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" ht="17.25" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5816,7 +5817,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" ht="17.25" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5849,7 +5850,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" ht="17.25" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5882,7 +5883,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" ht="17.25" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5915,7 +5916,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" ht="17.25" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5948,7 +5949,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" ht="17.25" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5981,7 +5982,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" ht="17.25" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6014,7 +6015,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" ht="17.25" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6047,7 +6048,7 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" ht="17.25" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6080,7 +6081,7 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" ht="17.25" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6113,7 +6114,7 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" ht="17.25" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6146,7 +6147,7 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" ht="17.25" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6179,7 +6180,7 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" ht="17.25" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6212,7 +6213,7 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" ht="17.25" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6245,7 +6246,7 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" ht="17.25" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6278,7 +6279,7 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6311,7 +6312,7 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6344,7 +6345,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6377,7 +6378,7 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6410,7 +6411,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6443,7 +6444,7 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6476,7 +6477,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6509,7 +6510,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6542,7 +6543,7 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6575,7 +6576,7 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6608,7 +6609,7 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6641,7 +6642,7 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6674,7 +6675,7 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
     </row>
-    <row r="160" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6707,7 +6708,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
     </row>
-    <row r="161" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6740,7 +6741,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
     </row>
-    <row r="162" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6773,7 +6774,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
     </row>
-    <row r="163" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6806,7 +6807,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
     </row>
-    <row r="164" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6839,7 +6840,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
     </row>
-    <row r="165" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6872,7 +6873,7 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
     </row>
-    <row r="166" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6905,7 +6906,7 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
     </row>
-    <row r="167" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6938,7 +6939,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
     </row>
-    <row r="168" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6971,7 +6972,7 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
     </row>
-    <row r="169" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7004,7 +7005,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
     </row>
-    <row r="170" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7037,7 +7038,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
     </row>
-    <row r="171" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7070,7 +7071,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
     </row>
-    <row r="172" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7103,7 +7104,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
     </row>
-    <row r="173" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7136,7 +7137,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
     </row>
-    <row r="174" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7169,7 +7170,7 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
     </row>
-    <row r="175" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7202,7 +7203,7 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
     </row>
-    <row r="176" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7235,7 +7236,7 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
     </row>
-    <row r="177" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7268,7 +7269,7 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
     </row>
-    <row r="178" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7301,7 +7302,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
     </row>
-    <row r="179" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7334,7 +7335,7 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
     </row>
-    <row r="180" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7367,7 +7368,7 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
     </row>
-    <row r="181" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7400,7 +7401,7 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
     </row>
-    <row r="182" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7433,7 +7434,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
     </row>
-    <row r="183" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7466,7 +7467,7 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
     </row>
-    <row r="184" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7499,7 +7500,7 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
     </row>
-    <row r="185" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7532,7 +7533,7 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
     </row>
-    <row r="186" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7565,7 +7566,7 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
     </row>
-    <row r="187" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7598,7 +7599,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
     </row>
-    <row r="188" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7631,7 +7632,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
     </row>
-    <row r="189" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7664,7 +7665,7 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
     </row>
-    <row r="190" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7697,7 +7698,7 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
     </row>
-    <row r="191" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7730,7 +7731,7 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
     </row>
-    <row r="192" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7763,7 +7764,7 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
     </row>
-    <row r="193" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7796,7 +7797,7 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
     </row>
-    <row r="194" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7829,7 +7830,7 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
     </row>
-    <row r="195" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7862,7 +7863,7 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
     </row>
-    <row r="196" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7895,7 +7896,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
     </row>
-    <row r="197" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7928,7 +7929,7 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
     </row>
-    <row r="198" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7961,7 +7962,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
     </row>
-    <row r="199" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7994,7 +7995,7 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
     </row>
-    <row r="200" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8027,7 +8028,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
     </row>
-    <row r="201" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8060,7 +8061,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
     </row>
-    <row r="202" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8093,7 +8094,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
     </row>
-    <row r="203" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8126,7 +8127,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
     </row>
-    <row r="204" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8159,7 +8160,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
     </row>
-    <row r="205" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8192,7 +8193,7 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
     </row>
-    <row r="206" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8225,7 +8226,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
     </row>
-    <row r="207" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8258,7 +8259,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
     </row>
-    <row r="208" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8291,7 +8292,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
     </row>
-    <row r="209" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8324,7 +8325,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
     </row>
-    <row r="210" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8357,7 +8358,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
     </row>
-    <row r="211" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8390,7 +8391,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
     </row>
-    <row r="212" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8423,7 +8424,7 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
     </row>
-    <row r="213" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8456,7 +8457,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
     </row>
-    <row r="214" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8489,7 +8490,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
     </row>
-    <row r="215" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8522,7 +8523,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
     </row>
-    <row r="216" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8555,7 +8556,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
     </row>
-    <row r="217" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8588,7 +8589,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
     </row>
-    <row r="218" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8621,7 +8622,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
     </row>
-    <row r="219" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8654,7 +8655,7 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
     </row>
-    <row r="220" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8687,7 +8688,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
     </row>
-    <row r="221" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8720,7 +8721,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
     </row>
-    <row r="222" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8753,7 +8754,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
     </row>
-    <row r="223" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8786,7 +8787,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
     </row>
-    <row r="224" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8819,7 +8820,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8852,7 +8853,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8885,7 +8886,7 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
     </row>
-    <row r="227" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8918,7 +8919,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
     </row>
-    <row r="228" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8951,7 +8952,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
     </row>
-    <row r="229" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8984,7 +8985,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
     </row>
-    <row r="230" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9017,7 +9018,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
     </row>
-    <row r="231" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9050,7 +9051,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
     </row>
-    <row r="232" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9083,7 +9084,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
     </row>
-    <row r="233" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9116,7 +9117,7 @@
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
     </row>
-    <row r="234" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9149,7 +9150,7 @@
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
     </row>
-    <row r="235" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9182,7 +9183,7 @@
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
     </row>
-    <row r="236" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9215,7 +9216,7 @@
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
     </row>
-    <row r="237" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9248,7 +9249,7 @@
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
     </row>
-    <row r="238" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9281,7 +9282,7 @@
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
     </row>
-    <row r="239" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9314,7 +9315,7 @@
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
     </row>
-    <row r="240" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9347,7 +9348,7 @@
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
     </row>
-    <row r="241" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9380,7 +9381,7 @@
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
     </row>
-    <row r="242" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9413,7 +9414,7 @@
       <c r="AD242" s="1"/>
       <c r="AE242" s="1"/>
     </row>
-    <row r="243" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9446,7 +9447,7 @@
       <c r="AD243" s="1"/>
       <c r="AE243" s="1"/>
     </row>
-    <row r="244" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9479,7 +9480,7 @@
       <c r="AD244" s="1"/>
       <c r="AE244" s="1"/>
     </row>
-    <row r="245" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9512,7 +9513,7 @@
       <c r="AD245" s="1"/>
       <c r="AE245" s="1"/>
     </row>
-    <row r="246" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9545,7 +9546,7 @@
       <c r="AD246" s="1"/>
       <c r="AE246" s="1"/>
     </row>
-    <row r="247" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9578,7 +9579,7 @@
       <c r="AD247" s="1"/>
       <c r="AE247" s="1"/>
     </row>
-    <row r="248" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9611,7 +9612,7 @@
       <c r="AD248" s="1"/>
       <c r="AE248" s="1"/>
     </row>
-    <row r="249" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9644,7 +9645,7 @@
       <c r="AD249" s="1"/>
       <c r="AE249" s="1"/>
     </row>
-    <row r="250" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9677,7 +9678,7 @@
       <c r="AD250" s="1"/>
       <c r="AE250" s="1"/>
     </row>
-    <row r="251" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9710,7 +9711,7 @@
       <c r="AD251" s="1"/>
       <c r="AE251" s="1"/>
     </row>
-    <row r="252" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9743,7 +9744,7 @@
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
     </row>
-    <row r="253" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9776,7 +9777,7 @@
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
     </row>
-    <row r="254" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9809,7 +9810,7 @@
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
     </row>
-    <row r="255" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9842,7 +9843,7 @@
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
     </row>
-    <row r="256" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9875,7 +9876,7 @@
       <c r="AD256" s="1"/>
       <c r="AE256" s="1"/>
     </row>
-    <row r="257" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9908,7 +9909,7 @@
       <c r="AD257" s="1"/>
       <c r="AE257" s="1"/>
     </row>
-    <row r="258" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9941,7 +9942,7 @@
       <c r="AD258" s="1"/>
       <c r="AE258" s="1"/>
     </row>
-    <row r="259" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9974,7 +9975,7 @@
       <c r="AD259" s="1"/>
       <c r="AE259" s="1"/>
     </row>
-    <row r="260" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10007,7 +10008,7 @@
       <c r="AD260" s="1"/>
       <c r="AE260" s="1"/>
     </row>
-    <row r="261" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10040,7 +10041,7 @@
       <c r="AD261" s="1"/>
       <c r="AE261" s="1"/>
     </row>
-    <row r="262" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10073,7 +10074,7 @@
       <c r="AD262" s="1"/>
       <c r="AE262" s="1"/>
     </row>
-    <row r="263" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10106,7 +10107,7 @@
       <c r="AD263" s="1"/>
       <c r="AE263" s="1"/>
     </row>
-    <row r="264" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10139,7 +10140,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
     </row>
-    <row r="265" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10172,7 +10173,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
     </row>
-    <row r="266" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10205,7 +10206,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
     </row>
-    <row r="267" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10238,7 +10239,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
     </row>
-    <row r="268" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10271,7 +10272,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
     </row>
-    <row r="269" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10304,7 +10305,7 @@
       <c r="AD269" s="1"/>
       <c r="AE269" s="1"/>
     </row>
-    <row r="270" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10337,7 +10338,7 @@
       <c r="AD270" s="1"/>
       <c r="AE270" s="1"/>
     </row>
-    <row r="271" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10370,7 +10371,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
     </row>
-    <row r="272" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10403,7 +10404,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
     </row>
-    <row r="273" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10436,7 +10437,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
     </row>
-    <row r="274" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10469,7 +10470,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
     </row>
-    <row r="275" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:31" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10502,7 +10503,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
     </row>
-    <row r="276" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10535,7 +10536,7 @@
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
     </row>
-    <row r="277" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10568,7 +10569,7 @@
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
     </row>
-    <row r="278" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10601,7 +10602,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
     </row>
-    <row r="279" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10634,7 +10635,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
     </row>
-    <row r="280" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10667,7 +10668,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
     </row>
-    <row r="281" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10700,7 +10701,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
     </row>
-    <row r="282" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10733,7 +10734,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
     </row>
-    <row r="283" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10766,7 +10767,7 @@
       <c r="AD283" s="1"/>
       <c r="AE283" s="1"/>
     </row>
-    <row r="284" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10799,7 +10800,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
     </row>
-    <row r="285" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10832,7 +10833,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
     </row>
-    <row r="286" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10865,7 +10866,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
     </row>
-    <row r="287" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10898,7 +10899,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
     </row>
-    <row r="288" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" ht="15.75" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10931,7 +10932,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
     </row>
-    <row r="289" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" ht="15.75" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -10964,7 +10965,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
     </row>
-    <row r="290" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:31" ht="15.75" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -10997,7 +10998,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
     </row>
-    <row r="291" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" ht="15.75" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11030,7 +11031,7 @@
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
     </row>
-    <row r="292" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" ht="15.75" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11063,7 +11064,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
     </row>
-    <row r="293" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" ht="15.75" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11096,7 +11097,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
     </row>
-    <row r="294" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" ht="15.75" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11129,7 +11130,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
     </row>
-    <row r="295" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" ht="15.75" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11162,7 +11163,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
     </row>
-    <row r="296" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" ht="15.75" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11195,7 +11196,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
     </row>
-    <row r="297" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" ht="15.75" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11228,7 +11229,7 @@
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
     </row>
-    <row r="298" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" ht="15.75" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11261,7 +11262,7 @@
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
     </row>
-    <row r="299" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" ht="15.75" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11294,7 +11295,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
     </row>
-    <row r="300" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11327,7 +11328,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
     </row>
-    <row r="301" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" ht="15.75" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11360,7 +11361,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
     </row>
-    <row r="302" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" ht="15.75" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11393,7 +11394,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
     </row>
-    <row r="303" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" ht="15.75" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11426,7 +11427,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
     </row>
-    <row r="304" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11459,7 +11460,7 @@
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
     </row>
-    <row r="305" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11492,7 +11493,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
     </row>
-    <row r="306" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11525,7 +11526,7 @@
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
     </row>
-    <row r="307" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11558,7 +11559,7 @@
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
     </row>
-    <row r="308" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:31" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11591,7 +11592,7 @@
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
     </row>
-    <row r="309" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11624,7 +11625,7 @@
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
     </row>
-    <row r="310" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11657,7 +11658,7 @@
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
     </row>
-    <row r="311" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11690,7 +11691,7 @@
       <c r="AD311" s="1"/>
       <c r="AE311" s="1"/>
     </row>
-    <row r="312" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11723,7 +11724,7 @@
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
     </row>
-    <row r="313" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11756,7 +11757,7 @@
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
     </row>
-    <row r="314" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11789,7 +11790,7 @@
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
     </row>
-    <row r="315" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:31" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11822,7 +11823,7 @@
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
     </row>
-    <row r="316" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:31" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11855,7 +11856,7 @@
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
     </row>
-    <row r="317" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11888,7 +11889,7 @@
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
     </row>
-    <row r="318" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:31" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11921,7 +11922,7 @@
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
     </row>
-    <row r="319" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -11954,7 +11955,7 @@
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
     </row>
-    <row r="320" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -11987,7 +11988,7 @@
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
     </row>
-    <row r="321" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -12020,7 +12021,7 @@
       <c r="AD321" s="1"/>
       <c r="AE321" s="1"/>
     </row>
-    <row r="322" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -12053,7 +12054,7 @@
       <c r="AD322" s="1"/>
       <c r="AE322" s="1"/>
     </row>
-    <row r="323" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -12086,7 +12087,7 @@
       <c r="AD323" s="1"/>
       <c r="AE323" s="1"/>
     </row>
-    <row r="324" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -12119,7 +12120,7 @@
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
     </row>
-    <row r="325" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12152,7 +12153,7 @@
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
     </row>
-    <row r="326" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12185,7 +12186,7 @@
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
     </row>
-    <row r="327" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12218,7 +12219,7 @@
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
     </row>
-    <row r="328" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" ht="15.75" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12251,7 +12252,7 @@
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
     </row>
-    <row r="329" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" ht="15.75" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12284,7 +12285,7 @@
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
     </row>
-    <row r="330" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" ht="15.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12317,7 +12318,7 @@
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
     </row>
-    <row r="331" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" ht="15.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12350,7 +12351,7 @@
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
     </row>
-    <row r="332" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" ht="15.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12383,7 +12384,7 @@
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
     </row>
-    <row r="333" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" ht="15.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12416,7 +12417,7 @@
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
     </row>
-    <row r="334" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" ht="15.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12449,7 +12450,7 @@
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
     </row>
-    <row r="335" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" ht="15.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12482,7 +12483,7 @@
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
     </row>
-    <row r="336" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" ht="15.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12515,7 +12516,7 @@
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
     </row>
-    <row r="337" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" ht="15.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12548,7 +12549,7 @@
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
     </row>
-    <row r="338" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" ht="15.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12581,7 +12582,7 @@
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
     </row>
-    <row r="339" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" ht="15.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12614,7 +12615,7 @@
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
     </row>
-    <row r="340" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" ht="15.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12647,7 +12648,7 @@
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
     </row>
-    <row r="341" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31" ht="15.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12680,7 +12681,7 @@
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
     </row>
-    <row r="342" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31" ht="15.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12713,7 +12714,7 @@
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
     </row>
-    <row r="343" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31" ht="15.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12746,7 +12747,7 @@
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
     </row>
-    <row r="344" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:31" ht="15.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12779,7 +12780,7 @@
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
     </row>
-    <row r="345" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:31" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12812,7 +12813,7 @@
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
     </row>
-    <row r="346" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12845,7 +12846,7 @@
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
     </row>
-    <row r="347" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:31" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12878,7 +12879,7 @@
       <c r="AD347" s="1"/>
       <c r="AE347" s="1"/>
     </row>
-    <row r="348" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12911,7 +12912,7 @@
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
     </row>
-    <row r="349" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" ht="15.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12944,7 +12945,7 @@
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
     </row>
-    <row r="350" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -12977,7 +12978,7 @@
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
     </row>
-    <row r="351" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" ht="15.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -13010,7 +13011,7 @@
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
     </row>
-    <row r="352" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31" ht="15.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -13043,7 +13044,7 @@
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
     </row>
-    <row r="353" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" ht="15.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -13076,7 +13077,7 @@
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
     </row>
-    <row r="354" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:31" ht="15.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -13109,7 +13110,7 @@
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
     </row>
-    <row r="355" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" ht="15.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -13142,7 +13143,7 @@
       <c r="AD355" s="1"/>
       <c r="AE355" s="1"/>
     </row>
-    <row r="356" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" ht="15.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -13175,7 +13176,7 @@
       <c r="AD356" s="1"/>
       <c r="AE356" s="1"/>
     </row>
-    <row r="357" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" ht="15.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13208,7 +13209,7 @@
       <c r="AD357" s="1"/>
       <c r="AE357" s="1"/>
     </row>
-    <row r="358" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" ht="15.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13241,7 +13242,7 @@
       <c r="AD358" s="1"/>
       <c r="AE358" s="1"/>
     </row>
-    <row r="359" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:31" ht="15.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13274,7 +13275,7 @@
       <c r="AD359" s="1"/>
       <c r="AE359" s="1"/>
     </row>
-    <row r="360" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:31" ht="15.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13307,7 +13308,7 @@
       <c r="AD360" s="1"/>
       <c r="AE360" s="1"/>
     </row>
-    <row r="361" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" ht="15.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13340,7 +13341,7 @@
       <c r="AD361" s="1"/>
       <c r="AE361" s="1"/>
     </row>
-    <row r="362" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" ht="15.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13373,7 +13374,7 @@
       <c r="AD362" s="1"/>
       <c r="AE362" s="1"/>
     </row>
-    <row r="363" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" ht="15.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13406,7 +13407,7 @@
       <c r="AD363" s="1"/>
       <c r="AE363" s="1"/>
     </row>
-    <row r="364" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" ht="15.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13439,7 +13440,7 @@
       <c r="AD364" s="1"/>
       <c r="AE364" s="1"/>
     </row>
-    <row r="365" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" ht="15.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13472,7 +13473,7 @@
       <c r="AD365" s="1"/>
       <c r="AE365" s="1"/>
     </row>
-    <row r="366" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" ht="15.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13505,7 +13506,7 @@
       <c r="AD366" s="1"/>
       <c r="AE366" s="1"/>
     </row>
-    <row r="367" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31" ht="15.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13538,7 +13539,7 @@
       <c r="AD367" s="1"/>
       <c r="AE367" s="1"/>
     </row>
-    <row r="368" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" ht="15.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13571,7 +13572,7 @@
       <c r="AD368" s="1"/>
       <c r="AE368" s="1"/>
     </row>
-    <row r="369" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31" ht="15.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13604,7 +13605,7 @@
       <c r="AD369" s="1"/>
       <c r="AE369" s="1"/>
     </row>
-    <row r="370" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" ht="15.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13637,7 +13638,7 @@
       <c r="AD370" s="1"/>
       <c r="AE370" s="1"/>
     </row>
-    <row r="371" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" ht="15.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13670,7 +13671,7 @@
       <c r="AD371" s="1"/>
       <c r="AE371" s="1"/>
     </row>
-    <row r="372" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31" ht="15.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13703,7 +13704,7 @@
       <c r="AD372" s="1"/>
       <c r="AE372" s="1"/>
     </row>
-    <row r="373" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31" ht="15.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13736,7 +13737,7 @@
       <c r="AD373" s="1"/>
       <c r="AE373" s="1"/>
     </row>
-    <row r="374" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" ht="15.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13769,7 +13770,7 @@
       <c r="AD374" s="1"/>
       <c r="AE374" s="1"/>
     </row>
-    <row r="375" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:31" ht="15.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13802,7 +13803,7 @@
       <c r="AD375" s="1"/>
       <c r="AE375" s="1"/>
     </row>
-    <row r="376" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:31" ht="15.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13835,7 +13836,7 @@
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
     </row>
-    <row r="377" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:31" ht="15.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13868,7 +13869,7 @@
       <c r="AD377" s="1"/>
       <c r="AE377" s="1"/>
     </row>
-    <row r="378" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:31" ht="15.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13901,7 +13902,7 @@
       <c r="AD378" s="1"/>
       <c r="AE378" s="1"/>
     </row>
-    <row r="379" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" ht="15.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -13934,7 +13935,7 @@
       <c r="AD379" s="1"/>
       <c r="AE379" s="1"/>
     </row>
-    <row r="380" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:31" ht="15.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -13967,7 +13968,7 @@
       <c r="AD380" s="1"/>
       <c r="AE380" s="1"/>
     </row>
-    <row r="381" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:31" ht="15.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -14000,7 +14001,7 @@
       <c r="AD381" s="1"/>
       <c r="AE381" s="1"/>
     </row>
-    <row r="382" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:31" ht="15.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -14033,7 +14034,7 @@
       <c r="AD382" s="1"/>
       <c r="AE382" s="1"/>
     </row>
-    <row r="383" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" ht="15.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -14066,7 +14067,7 @@
       <c r="AD383" s="1"/>
       <c r="AE383" s="1"/>
     </row>
-    <row r="384" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:31" ht="15.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -14099,7 +14100,7 @@
       <c r="AD384" s="1"/>
       <c r="AE384" s="1"/>
     </row>
-    <row r="385" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:31" ht="15.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -14132,7 +14133,7 @@
       <c r="AD385" s="1"/>
       <c r="AE385" s="1"/>
     </row>
-    <row r="386" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31" ht="15.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -14165,7 +14166,7 @@
       <c r="AD386" s="1"/>
       <c r="AE386" s="1"/>
     </row>
-    <row r="387" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31" ht="15.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -14198,7 +14199,7 @@
       <c r="AD387" s="1"/>
       <c r="AE387" s="1"/>
     </row>
-    <row r="388" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:31" ht="15.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -14231,7 +14232,7 @@
       <c r="AD388" s="1"/>
       <c r="AE388" s="1"/>
     </row>
-    <row r="389" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31" ht="15.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14264,7 +14265,7 @@
       <c r="AD389" s="1"/>
       <c r="AE389" s="1"/>
     </row>
-    <row r="390" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31" ht="15.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14297,7 +14298,7 @@
       <c r="AD390" s="1"/>
       <c r="AE390" s="1"/>
     </row>
-    <row r="391" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:31" ht="15.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14330,7 +14331,7 @@
       <c r="AD391" s="1"/>
       <c r="AE391" s="1"/>
     </row>
-    <row r="392" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:31" ht="15.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14363,7 +14364,7 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
     </row>
-    <row r="393" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31" ht="15.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14396,7 +14397,7 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
     </row>
-    <row r="394" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31" ht="15.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14429,7 +14430,7 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
     </row>
-    <row r="395" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:31" ht="15.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14462,7 +14463,7 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
     </row>
-    <row r="396" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:31" ht="15.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14495,7 +14496,7 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
     </row>
-    <row r="397" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:31" ht="15.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14528,7 +14529,7 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
     </row>
-    <row r="398" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:31" ht="15.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14561,7 +14562,7 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
     </row>
-    <row r="399" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31" ht="15.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14594,7 +14595,7 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
     </row>
-    <row r="400" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:31" ht="15.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14627,7 +14628,7 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
     </row>
-    <row r="401" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31" ht="15.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14660,7 +14661,7 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
     </row>
-    <row r="402" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31" ht="15.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14693,7 +14694,7 @@
       <c r="AD402" s="1"/>
       <c r="AE402" s="1"/>
     </row>
-    <row r="403" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31" ht="15.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14726,7 +14727,7 @@
       <c r="AD403" s="1"/>
       <c r="AE403" s="1"/>
     </row>
-    <row r="404" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31" ht="15.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14759,7 +14760,7 @@
       <c r="AD404" s="1"/>
       <c r="AE404" s="1"/>
     </row>
-    <row r="405" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" ht="15.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14792,7 +14793,7 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
     </row>
-    <row r="406" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:31" ht="15.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14825,7 +14826,7 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
     </row>
-    <row r="407" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" ht="15.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14858,7 +14859,7 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
     </row>
-    <row r="408" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:31" ht="15.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14891,7 +14892,7 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
     </row>
-    <row r="409" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:31" ht="15.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -14924,7 +14925,7 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
     </row>
-    <row r="410" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:31" ht="15.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -14957,7 +14958,7 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
     </row>
-    <row r="411" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:31" ht="15.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -14990,7 +14991,7 @@
       <c r="AD411" s="1"/>
       <c r="AE411" s="1"/>
     </row>
-    <row r="412" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31" ht="15.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -15023,7 +15024,7 @@
       <c r="AD412" s="1"/>
       <c r="AE412" s="1"/>
     </row>
-    <row r="413" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31" ht="15.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -15056,7 +15057,7 @@
       <c r="AD413" s="1"/>
       <c r="AE413" s="1"/>
     </row>
-    <row r="414" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31" ht="15.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -15089,7 +15090,7 @@
       <c r="AD414" s="1"/>
       <c r="AE414" s="1"/>
     </row>
-    <row r="415" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31" ht="15.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -15122,7 +15123,7 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
     </row>
-    <row r="416" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31" ht="15.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -15155,7 +15156,7 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
     </row>
-    <row r="417" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31" ht="15.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -15188,7 +15189,7 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
     </row>
-    <row r="418" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31" ht="15.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -15221,7 +15222,7 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
     </row>
-    <row r="419" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31" ht="15.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -15254,7 +15255,7 @@
       <c r="AD419" s="1"/>
       <c r="AE419" s="1"/>
     </row>
-    <row r="420" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31" ht="15.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -15287,7 +15288,7 @@
       <c r="AD420" s="1"/>
       <c r="AE420" s="1"/>
     </row>
-    <row r="421" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31" ht="15.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -15320,7 +15321,7 @@
       <c r="AD421" s="1"/>
       <c r="AE421" s="1"/>
     </row>
-    <row r="422" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31" ht="15.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15353,7 +15354,7 @@
       <c r="AD422" s="1"/>
       <c r="AE422" s="1"/>
     </row>
-    <row r="423" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31" ht="15.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15386,7 +15387,7 @@
       <c r="AD423" s="1"/>
       <c r="AE423" s="1"/>
     </row>
-    <row r="424" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:31" ht="15.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15419,7 +15420,7 @@
       <c r="AD424" s="1"/>
       <c r="AE424" s="1"/>
     </row>
-    <row r="425" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:31" ht="15.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15452,7 +15453,7 @@
       <c r="AD425" s="1"/>
       <c r="AE425" s="1"/>
     </row>
-    <row r="426" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:31" ht="15.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15485,7 +15486,7 @@
       <c r="AD426" s="1"/>
       <c r="AE426" s="1"/>
     </row>
-    <row r="427" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:31" ht="15.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15518,7 +15519,7 @@
       <c r="AD427" s="1"/>
       <c r="AE427" s="1"/>
     </row>
-    <row r="428" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:31" ht="15.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15551,7 +15552,7 @@
       <c r="AD428" s="1"/>
       <c r="AE428" s="1"/>
     </row>
-    <row r="429" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:31" ht="15.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15584,7 +15585,7 @@
       <c r="AD429" s="1"/>
       <c r="AE429" s="1"/>
     </row>
-    <row r="430" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:31" ht="15.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15617,7 +15618,7 @@
       <c r="AD430" s="1"/>
       <c r="AE430" s="1"/>
     </row>
-    <row r="431" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:31" ht="15.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15650,7 +15651,7 @@
       <c r="AD431" s="1"/>
       <c r="AE431" s="1"/>
     </row>
-    <row r="432" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:31" ht="15.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15683,7 +15684,7 @@
       <c r="AD432" s="1"/>
       <c r="AE432" s="1"/>
     </row>
-    <row r="433" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:31" ht="15.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15716,7 +15717,7 @@
       <c r="AD433" s="1"/>
       <c r="AE433" s="1"/>
     </row>
-    <row r="434" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:31" ht="15.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15749,7 +15750,7 @@
       <c r="AD434" s="1"/>
       <c r="AE434" s="1"/>
     </row>
-    <row r="435" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:31" ht="15.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15782,7 +15783,7 @@
       <c r="AD435" s="1"/>
       <c r="AE435" s="1"/>
     </row>
-    <row r="436" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:31" ht="15.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -15815,7 +15816,7 @@
       <c r="AD436" s="1"/>
       <c r="AE436" s="1"/>
     </row>
-    <row r="437" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:31" ht="15.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -15848,7 +15849,7 @@
       <c r="AD437" s="1"/>
       <c r="AE437" s="1"/>
     </row>
-    <row r="438" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:31" ht="15.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -15881,7 +15882,7 @@
       <c r="AD438" s="1"/>
       <c r="AE438" s="1"/>
     </row>
-    <row r="439" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:31" ht="15.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -15914,7 +15915,7 @@
       <c r="AD439" s="1"/>
       <c r="AE439" s="1"/>
     </row>
-    <row r="440" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:31" ht="15.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -15947,7 +15948,7 @@
       <c r="AD440" s="1"/>
       <c r="AE440" s="1"/>
     </row>
-    <row r="441" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:31" ht="15.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -15980,7 +15981,7 @@
       <c r="AD441" s="1"/>
       <c r="AE441" s="1"/>
     </row>
-    <row r="442" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:31" ht="15.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -16013,7 +16014,7 @@
       <c r="AD442" s="1"/>
       <c r="AE442" s="1"/>
     </row>
-    <row r="443" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:31" ht="15.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -16046,7 +16047,7 @@
       <c r="AD443" s="1"/>
       <c r="AE443" s="1"/>
     </row>
-    <row r="444" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:31" ht="15.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -16079,7 +16080,7 @@
       <c r="AD444" s="1"/>
       <c r="AE444" s="1"/>
     </row>
-    <row r="445" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:31" ht="15.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -16112,7 +16113,7 @@
       <c r="AD445" s="1"/>
       <c r="AE445" s="1"/>
     </row>
-    <row r="446" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:31" ht="15.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -16145,7 +16146,7 @@
       <c r="AD446" s="1"/>
       <c r="AE446" s="1"/>
     </row>
-    <row r="447" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:31" ht="15.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -16178,7 +16179,7 @@
       <c r="AD447" s="1"/>
       <c r="AE447" s="1"/>
     </row>
-    <row r="448" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:31" ht="15.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -16211,7 +16212,7 @@
       <c r="AD448" s="1"/>
       <c r="AE448" s="1"/>
     </row>
-    <row r="449" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:31" ht="15.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -16244,7 +16245,7 @@
       <c r="AD449" s="1"/>
       <c r="AE449" s="1"/>
     </row>
-    <row r="450" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:31" ht="15.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -16277,7 +16278,7 @@
       <c r="AD450" s="1"/>
       <c r="AE450" s="1"/>
     </row>
-    <row r="451" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:31" ht="15.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -16310,7 +16311,7 @@
       <c r="AD451" s="1"/>
       <c r="AE451" s="1"/>
     </row>
-    <row r="452" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:31" ht="15.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -16343,7 +16344,7 @@
       <c r="AD452" s="1"/>
       <c r="AE452" s="1"/>
     </row>
-    <row r="453" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:31" ht="15.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -16376,7 +16377,7 @@
       <c r="AD453" s="1"/>
       <c r="AE453" s="1"/>
     </row>
-    <row r="454" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:31" ht="15.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -16409,7 +16410,7 @@
       <c r="AD454" s="1"/>
       <c r="AE454" s="1"/>
     </row>
-    <row r="455" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:31" ht="15.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -16442,7 +16443,7 @@
       <c r="AD455" s="1"/>
       <c r="AE455" s="1"/>
     </row>
-    <row r="456" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:31" ht="15.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -16475,7 +16476,7 @@
       <c r="AD456" s="1"/>
       <c r="AE456" s="1"/>
     </row>
-    <row r="457" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:31" ht="15.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -16508,7 +16509,7 @@
       <c r="AD457" s="1"/>
       <c r="AE457" s="1"/>
     </row>
-    <row r="458" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:31" ht="15.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -16541,7 +16542,7 @@
       <c r="AD458" s="1"/>
       <c r="AE458" s="1"/>
     </row>
-    <row r="459" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:31" ht="15.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -16574,7 +16575,7 @@
       <c r="AD459" s="1"/>
       <c r="AE459" s="1"/>
     </row>
-    <row r="460" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:31" ht="15.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -16607,7 +16608,7 @@
       <c r="AD460" s="1"/>
       <c r="AE460" s="1"/>
     </row>
-    <row r="461" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:31" ht="15.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -16640,7 +16641,7 @@
       <c r="AD461" s="1"/>
       <c r="AE461" s="1"/>
     </row>
-    <row r="462" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:31" ht="15.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -16673,7 +16674,7 @@
       <c r="AD462" s="1"/>
       <c r="AE462" s="1"/>
     </row>
-    <row r="463" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:31" ht="15.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -16706,7 +16707,7 @@
       <c r="AD463" s="1"/>
       <c r="AE463" s="1"/>
     </row>
-    <row r="464" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:31" ht="15.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -16739,7 +16740,7 @@
       <c r="AD464" s="1"/>
       <c r="AE464" s="1"/>
     </row>
-    <row r="465" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:31" ht="15.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -16772,7 +16773,7 @@
       <c r="AD465" s="1"/>
       <c r="AE465" s="1"/>
     </row>
-    <row r="466" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:31" ht="15.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -16805,7 +16806,7 @@
       <c r="AD466" s="1"/>
       <c r="AE466" s="1"/>
     </row>
-    <row r="467" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:31" ht="15.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -16838,7 +16839,7 @@
       <c r="AD467" s="1"/>
       <c r="AE467" s="1"/>
     </row>
-    <row r="468" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:31" ht="15.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -16871,7 +16872,7 @@
       <c r="AD468" s="1"/>
       <c r="AE468" s="1"/>
     </row>
-    <row r="469" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:31" ht="15.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -16904,7 +16905,7 @@
       <c r="AD469" s="1"/>
       <c r="AE469" s="1"/>
     </row>
-    <row r="470" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:31" ht="15.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -16937,7 +16938,7 @@
       <c r="AD470" s="1"/>
       <c r="AE470" s="1"/>
     </row>
-    <row r="471" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:31" ht="15.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -16970,7 +16971,7 @@
       <c r="AD471" s="1"/>
       <c r="AE471" s="1"/>
     </row>
-    <row r="472" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:31" ht="15.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -17003,7 +17004,7 @@
       <c r="AD472" s="1"/>
       <c r="AE472" s="1"/>
     </row>
-    <row r="473" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:31" ht="15.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -17036,7 +17037,7 @@
       <c r="AD473" s="1"/>
       <c r="AE473" s="1"/>
     </row>
-    <row r="474" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:31" ht="15.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -17069,7 +17070,7 @@
       <c r="AD474" s="1"/>
       <c r="AE474" s="1"/>
     </row>
-    <row r="475" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:31" ht="15.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -17102,7 +17103,7 @@
       <c r="AD475" s="1"/>
       <c r="AE475" s="1"/>
     </row>
-    <row r="476" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:31" ht="15.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -17135,7 +17136,7 @@
       <c r="AD476" s="1"/>
       <c r="AE476" s="1"/>
     </row>
-    <row r="477" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:31" ht="15.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -17168,7 +17169,7 @@
       <c r="AD477" s="1"/>
       <c r="AE477" s="1"/>
     </row>
-    <row r="478" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:31" ht="15.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -17201,7 +17202,7 @@
       <c r="AD478" s="1"/>
       <c r="AE478" s="1"/>
     </row>
-    <row r="479" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:31" ht="15.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -17234,7 +17235,7 @@
       <c r="AD479" s="1"/>
       <c r="AE479" s="1"/>
     </row>
-    <row r="480" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:31" ht="15.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -17267,7 +17268,7 @@
       <c r="AD480" s="1"/>
       <c r="AE480" s="1"/>
     </row>
-    <row r="481" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:31" ht="15.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -17300,7 +17301,7 @@
       <c r="AD481" s="1"/>
       <c r="AE481" s="1"/>
     </row>
-    <row r="482" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:31" ht="15.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -17333,7 +17334,7 @@
       <c r="AD482" s="1"/>
       <c r="AE482" s="1"/>
     </row>
-    <row r="483" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:31" ht="15.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -17366,7 +17367,7 @@
       <c r="AD483" s="1"/>
       <c r="AE483" s="1"/>
     </row>
-    <row r="484" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:31" ht="15.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -17399,7 +17400,7 @@
       <c r="AD484" s="1"/>
       <c r="AE484" s="1"/>
     </row>
-    <row r="485" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:31" ht="15.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -17432,7 +17433,7 @@
       <c r="AD485" s="1"/>
       <c r="AE485" s="1"/>
     </row>
-    <row r="486" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:31" ht="15.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -17465,7 +17466,7 @@
       <c r="AD486" s="1"/>
       <c r="AE486" s="1"/>
     </row>
-    <row r="487" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:31" ht="15.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -17498,7 +17499,7 @@
       <c r="AD487" s="1"/>
       <c r="AE487" s="1"/>
     </row>
-    <row r="488" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:31" ht="15.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -17531,7 +17532,7 @@
       <c r="AD488" s="1"/>
       <c r="AE488" s="1"/>
     </row>
-    <row r="489" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:31" ht="15.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -17564,7 +17565,7 @@
       <c r="AD489" s="1"/>
       <c r="AE489" s="1"/>
     </row>
-    <row r="490" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:31" ht="15.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -17597,7 +17598,7 @@
       <c r="AD490" s="1"/>
       <c r="AE490" s="1"/>
     </row>
-    <row r="491" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:31" ht="15.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -17630,7 +17631,7 @@
       <c r="AD491" s="1"/>
       <c r="AE491" s="1"/>
     </row>
-    <row r="492" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:31" ht="15.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -17663,7 +17664,7 @@
       <c r="AD492" s="1"/>
       <c r="AE492" s="1"/>
     </row>
-    <row r="493" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:31" ht="15.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -17696,7 +17697,7 @@
       <c r="AD493" s="1"/>
       <c r="AE493" s="1"/>
     </row>
-    <row r="494" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:31" ht="15.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -17729,7 +17730,7 @@
       <c r="AD494" s="1"/>
       <c r="AE494" s="1"/>
     </row>
-    <row r="495" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:31" ht="15.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -17762,7 +17763,7 @@
       <c r="AD495" s="1"/>
       <c r="AE495" s="1"/>
     </row>
-    <row r="496" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:31" ht="15.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -17795,7 +17796,7 @@
       <c r="AD496" s="1"/>
       <c r="AE496" s="1"/>
     </row>
-    <row r="497" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:31" ht="15.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -17828,7 +17829,7 @@
       <c r="AD497" s="1"/>
       <c r="AE497" s="1"/>
     </row>
-    <row r="498" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:31" ht="15.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -17861,7 +17862,7 @@
       <c r="AD498" s="1"/>
       <c r="AE498" s="1"/>
     </row>
-    <row r="499" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:31" ht="15.75" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -17894,7 +17895,7 @@
       <c r="AD499" s="1"/>
       <c r="AE499" s="1"/>
     </row>
-    <row r="500" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:31" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -17927,7 +17928,7 @@
       <c r="AD500" s="1"/>
       <c r="AE500" s="1"/>
     </row>
-    <row r="501" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:31" ht="15.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -17960,7 +17961,7 @@
       <c r="AD501" s="1"/>
       <c r="AE501" s="1"/>
     </row>
-    <row r="502" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:31" ht="15.75" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -17993,7 +17994,7 @@
       <c r="AD502" s="1"/>
       <c r="AE502" s="1"/>
     </row>
-    <row r="503" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:31" ht="15.75" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -18026,7 +18027,7 @@
       <c r="AD503" s="1"/>
       <c r="AE503" s="1"/>
     </row>
-    <row r="504" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:31" ht="15.75" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -18059,7 +18060,7 @@
       <c r="AD504" s="1"/>
       <c r="AE504" s="1"/>
     </row>
-    <row r="505" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:31" ht="15.75" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -18092,7 +18093,7 @@
       <c r="AD505" s="1"/>
       <c r="AE505" s="1"/>
     </row>
-    <row r="506" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:31" ht="15.75" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -18125,7 +18126,7 @@
       <c r="AD506" s="1"/>
       <c r="AE506" s="1"/>
     </row>
-    <row r="507" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:31" ht="15.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -18158,7 +18159,7 @@
       <c r="AD507" s="1"/>
       <c r="AE507" s="1"/>
     </row>
-    <row r="508" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:31" ht="15.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -18191,7 +18192,7 @@
       <c r="AD508" s="1"/>
       <c r="AE508" s="1"/>
     </row>
-    <row r="509" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:31" ht="15.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -18224,7 +18225,7 @@
       <c r="AD509" s="1"/>
       <c r="AE509" s="1"/>
     </row>
-    <row r="510" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:31" ht="15.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -18257,7 +18258,7 @@
       <c r="AD510" s="1"/>
       <c r="AE510" s="1"/>
     </row>
-    <row r="511" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:31" ht="15.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -18290,7 +18291,7 @@
       <c r="AD511" s="1"/>
       <c r="AE511" s="1"/>
     </row>
-    <row r="512" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:31" ht="15.75" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -18323,7 +18324,7 @@
       <c r="AD512" s="1"/>
       <c r="AE512" s="1"/>
     </row>
-    <row r="513" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:31" ht="15.75" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -18356,7 +18357,7 @@
       <c r="AD513" s="1"/>
       <c r="AE513" s="1"/>
     </row>
-    <row r="514" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:31" ht="15.75" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -18389,7 +18390,7 @@
       <c r="AD514" s="1"/>
       <c r="AE514" s="1"/>
     </row>
-    <row r="515" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:31" ht="15.75" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -18422,7 +18423,7 @@
       <c r="AD515" s="1"/>
       <c r="AE515" s="1"/>
     </row>
-    <row r="516" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:31" ht="15.75" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -18455,7 +18456,7 @@
       <c r="AD516" s="1"/>
       <c r="AE516" s="1"/>
     </row>
-    <row r="517" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:31" ht="15.75" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -18488,7 +18489,7 @@
       <c r="AD517" s="1"/>
       <c r="AE517" s="1"/>
     </row>
-    <row r="518" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:31" ht="15.75" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -18521,7 +18522,7 @@
       <c r="AD518" s="1"/>
       <c r="AE518" s="1"/>
     </row>
-    <row r="519" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:31" ht="15.75" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -18554,7 +18555,7 @@
       <c r="AD519" s="1"/>
       <c r="AE519" s="1"/>
     </row>
-    <row r="520" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:31" ht="15.75" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -18587,7 +18588,7 @@
       <c r="AD520" s="1"/>
       <c r="AE520" s="1"/>
     </row>
-    <row r="521" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:31" ht="15.75" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -18620,7 +18621,7 @@
       <c r="AD521" s="1"/>
       <c r="AE521" s="1"/>
     </row>
-    <row r="522" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:31" ht="15.75" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -18653,7 +18654,7 @@
       <c r="AD522" s="1"/>
       <c r="AE522" s="1"/>
     </row>
-    <row r="523" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:31" ht="15.75" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -18686,7 +18687,7 @@
       <c r="AD523" s="1"/>
       <c r="AE523" s="1"/>
     </row>
-    <row r="524" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:31" ht="15.75" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -18719,7 +18720,7 @@
       <c r="AD524" s="1"/>
       <c r="AE524" s="1"/>
     </row>
-    <row r="525" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:31" ht="15.75" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -18752,7 +18753,7 @@
       <c r="AD525" s="1"/>
       <c r="AE525" s="1"/>
     </row>
-    <row r="526" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:31" ht="15.75" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -18785,7 +18786,7 @@
       <c r="AD526" s="1"/>
       <c r="AE526" s="1"/>
     </row>
-    <row r="527" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:31" ht="15.75" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -18818,7 +18819,7 @@
       <c r="AD527" s="1"/>
       <c r="AE527" s="1"/>
     </row>
-    <row r="528" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:31" ht="15.75" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -18851,7 +18852,7 @@
       <c r="AD528" s="1"/>
       <c r="AE528" s="1"/>
     </row>
-    <row r="529" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:31" ht="15.75" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -18884,7 +18885,7 @@
       <c r="AD529" s="1"/>
       <c r="AE529" s="1"/>
     </row>
-    <row r="530" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:31" ht="15.75" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -18917,7 +18918,7 @@
       <c r="AD530" s="1"/>
       <c r="AE530" s="1"/>
     </row>
-    <row r="531" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:31" ht="15.75" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -18950,7 +18951,7 @@
       <c r="AD531" s="1"/>
       <c r="AE531" s="1"/>
     </row>
-    <row r="532" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:31" ht="15.75" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -18983,7 +18984,7 @@
       <c r="AD532" s="1"/>
       <c r="AE532" s="1"/>
     </row>
-    <row r="533" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:31" ht="15.75" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -19016,7 +19017,7 @@
       <c r="AD533" s="1"/>
       <c r="AE533" s="1"/>
     </row>
-    <row r="534" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:31" ht="15.75" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -19049,7 +19050,7 @@
       <c r="AD534" s="1"/>
       <c r="AE534" s="1"/>
     </row>
-    <row r="535" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:31" ht="15.75" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -19082,7 +19083,7 @@
       <c r="AD535" s="1"/>
       <c r="AE535" s="1"/>
     </row>
-    <row r="536" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:31" ht="15.75" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -19115,7 +19116,7 @@
       <c r="AD536" s="1"/>
       <c r="AE536" s="1"/>
     </row>
-    <row r="537" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:31" ht="15.75" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -19148,7 +19149,7 @@
       <c r="AD537" s="1"/>
       <c r="AE537" s="1"/>
     </row>
-    <row r="538" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:31" ht="15.75" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -19181,7 +19182,7 @@
       <c r="AD538" s="1"/>
       <c r="AE538" s="1"/>
     </row>
-    <row r="539" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:31" ht="15.75" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -19214,7 +19215,7 @@
       <c r="AD539" s="1"/>
       <c r="AE539" s="1"/>
     </row>
-    <row r="540" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:31" ht="15.75" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -19247,7 +19248,7 @@
       <c r="AD540" s="1"/>
       <c r="AE540" s="1"/>
     </row>
-    <row r="541" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:31" ht="15.75" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -19280,7 +19281,7 @@
       <c r="AD541" s="1"/>
       <c r="AE541" s="1"/>
     </row>
-    <row r="542" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:31" ht="15.75" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -19313,7 +19314,7 @@
       <c r="AD542" s="1"/>
       <c r="AE542" s="1"/>
     </row>
-    <row r="543" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:31" ht="15.75" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -19346,7 +19347,7 @@
       <c r="AD543" s="1"/>
       <c r="AE543" s="1"/>
     </row>
-    <row r="544" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:31" ht="15.75" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -19379,7 +19380,7 @@
       <c r="AD544" s="1"/>
       <c r="AE544" s="1"/>
     </row>
-    <row r="545" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:31" ht="15.75" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -19412,7 +19413,7 @@
       <c r="AD545" s="1"/>
       <c r="AE545" s="1"/>
     </row>
-    <row r="546" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:31" ht="15.75" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -19445,7 +19446,7 @@
       <c r="AD546" s="1"/>
       <c r="AE546" s="1"/>
     </row>
-    <row r="547" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:31" ht="15.75" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -19478,7 +19479,7 @@
       <c r="AD547" s="1"/>
       <c r="AE547" s="1"/>
     </row>
-    <row r="548" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:31" ht="15.75" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -19511,7 +19512,7 @@
       <c r="AD548" s="1"/>
       <c r="AE548" s="1"/>
     </row>
-    <row r="549" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:31" ht="15.75" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -19544,7 +19545,7 @@
       <c r="AD549" s="1"/>
       <c r="AE549" s="1"/>
     </row>
-    <row r="550" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:31" ht="15.75" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -19577,7 +19578,7 @@
       <c r="AD550" s="1"/>
       <c r="AE550" s="1"/>
     </row>
-    <row r="551" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:31" ht="15.75" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -19610,7 +19611,7 @@
       <c r="AD551" s="1"/>
       <c r="AE551" s="1"/>
     </row>
-    <row r="552" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:31" ht="15.75" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -19643,7 +19644,7 @@
       <c r="AD552" s="1"/>
       <c r="AE552" s="1"/>
     </row>
-    <row r="553" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:31" ht="15.75" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -19676,7 +19677,7 @@
       <c r="AD553" s="1"/>
       <c r="AE553" s="1"/>
     </row>
-    <row r="554" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:31" ht="15.75" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -19709,7 +19710,7 @@
       <c r="AD554" s="1"/>
       <c r="AE554" s="1"/>
     </row>
-    <row r="555" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:31" ht="15.75" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -19742,7 +19743,7 @@
       <c r="AD555" s="1"/>
       <c r="AE555" s="1"/>
     </row>
-    <row r="556" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:31" ht="15.75" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -19775,7 +19776,7 @@
       <c r="AD556" s="1"/>
       <c r="AE556" s="1"/>
     </row>
-    <row r="557" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:31" ht="15.75" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -19808,7 +19809,7 @@
       <c r="AD557" s="1"/>
       <c r="AE557" s="1"/>
     </row>
-    <row r="558" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:31" ht="15.75" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -19841,7 +19842,7 @@
       <c r="AD558" s="1"/>
       <c r="AE558" s="1"/>
     </row>
-    <row r="559" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:31" ht="15.75" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -19874,7 +19875,7 @@
       <c r="AD559" s="1"/>
       <c r="AE559" s="1"/>
     </row>
-    <row r="560" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:31" ht="15.75" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -19907,7 +19908,7 @@
       <c r="AD560" s="1"/>
       <c r="AE560" s="1"/>
     </row>
-    <row r="561" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:31" ht="15.75" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -19940,7 +19941,7 @@
       <c r="AD561" s="1"/>
       <c r="AE561" s="1"/>
     </row>
-    <row r="562" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:31" ht="15.75" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -19973,7 +19974,7 @@
       <c r="AD562" s="1"/>
       <c r="AE562" s="1"/>
     </row>
-    <row r="563" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:31" ht="15.75" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -20006,7 +20007,7 @@
       <c r="AD563" s="1"/>
       <c r="AE563" s="1"/>
     </row>
-    <row r="564" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:31" ht="15.75" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -20039,7 +20040,7 @@
       <c r="AD564" s="1"/>
       <c r="AE564" s="1"/>
     </row>
-    <row r="565" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:31" ht="15.75" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -20072,7 +20073,7 @@
       <c r="AD565" s="1"/>
       <c r="AE565" s="1"/>
     </row>
-    <row r="566" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:31" ht="15.75" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -20105,7 +20106,7 @@
       <c r="AD566" s="1"/>
       <c r="AE566" s="1"/>
     </row>
-    <row r="567" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:31" ht="15.75" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -20138,7 +20139,7 @@
       <c r="AD567" s="1"/>
       <c r="AE567" s="1"/>
     </row>
-    <row r="568" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:31" ht="15.75" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -20171,7 +20172,7 @@
       <c r="AD568" s="1"/>
       <c r="AE568" s="1"/>
     </row>
-    <row r="569" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:31" ht="15.75" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -20204,7 +20205,7 @@
       <c r="AD569" s="1"/>
       <c r="AE569" s="1"/>
     </row>
-    <row r="570" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:31" ht="15.75" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -20237,7 +20238,7 @@
       <c r="AD570" s="1"/>
       <c r="AE570" s="1"/>
     </row>
-    <row r="571" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:31" ht="15.75" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -20270,7 +20271,7 @@
       <c r="AD571" s="1"/>
       <c r="AE571" s="1"/>
     </row>
-    <row r="572" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:31" ht="15.75" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -20303,7 +20304,7 @@
       <c r="AD572" s="1"/>
       <c r="AE572" s="1"/>
     </row>
-    <row r="573" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:31" ht="15.75" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -20336,7 +20337,7 @@
       <c r="AD573" s="1"/>
       <c r="AE573" s="1"/>
     </row>
-    <row r="574" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:31" ht="15.75" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -20369,7 +20370,7 @@
       <c r="AD574" s="1"/>
       <c r="AE574" s="1"/>
     </row>
-    <row r="575" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:31" ht="15.75" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -20402,7 +20403,7 @@
       <c r="AD575" s="1"/>
       <c r="AE575" s="1"/>
     </row>
-    <row r="576" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:31" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -20435,7 +20436,7 @@
       <c r="AD576" s="1"/>
       <c r="AE576" s="1"/>
     </row>
-    <row r="577" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:31" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -20468,7 +20469,7 @@
       <c r="AD577" s="1"/>
       <c r="AE577" s="1"/>
     </row>
-    <row r="578" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:31" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -20501,7 +20502,7 @@
       <c r="AD578" s="1"/>
       <c r="AE578" s="1"/>
     </row>
-    <row r="579" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:31" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -20534,7 +20535,7 @@
       <c r="AD579" s="1"/>
       <c r="AE579" s="1"/>
     </row>
-    <row r="580" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:31" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -20567,7 +20568,7 @@
       <c r="AD580" s="1"/>
       <c r="AE580" s="1"/>
     </row>
-    <row r="581" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:31" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -20600,7 +20601,7 @@
       <c r="AD581" s="1"/>
       <c r="AE581" s="1"/>
     </row>
-    <row r="582" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:31" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -20633,7 +20634,7 @@
       <c r="AD582" s="1"/>
       <c r="AE582" s="1"/>
     </row>
-    <row r="583" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:31" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -20666,7 +20667,7 @@
       <c r="AD583" s="1"/>
       <c r="AE583" s="1"/>
     </row>
-    <row r="584" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:31" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -20699,7 +20700,7 @@
       <c r="AD584" s="1"/>
       <c r="AE584" s="1"/>
     </row>
-    <row r="585" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:31" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -20732,7 +20733,7 @@
       <c r="AD585" s="1"/>
       <c r="AE585" s="1"/>
     </row>
-    <row r="586" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:31" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -20765,7 +20766,7 @@
       <c r="AD586" s="1"/>
       <c r="AE586" s="1"/>
     </row>
-    <row r="587" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:31" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -20798,7 +20799,7 @@
       <c r="AD587" s="1"/>
       <c r="AE587" s="1"/>
     </row>
-    <row r="588" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:31" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -20831,7 +20832,7 @@
       <c r="AD588" s="1"/>
       <c r="AE588" s="1"/>
     </row>
-    <row r="589" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:31" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -20864,7 +20865,7 @@
       <c r="AD589" s="1"/>
       <c r="AE589" s="1"/>
     </row>
-    <row r="590" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:31" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -20897,7 +20898,7 @@
       <c r="AD590" s="1"/>
       <c r="AE590" s="1"/>
     </row>
-    <row r="591" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:31" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -20930,7 +20931,7 @@
       <c r="AD591" s="1"/>
       <c r="AE591" s="1"/>
     </row>
-    <row r="592" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:31" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -20963,7 +20964,7 @@
       <c r="AD592" s="1"/>
       <c r="AE592" s="1"/>
     </row>
-    <row r="593" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:31" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -20996,7 +20997,7 @@
       <c r="AD593" s="1"/>
       <c r="AE593" s="1"/>
     </row>
-    <row r="594" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:31" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -21029,7 +21030,7 @@
       <c r="AD594" s="1"/>
       <c r="AE594" s="1"/>
     </row>
-    <row r="595" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:31" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -21062,7 +21063,7 @@
       <c r="AD595" s="1"/>
       <c r="AE595" s="1"/>
     </row>
-    <row r="596" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:31" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -21095,7 +21096,7 @@
       <c r="AD596" s="1"/>
       <c r="AE596" s="1"/>
     </row>
-    <row r="597" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:31" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -21128,7 +21129,7 @@
       <c r="AD597" s="1"/>
       <c r="AE597" s="1"/>
     </row>
-    <row r="598" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:31" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -21161,7 +21162,7 @@
       <c r="AD598" s="1"/>
       <c r="AE598" s="1"/>
     </row>
-    <row r="599" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:31" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -21194,7 +21195,7 @@
       <c r="AD599" s="1"/>
       <c r="AE599" s="1"/>
     </row>
-    <row r="600" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:31" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -21227,7 +21228,7 @@
       <c r="AD600" s="1"/>
       <c r="AE600" s="1"/>
     </row>
-    <row r="601" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:31" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -21260,7 +21261,7 @@
       <c r="AD601" s="1"/>
       <c r="AE601" s="1"/>
     </row>
-    <row r="602" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:31" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -21293,7 +21294,7 @@
       <c r="AD602" s="1"/>
       <c r="AE602" s="1"/>
     </row>
-    <row r="603" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:31" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -21326,7 +21327,7 @@
       <c r="AD603" s="1"/>
       <c r="AE603" s="1"/>
     </row>
-    <row r="604" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:31" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -21359,7 +21360,7 @@
       <c r="AD604" s="1"/>
       <c r="AE604" s="1"/>
     </row>
-    <row r="605" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:31" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -21392,7 +21393,7 @@
       <c r="AD605" s="1"/>
       <c r="AE605" s="1"/>
     </row>
-    <row r="606" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:31" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -21425,7 +21426,7 @@
       <c r="AD606" s="1"/>
       <c r="AE606" s="1"/>
     </row>
-    <row r="607" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:31" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -21458,7 +21459,7 @@
       <c r="AD607" s="1"/>
       <c r="AE607" s="1"/>
     </row>
-    <row r="608" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:31" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -21491,7 +21492,7 @@
       <c r="AD608" s="1"/>
       <c r="AE608" s="1"/>
     </row>
-    <row r="609" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:31" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -21524,7 +21525,7 @@
       <c r="AD609" s="1"/>
       <c r="AE609" s="1"/>
     </row>
-    <row r="610" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:31" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -21557,7 +21558,7 @@
       <c r="AD610" s="1"/>
       <c r="AE610" s="1"/>
     </row>
-    <row r="611" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:31" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -21590,7 +21591,7 @@
       <c r="AD611" s="1"/>
       <c r="AE611" s="1"/>
     </row>
-    <row r="612" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:31" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -21623,7 +21624,7 @@
       <c r="AD612" s="1"/>
       <c r="AE612" s="1"/>
     </row>
-    <row r="613" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:31" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -21656,7 +21657,7 @@
       <c r="AD613" s="1"/>
       <c r="AE613" s="1"/>
     </row>
-    <row r="614" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:31" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -21689,7 +21690,7 @@
       <c r="AD614" s="1"/>
       <c r="AE614" s="1"/>
     </row>
-    <row r="615" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:31" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -21722,7 +21723,7 @@
       <c r="AD615" s="1"/>
       <c r="AE615" s="1"/>
     </row>
-    <row r="616" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:31" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -21755,7 +21756,7 @@
       <c r="AD616" s="1"/>
       <c r="AE616" s="1"/>
     </row>
-    <row r="617" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:31" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -21788,7 +21789,7 @@
       <c r="AD617" s="1"/>
       <c r="AE617" s="1"/>
     </row>
-    <row r="618" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:31" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -21821,7 +21822,7 @@
       <c r="AD618" s="1"/>
       <c r="AE618" s="1"/>
     </row>
-    <row r="619" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:31" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -21854,7 +21855,7 @@
       <c r="AD619" s="1"/>
       <c r="AE619" s="1"/>
     </row>
-    <row r="620" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:31" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -21887,7 +21888,7 @@
       <c r="AD620" s="1"/>
       <c r="AE620" s="1"/>
     </row>
-    <row r="621" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:31" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -21920,7 +21921,7 @@
       <c r="AD621" s="1"/>
       <c r="AE621" s="1"/>
     </row>
-    <row r="622" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:31" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -21953,7 +21954,7 @@
       <c r="AD622" s="1"/>
       <c r="AE622" s="1"/>
     </row>
-    <row r="623" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:31" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -21986,7 +21987,7 @@
       <c r="AD623" s="1"/>
       <c r="AE623" s="1"/>
     </row>
-    <row r="624" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:31" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -22019,7 +22020,7 @@
       <c r="AD624" s="1"/>
       <c r="AE624" s="1"/>
     </row>
-    <row r="625" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:31" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -22052,7 +22053,7 @@
       <c r="AD625" s="1"/>
       <c r="AE625" s="1"/>
     </row>
-    <row r="626" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:31" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -22085,7 +22086,7 @@
       <c r="AD626" s="1"/>
       <c r="AE626" s="1"/>
     </row>
-    <row r="627" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:31" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -22118,7 +22119,7 @@
       <c r="AD627" s="1"/>
       <c r="AE627" s="1"/>
     </row>
-    <row r="628" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:31" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -22151,7 +22152,7 @@
       <c r="AD628" s="1"/>
       <c r="AE628" s="1"/>
     </row>
-    <row r="629" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:31" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -22184,7 +22185,7 @@
       <c r="AD629" s="1"/>
       <c r="AE629" s="1"/>
     </row>
-    <row r="630" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:31" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -22217,7 +22218,7 @@
       <c r="AD630" s="1"/>
       <c r="AE630" s="1"/>
     </row>
-    <row r="631" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:31" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -22250,7 +22251,7 @@
       <c r="AD631" s="1"/>
       <c r="AE631" s="1"/>
     </row>
-    <row r="632" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:31" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -22283,7 +22284,7 @@
       <c r="AD632" s="1"/>
       <c r="AE632" s="1"/>
     </row>
-    <row r="633" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:31" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -22316,7 +22317,7 @@
       <c r="AD633" s="1"/>
       <c r="AE633" s="1"/>
     </row>
-    <row r="634" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:31" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -22349,7 +22350,7 @@
       <c r="AD634" s="1"/>
       <c r="AE634" s="1"/>
     </row>
-    <row r="635" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:31" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -22382,7 +22383,7 @@
       <c r="AD635" s="1"/>
       <c r="AE635" s="1"/>
     </row>
-    <row r="636" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:31" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -22415,7 +22416,7 @@
       <c r="AD636" s="1"/>
       <c r="AE636" s="1"/>
     </row>
-    <row r="637" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:31" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -22448,7 +22449,7 @@
       <c r="AD637" s="1"/>
       <c r="AE637" s="1"/>
     </row>
-    <row r="638" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:31" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -22481,7 +22482,7 @@
       <c r="AD638" s="1"/>
       <c r="AE638" s="1"/>
     </row>
-    <row r="639" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:31" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -22514,7 +22515,7 @@
       <c r="AD639" s="1"/>
       <c r="AE639" s="1"/>
     </row>
-    <row r="640" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:31" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -22547,7 +22548,7 @@
       <c r="AD640" s="1"/>
       <c r="AE640" s="1"/>
     </row>
-    <row r="641" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:31" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -22580,7 +22581,7 @@
       <c r="AD641" s="1"/>
       <c r="AE641" s="1"/>
     </row>
-    <row r="642" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:31" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -22613,7 +22614,7 @@
       <c r="AD642" s="1"/>
       <c r="AE642" s="1"/>
     </row>
-    <row r="643" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:31" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -22646,7 +22647,7 @@
       <c r="AD643" s="1"/>
       <c r="AE643" s="1"/>
     </row>
-    <row r="644" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:31" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -22679,7 +22680,7 @@
       <c r="AD644" s="1"/>
       <c r="AE644" s="1"/>
     </row>
-    <row r="645" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:31" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -22712,7 +22713,7 @@
       <c r="AD645" s="1"/>
       <c r="AE645" s="1"/>
     </row>
-    <row r="646" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:31" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -22745,7 +22746,7 @@
       <c r="AD646" s="1"/>
       <c r="AE646" s="1"/>
     </row>
-    <row r="647" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:31" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -22778,7 +22779,7 @@
       <c r="AD647" s="1"/>
       <c r="AE647" s="1"/>
     </row>
-    <row r="648" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:31" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -22811,7 +22812,7 @@
       <c r="AD648" s="1"/>
       <c r="AE648" s="1"/>
     </row>
-    <row r="649" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:31" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -22844,7 +22845,7 @@
       <c r="AD649" s="1"/>
       <c r="AE649" s="1"/>
     </row>
-    <row r="650" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:31" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -22877,7 +22878,7 @@
       <c r="AD650" s="1"/>
       <c r="AE650" s="1"/>
     </row>
-    <row r="651" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:31" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -22910,7 +22911,7 @@
       <c r="AD651" s="1"/>
       <c r="AE651" s="1"/>
     </row>
-    <row r="652" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:31" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -22943,7 +22944,7 @@
       <c r="AD652" s="1"/>
       <c r="AE652" s="1"/>
     </row>
-    <row r="653" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:31" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -22976,7 +22977,7 @@
       <c r="AD653" s="1"/>
       <c r="AE653" s="1"/>
     </row>
-    <row r="654" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:31" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -23009,7 +23010,7 @@
       <c r="AD654" s="1"/>
       <c r="AE654" s="1"/>
     </row>
-    <row r="655" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:31" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -23042,7 +23043,7 @@
       <c r="AD655" s="1"/>
       <c r="AE655" s="1"/>
     </row>
-    <row r="656" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:31" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -23075,7 +23076,7 @@
       <c r="AD656" s="1"/>
       <c r="AE656" s="1"/>
     </row>
-    <row r="657" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:31" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -23108,7 +23109,7 @@
       <c r="AD657" s="1"/>
       <c r="AE657" s="1"/>
     </row>
-    <row r="658" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:31" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -23141,7 +23142,7 @@
       <c r="AD658" s="1"/>
       <c r="AE658" s="1"/>
     </row>
-    <row r="659" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:31" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -23174,7 +23175,7 @@
       <c r="AD659" s="1"/>
       <c r="AE659" s="1"/>
     </row>
-    <row r="660" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:31" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -23207,7 +23208,7 @@
       <c r="AD660" s="1"/>
       <c r="AE660" s="1"/>
     </row>
-    <row r="661" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:31" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -23240,7 +23241,7 @@
       <c r="AD661" s="1"/>
       <c r="AE661" s="1"/>
     </row>
-    <row r="662" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:31" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -23273,7 +23274,7 @@
       <c r="AD662" s="1"/>
       <c r="AE662" s="1"/>
     </row>
-    <row r="663" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:31" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -23306,7 +23307,7 @@
       <c r="AD663" s="1"/>
       <c r="AE663" s="1"/>
     </row>
-    <row r="664" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:31" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -23339,7 +23340,7 @@
       <c r="AD664" s="1"/>
       <c r="AE664" s="1"/>
     </row>
-    <row r="665" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:31" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -23372,7 +23373,7 @@
       <c r="AD665" s="1"/>
       <c r="AE665" s="1"/>
     </row>
-    <row r="666" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:31" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -23405,7 +23406,7 @@
       <c r="AD666" s="1"/>
       <c r="AE666" s="1"/>
     </row>
-    <row r="667" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:31" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -23438,7 +23439,7 @@
       <c r="AD667" s="1"/>
       <c r="AE667" s="1"/>
     </row>
-    <row r="668" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:31" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -23471,7 +23472,7 @@
       <c r="AD668" s="1"/>
       <c r="AE668" s="1"/>
     </row>
-    <row r="669" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:31" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -23504,7 +23505,7 @@
       <c r="AD669" s="1"/>
       <c r="AE669" s="1"/>
     </row>
-    <row r="670" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:31" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -23537,7 +23538,7 @@
       <c r="AD670" s="1"/>
       <c r="AE670" s="1"/>
     </row>
-    <row r="671" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:31" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -23570,7 +23571,7 @@
       <c r="AD671" s="1"/>
       <c r="AE671" s="1"/>
     </row>
-    <row r="672" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:31" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -23603,7 +23604,7 @@
       <c r="AD672" s="1"/>
       <c r="AE672" s="1"/>
     </row>
-    <row r="673" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:31" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -23636,7 +23637,7 @@
       <c r="AD673" s="1"/>
       <c r="AE673" s="1"/>
     </row>
-    <row r="674" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:31" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -23669,7 +23670,7 @@
       <c r="AD674" s="1"/>
       <c r="AE674" s="1"/>
     </row>
-    <row r="675" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:31" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -23702,7 +23703,7 @@
       <c r="AD675" s="1"/>
       <c r="AE675" s="1"/>
     </row>
-    <row r="676" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:31" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -23735,7 +23736,7 @@
       <c r="AD676" s="1"/>
       <c r="AE676" s="1"/>
     </row>
-    <row r="677" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:31" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -23768,7 +23769,7 @@
       <c r="AD677" s="1"/>
       <c r="AE677" s="1"/>
     </row>
-    <row r="678" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:31" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -23801,7 +23802,7 @@
       <c r="AD678" s="1"/>
       <c r="AE678" s="1"/>
     </row>
-    <row r="679" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:31" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -23834,7 +23835,7 @@
       <c r="AD679" s="1"/>
       <c r="AE679" s="1"/>
     </row>
-    <row r="680" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:31" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -23867,7 +23868,7 @@
       <c r="AD680" s="1"/>
       <c r="AE680" s="1"/>
     </row>
-    <row r="681" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:31" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -23900,7 +23901,7 @@
       <c r="AD681" s="1"/>
       <c r="AE681" s="1"/>
     </row>
-    <row r="682" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:31" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -23933,7 +23934,7 @@
       <c r="AD682" s="1"/>
       <c r="AE682" s="1"/>
     </row>
-    <row r="683" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:31" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -23966,7 +23967,7 @@
       <c r="AD683" s="1"/>
       <c r="AE683" s="1"/>
     </row>
-    <row r="684" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:31" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -23999,7 +24000,7 @@
       <c r="AD684" s="1"/>
       <c r="AE684" s="1"/>
     </row>
-    <row r="685" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:31" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -24032,7 +24033,7 @@
       <c r="AD685" s="1"/>
       <c r="AE685" s="1"/>
     </row>
-    <row r="686" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:31" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -24065,7 +24066,7 @@
       <c r="AD686" s="1"/>
       <c r="AE686" s="1"/>
     </row>
-    <row r="687" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:31" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -24098,7 +24099,7 @@
       <c r="AD687" s="1"/>
       <c r="AE687" s="1"/>
     </row>
-    <row r="688" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:31" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -24131,7 +24132,7 @@
       <c r="AD688" s="1"/>
       <c r="AE688" s="1"/>
     </row>
-    <row r="689" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:31" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -24164,7 +24165,7 @@
       <c r="AD689" s="1"/>
       <c r="AE689" s="1"/>
     </row>
-    <row r="690" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:31" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -24197,7 +24198,7 @@
       <c r="AD690" s="1"/>
       <c r="AE690" s="1"/>
     </row>
-    <row r="691" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:31" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -24230,7 +24231,7 @@
       <c r="AD691" s="1"/>
       <c r="AE691" s="1"/>
     </row>
-    <row r="692" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:31" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -24263,7 +24264,7 @@
       <c r="AD692" s="1"/>
       <c r="AE692" s="1"/>
     </row>
-    <row r="693" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:31" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -24296,7 +24297,7 @@
       <c r="AD693" s="1"/>
       <c r="AE693" s="1"/>
     </row>
-    <row r="694" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:31" ht="15.75" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -24329,7 +24330,7 @@
       <c r="AD694" s="1"/>
       <c r="AE694" s="1"/>
     </row>
-    <row r="695" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:31" ht="15.75" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -24362,7 +24363,7 @@
       <c r="AD695" s="1"/>
       <c r="AE695" s="1"/>
     </row>
-    <row r="696" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:31" ht="15.75" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -24395,7 +24396,7 @@
       <c r="AD696" s="1"/>
       <c r="AE696" s="1"/>
     </row>
-    <row r="697" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:31" ht="15.75" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -24428,7 +24429,7 @@
       <c r="AD697" s="1"/>
       <c r="AE697" s="1"/>
     </row>
-    <row r="698" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:31" ht="15.75" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -24461,7 +24462,7 @@
       <c r="AD698" s="1"/>
       <c r="AE698" s="1"/>
     </row>
-    <row r="699" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:31" ht="15.75" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -24494,7 +24495,7 @@
       <c r="AD699" s="1"/>
       <c r="AE699" s="1"/>
     </row>
-    <row r="700" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:31" ht="15.75" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -24527,7 +24528,7 @@
       <c r="AD700" s="1"/>
       <c r="AE700" s="1"/>
     </row>
-    <row r="701" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:31" ht="15.75" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -24560,7 +24561,7 @@
       <c r="AD701" s="1"/>
       <c r="AE701" s="1"/>
     </row>
-    <row r="702" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:31" ht="15.75" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -24593,7 +24594,7 @@
       <c r="AD702" s="1"/>
       <c r="AE702" s="1"/>
     </row>
-    <row r="703" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:31" ht="15.75" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -24626,7 +24627,7 @@
       <c r="AD703" s="1"/>
       <c r="AE703" s="1"/>
     </row>
-    <row r="704" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:31" ht="15.75" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -24659,7 +24660,7 @@
       <c r="AD704" s="1"/>
       <c r="AE704" s="1"/>
     </row>
-    <row r="705" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:31" ht="15.75" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -24692,7 +24693,7 @@
       <c r="AD705" s="1"/>
       <c r="AE705" s="1"/>
     </row>
-    <row r="706" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:31" ht="15.75" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -24725,7 +24726,7 @@
       <c r="AD706" s="1"/>
       <c r="AE706" s="1"/>
     </row>
-    <row r="707" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:31" ht="15.75" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -24758,7 +24759,7 @@
       <c r="AD707" s="1"/>
       <c r="AE707" s="1"/>
     </row>
-    <row r="708" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:31" ht="15.75" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -24791,7 +24792,7 @@
       <c r="AD708" s="1"/>
       <c r="AE708" s="1"/>
     </row>
-    <row r="709" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:31" ht="15.75" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -24824,7 +24825,7 @@
       <c r="AD709" s="1"/>
       <c r="AE709" s="1"/>
     </row>
-    <row r="710" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:31" ht="15.75" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -24857,7 +24858,7 @@
       <c r="AD710" s="1"/>
       <c r="AE710" s="1"/>
     </row>
-    <row r="711" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:31" ht="15.75" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -24890,7 +24891,7 @@
       <c r="AD711" s="1"/>
       <c r="AE711" s="1"/>
     </row>
-    <row r="712" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:31" ht="15.75" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -24923,7 +24924,7 @@
       <c r="AD712" s="1"/>
       <c r="AE712" s="1"/>
     </row>
-    <row r="713" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:31" ht="15.75" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -24956,7 +24957,7 @@
       <c r="AD713" s="1"/>
       <c r="AE713" s="1"/>
     </row>
-    <row r="714" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:31" ht="15.75" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -24989,7 +24990,7 @@
       <c r="AD714" s="1"/>
       <c r="AE714" s="1"/>
     </row>
-    <row r="715" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:31" ht="15.75" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -25022,7 +25023,7 @@
       <c r="AD715" s="1"/>
       <c r="AE715" s="1"/>
     </row>
-    <row r="716" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:31" ht="15.75" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -25055,7 +25056,7 @@
       <c r="AD716" s="1"/>
       <c r="AE716" s="1"/>
     </row>
-    <row r="717" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:31" ht="15.75" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -25088,7 +25089,7 @@
       <c r="AD717" s="1"/>
       <c r="AE717" s="1"/>
     </row>
-    <row r="718" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:31" ht="15.75" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -25121,7 +25122,7 @@
       <c r="AD718" s="1"/>
       <c r="AE718" s="1"/>
     </row>
-    <row r="719" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:31" ht="15.75" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -25154,7 +25155,7 @@
       <c r="AD719" s="1"/>
       <c r="AE719" s="1"/>
     </row>
-    <row r="720" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:31" ht="15.75" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -25187,7 +25188,7 @@
       <c r="AD720" s="1"/>
       <c r="AE720" s="1"/>
     </row>
-    <row r="721" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:31" ht="15.75" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -25220,7 +25221,7 @@
       <c r="AD721" s="1"/>
       <c r="AE721" s="1"/>
     </row>
-    <row r="722" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:31" ht="15.75" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -25253,7 +25254,7 @@
       <c r="AD722" s="1"/>
       <c r="AE722" s="1"/>
     </row>
-    <row r="723" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:31" ht="15.75" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -25286,7 +25287,7 @@
       <c r="AD723" s="1"/>
       <c r="AE723" s="1"/>
     </row>
-    <row r="724" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:31" ht="15.75" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -25319,7 +25320,7 @@
       <c r="AD724" s="1"/>
       <c r="AE724" s="1"/>
     </row>
-    <row r="725" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:31" ht="15.75" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -25352,7 +25353,7 @@
       <c r="AD725" s="1"/>
       <c r="AE725" s="1"/>
     </row>
-    <row r="726" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:31" ht="15.75" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -25385,7 +25386,7 @@
       <c r="AD726" s="1"/>
       <c r="AE726" s="1"/>
     </row>
-    <row r="727" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:31" ht="15.75" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -25418,7 +25419,7 @@
       <c r="AD727" s="1"/>
       <c r="AE727" s="1"/>
     </row>
-    <row r="728" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:31" ht="15.75" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -25451,7 +25452,7 @@
       <c r="AD728" s="1"/>
       <c r="AE728" s="1"/>
     </row>
-    <row r="729" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:31" ht="15.75" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -25484,7 +25485,7 @@
       <c r="AD729" s="1"/>
       <c r="AE729" s="1"/>
     </row>
-    <row r="730" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:31" ht="15.75" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -25517,7 +25518,7 @@
       <c r="AD730" s="1"/>
       <c r="AE730" s="1"/>
     </row>
-    <row r="731" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:31" ht="15.75" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -25550,7 +25551,7 @@
       <c r="AD731" s="1"/>
       <c r="AE731" s="1"/>
     </row>
-    <row r="732" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:31" ht="15.75" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -25583,7 +25584,7 @@
       <c r="AD732" s="1"/>
       <c r="AE732" s="1"/>
     </row>
-    <row r="733" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:31" ht="15.75" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -25616,7 +25617,7 @@
       <c r="AD733" s="1"/>
       <c r="AE733" s="1"/>
     </row>
-    <row r="734" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:31" ht="15.75" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -25649,7 +25650,7 @@
       <c r="AD734" s="1"/>
       <c r="AE734" s="1"/>
     </row>
-    <row r="735" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:31" ht="15.75" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -25682,7 +25683,7 @@
       <c r="AD735" s="1"/>
       <c r="AE735" s="1"/>
     </row>
-    <row r="736" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:31" ht="15.75" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -25715,7 +25716,7 @@
       <c r="AD736" s="1"/>
       <c r="AE736" s="1"/>
     </row>
-    <row r="737" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:31" ht="15.75" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -25748,7 +25749,7 @@
       <c r="AD737" s="1"/>
       <c r="AE737" s="1"/>
     </row>
-    <row r="738" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:31" ht="15.75" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -25781,7 +25782,7 @@
       <c r="AD738" s="1"/>
       <c r="AE738" s="1"/>
     </row>
-    <row r="739" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:31" ht="15.75" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -25814,7 +25815,7 @@
       <c r="AD739" s="1"/>
       <c r="AE739" s="1"/>
     </row>
-    <row r="740" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:31" ht="15.75" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -25847,7 +25848,7 @@
       <c r="AD740" s="1"/>
       <c r="AE740" s="1"/>
     </row>
-    <row r="741" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:31" ht="15.75" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -25880,7 +25881,7 @@
       <c r="AD741" s="1"/>
       <c r="AE741" s="1"/>
     </row>
-    <row r="742" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:31" ht="15.75" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -25913,7 +25914,7 @@
       <c r="AD742" s="1"/>
       <c r="AE742" s="1"/>
     </row>
-    <row r="743" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:31" ht="15.75" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -25946,7 +25947,7 @@
       <c r="AD743" s="1"/>
       <c r="AE743" s="1"/>
     </row>
-    <row r="744" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:31" ht="15.75" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -25979,7 +25980,7 @@
       <c r="AD744" s="1"/>
       <c r="AE744" s="1"/>
     </row>
-    <row r="745" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:31" ht="15.75" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -26012,7 +26013,7 @@
       <c r="AD745" s="1"/>
       <c r="AE745" s="1"/>
     </row>
-    <row r="746" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:31" ht="15.75" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -26045,7 +26046,7 @@
       <c r="AD746" s="1"/>
       <c r="AE746" s="1"/>
     </row>
-    <row r="747" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:31" ht="15.75" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -26078,7 +26079,7 @@
       <c r="AD747" s="1"/>
       <c r="AE747" s="1"/>
     </row>
-    <row r="748" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:31" ht="15.75" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -26111,7 +26112,7 @@
       <c r="AD748" s="1"/>
       <c r="AE748" s="1"/>
     </row>
-    <row r="749" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:31" ht="15.75" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -26144,7 +26145,7 @@
       <c r="AD749" s="1"/>
       <c r="AE749" s="1"/>
     </row>
-    <row r="750" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:31" ht="15.75" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -26177,7 +26178,7 @@
       <c r="AD750" s="1"/>
       <c r="AE750" s="1"/>
     </row>
-    <row r="751" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:31" ht="15.75" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -26210,7 +26211,7 @@
       <c r="AD751" s="1"/>
       <c r="AE751" s="1"/>
     </row>
-    <row r="752" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:31" ht="15.75" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -26243,7 +26244,7 @@
       <c r="AD752" s="1"/>
       <c r="AE752" s="1"/>
     </row>
-    <row r="753" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:31" ht="15.75" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26276,7 +26277,7 @@
       <c r="AD753" s="1"/>
       <c r="AE753" s="1"/>
     </row>
-    <row r="754" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:31" ht="15.75" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26309,7 +26310,7 @@
       <c r="AD754" s="1"/>
       <c r="AE754" s="1"/>
     </row>
-    <row r="755" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:31" ht="15.75" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26342,7 +26343,7 @@
       <c r="AD755" s="1"/>
       <c r="AE755" s="1"/>
     </row>
-    <row r="756" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:31" ht="15.75" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26375,7 +26376,7 @@
       <c r="AD756" s="1"/>
       <c r="AE756" s="1"/>
     </row>
-    <row r="757" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:31" ht="15.75" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26408,7 +26409,7 @@
       <c r="AD757" s="1"/>
       <c r="AE757" s="1"/>
     </row>
-    <row r="758" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:31" ht="15.75" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26441,7 +26442,7 @@
       <c r="AD758" s="1"/>
       <c r="AE758" s="1"/>
     </row>
-    <row r="759" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:31" ht="15.75" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26474,7 +26475,7 @@
       <c r="AD759" s="1"/>
       <c r="AE759" s="1"/>
     </row>
-    <row r="760" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:31" ht="15.75" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -26507,7 +26508,7 @@
       <c r="AD760" s="1"/>
       <c r="AE760" s="1"/>
     </row>
-    <row r="761" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:31" ht="15.75" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -26540,7 +26541,7 @@
       <c r="AD761" s="1"/>
       <c r="AE761" s="1"/>
     </row>
-    <row r="762" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:31" ht="15.75" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -26573,7 +26574,7 @@
       <c r="AD762" s="1"/>
       <c r="AE762" s="1"/>
     </row>
-    <row r="763" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:31" ht="15.75" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -26606,7 +26607,7 @@
       <c r="AD763" s="1"/>
       <c r="AE763" s="1"/>
     </row>
-    <row r="764" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:31" ht="15.75" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -26639,7 +26640,7 @@
       <c r="AD764" s="1"/>
       <c r="AE764" s="1"/>
     </row>
-    <row r="765" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:31" ht="15.75" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -26672,7 +26673,7 @@
       <c r="AD765" s="1"/>
       <c r="AE765" s="1"/>
     </row>
-    <row r="766" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:31" ht="15.75" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -26705,7 +26706,7 @@
       <c r="AD766" s="1"/>
       <c r="AE766" s="1"/>
     </row>
-    <row r="767" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:31" ht="15.75" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -26738,7 +26739,7 @@
       <c r="AD767" s="1"/>
       <c r="AE767" s="1"/>
     </row>
-    <row r="768" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:31" ht="15.75" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -26771,7 +26772,7 @@
       <c r="AD768" s="1"/>
       <c r="AE768" s="1"/>
     </row>
-    <row r="769" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:31" ht="15.75" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -26804,7 +26805,7 @@
       <c r="AD769" s="1"/>
       <c r="AE769" s="1"/>
     </row>
-    <row r="770" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:31" ht="15.75" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -26837,7 +26838,7 @@
       <c r="AD770" s="1"/>
       <c r="AE770" s="1"/>
     </row>
-    <row r="771" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:31" ht="15.75" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -26870,7 +26871,7 @@
       <c r="AD771" s="1"/>
       <c r="AE771" s="1"/>
     </row>
-    <row r="772" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:31" ht="15.75" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -26903,7 +26904,7 @@
       <c r="AD772" s="1"/>
       <c r="AE772" s="1"/>
     </row>
-    <row r="773" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:31" ht="15.75" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -26936,7 +26937,7 @@
       <c r="AD773" s="1"/>
       <c r="AE773" s="1"/>
     </row>
-    <row r="774" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:31" ht="15.75" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -26969,7 +26970,7 @@
       <c r="AD774" s="1"/>
       <c r="AE774" s="1"/>
     </row>
-    <row r="775" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:31" ht="15.75" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -27002,7 +27003,7 @@
       <c r="AD775" s="1"/>
       <c r="AE775" s="1"/>
     </row>
-    <row r="776" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:31" ht="15.75" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -27035,7 +27036,7 @@
       <c r="AD776" s="1"/>
       <c r="AE776" s="1"/>
     </row>
-    <row r="777" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:31" ht="15.75" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -27068,7 +27069,7 @@
       <c r="AD777" s="1"/>
       <c r="AE777" s="1"/>
     </row>
-    <row r="778" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:31" ht="15.75" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -27101,7 +27102,7 @@
       <c r="AD778" s="1"/>
       <c r="AE778" s="1"/>
     </row>
-    <row r="779" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:31" ht="15.75" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -27134,7 +27135,7 @@
       <c r="AD779" s="1"/>
       <c r="AE779" s="1"/>
     </row>
-    <row r="780" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:31" ht="15.75" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27167,7 +27168,7 @@
       <c r="AD780" s="1"/>
       <c r="AE780" s="1"/>
     </row>
-    <row r="781" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:31" ht="15.75" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27200,7 +27201,7 @@
       <c r="AD781" s="1"/>
       <c r="AE781" s="1"/>
     </row>
-    <row r="782" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:31" ht="15.75" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27233,7 +27234,7 @@
       <c r="AD782" s="1"/>
       <c r="AE782" s="1"/>
     </row>
-    <row r="783" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:31" ht="15.75" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27266,7 +27267,7 @@
       <c r="AD783" s="1"/>
       <c r="AE783" s="1"/>
     </row>
-    <row r="784" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:31" ht="15.75" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27299,7 +27300,7 @@
       <c r="AD784" s="1"/>
       <c r="AE784" s="1"/>
     </row>
-    <row r="785" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:31" ht="15.75" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27332,7 +27333,7 @@
       <c r="AD785" s="1"/>
       <c r="AE785" s="1"/>
     </row>
-    <row r="786" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:31" ht="15.75" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27365,7 +27366,7 @@
       <c r="AD786" s="1"/>
       <c r="AE786" s="1"/>
     </row>
-    <row r="787" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:31" ht="15.75" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27398,7 +27399,7 @@
       <c r="AD787" s="1"/>
       <c r="AE787" s="1"/>
     </row>
-    <row r="788" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:31" ht="15.75" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27431,7 +27432,7 @@
       <c r="AD788" s="1"/>
       <c r="AE788" s="1"/>
     </row>
-    <row r="789" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:31" ht="15.75" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -27464,7 +27465,7 @@
       <c r="AD789" s="1"/>
       <c r="AE789" s="1"/>
     </row>
-    <row r="790" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:31" ht="15.75" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -27497,7 +27498,7 @@
       <c r="AD790" s="1"/>
       <c r="AE790" s="1"/>
     </row>
-    <row r="791" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:31" ht="15.75" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -27530,7 +27531,7 @@
       <c r="AD791" s="1"/>
       <c r="AE791" s="1"/>
     </row>
-    <row r="792" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:31" ht="15.75" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -27563,7 +27564,7 @@
       <c r="AD792" s="1"/>
       <c r="AE792" s="1"/>
     </row>
-    <row r="793" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:31" ht="15.75" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -27596,7 +27597,7 @@
       <c r="AD793" s="1"/>
       <c r="AE793" s="1"/>
     </row>
-    <row r="794" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:31" ht="15.75" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -27629,7 +27630,7 @@
       <c r="AD794" s="1"/>
       <c r="AE794" s="1"/>
     </row>
-    <row r="795" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:31" ht="15.75" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -27662,7 +27663,7 @@
       <c r="AD795" s="1"/>
       <c r="AE795" s="1"/>
     </row>
-    <row r="796" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:31" ht="15.75" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -27695,7 +27696,7 @@
       <c r="AD796" s="1"/>
       <c r="AE796" s="1"/>
     </row>
-    <row r="797" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:31" ht="15.75" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -27728,7 +27729,7 @@
       <c r="AD797" s="1"/>
       <c r="AE797" s="1"/>
     </row>
-    <row r="798" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:31" ht="15.75" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -27761,7 +27762,7 @@
       <c r="AD798" s="1"/>
       <c r="AE798" s="1"/>
     </row>
-    <row r="799" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:31" ht="15.75" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -27794,7 +27795,7 @@
       <c r="AD799" s="1"/>
       <c r="AE799" s="1"/>
     </row>
-    <row r="800" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:31" ht="15.75" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -27827,7 +27828,7 @@
       <c r="AD800" s="1"/>
       <c r="AE800" s="1"/>
     </row>
-    <row r="801" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:31" ht="15.75" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -27860,7 +27861,7 @@
       <c r="AD801" s="1"/>
       <c r="AE801" s="1"/>
     </row>
-    <row r="802" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:31" ht="15.75" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -27893,7 +27894,7 @@
       <c r="AD802" s="1"/>
       <c r="AE802" s="1"/>
     </row>
-    <row r="803" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:31" ht="15.75" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -27926,7 +27927,7 @@
       <c r="AD803" s="1"/>
       <c r="AE803" s="1"/>
     </row>
-    <row r="804" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:31" ht="15.75" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -27959,7 +27960,7 @@
       <c r="AD804" s="1"/>
       <c r="AE804" s="1"/>
     </row>
-    <row r="805" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:31" ht="15.75" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -27992,7 +27993,7 @@
       <c r="AD805" s="1"/>
       <c r="AE805" s="1"/>
     </row>
-    <row r="806" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:31" ht="15.75" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -28025,7 +28026,7 @@
       <c r="AD806" s="1"/>
       <c r="AE806" s="1"/>
     </row>
-    <row r="807" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:31" ht="15.75" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -28058,7 +28059,7 @@
       <c r="AD807" s="1"/>
       <c r="AE807" s="1"/>
     </row>
-    <row r="808" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:31" ht="15.75" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -28091,7 +28092,7 @@
       <c r="AD808" s="1"/>
       <c r="AE808" s="1"/>
     </row>
-    <row r="809" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:31" ht="15.75" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -28124,7 +28125,7 @@
       <c r="AD809" s="1"/>
       <c r="AE809" s="1"/>
     </row>
-    <row r="810" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:31" ht="15.75" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28157,7 +28158,7 @@
       <c r="AD810" s="1"/>
       <c r="AE810" s="1"/>
     </row>
-    <row r="811" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:31" ht="15.75" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28190,7 +28191,7 @@
       <c r="AD811" s="1"/>
       <c r="AE811" s="1"/>
     </row>
-    <row r="812" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:31" ht="15.75" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28223,7 +28224,7 @@
       <c r="AD812" s="1"/>
       <c r="AE812" s="1"/>
     </row>
-    <row r="813" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:31" ht="15.75" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28256,7 +28257,7 @@
       <c r="AD813" s="1"/>
       <c r="AE813" s="1"/>
     </row>
-    <row r="814" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:31" ht="15.75" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28289,7 +28290,7 @@
       <c r="AD814" s="1"/>
       <c r="AE814" s="1"/>
     </row>
-    <row r="815" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:31" ht="15.75" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28322,7 +28323,7 @@
       <c r="AD815" s="1"/>
       <c r="AE815" s="1"/>
     </row>
-    <row r="816" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:31" ht="15.75" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28355,7 +28356,7 @@
       <c r="AD816" s="1"/>
       <c r="AE816" s="1"/>
     </row>
-    <row r="817" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:31" ht="15.75" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28388,7 +28389,7 @@
       <c r="AD817" s="1"/>
       <c r="AE817" s="1"/>
     </row>
-    <row r="818" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:31" ht="15.75" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28421,7 +28422,7 @@
       <c r="AD818" s="1"/>
       <c r="AE818" s="1"/>
     </row>
-    <row r="819" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:31" ht="15.75" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -28454,7 +28455,7 @@
       <c r="AD819" s="1"/>
       <c r="AE819" s="1"/>
     </row>
-    <row r="820" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:31" ht="15.75" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -28487,7 +28488,7 @@
       <c r="AD820" s="1"/>
       <c r="AE820" s="1"/>
     </row>
-    <row r="821" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:31" ht="15.75" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -28520,7 +28521,7 @@
       <c r="AD821" s="1"/>
       <c r="AE821" s="1"/>
     </row>
-    <row r="822" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:31" ht="15.75" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -28553,7 +28554,7 @@
       <c r="AD822" s="1"/>
       <c r="AE822" s="1"/>
     </row>
-    <row r="823" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:31" ht="15.75" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -28586,7 +28587,7 @@
       <c r="AD823" s="1"/>
       <c r="AE823" s="1"/>
     </row>
-    <row r="824" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:31" ht="15.75" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -28619,7 +28620,7 @@
       <c r="AD824" s="1"/>
       <c r="AE824" s="1"/>
     </row>
-    <row r="825" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:31" ht="15.75" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -28652,7 +28653,7 @@
       <c r="AD825" s="1"/>
       <c r="AE825" s="1"/>
     </row>
-    <row r="826" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:31" ht="15.75" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -28685,7 +28686,7 @@
       <c r="AD826" s="1"/>
       <c r="AE826" s="1"/>
     </row>
-    <row r="827" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:31" ht="15.75" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -28718,7 +28719,7 @@
       <c r="AD827" s="1"/>
       <c r="AE827" s="1"/>
     </row>
-    <row r="828" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:31" ht="15.75" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -28751,7 +28752,7 @@
       <c r="AD828" s="1"/>
       <c r="AE828" s="1"/>
     </row>
-    <row r="829" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:31" ht="15.75" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -28784,7 +28785,7 @@
       <c r="AD829" s="1"/>
       <c r="AE829" s="1"/>
     </row>
-    <row r="830" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:31" ht="15.75" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -28817,7 +28818,7 @@
       <c r="AD830" s="1"/>
       <c r="AE830" s="1"/>
     </row>
-    <row r="831" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:31" ht="15.75" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -28850,7 +28851,7 @@
       <c r="AD831" s="1"/>
       <c r="AE831" s="1"/>
     </row>
-    <row r="832" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:31" ht="15.75" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -28883,7 +28884,7 @@
       <c r="AD832" s="1"/>
       <c r="AE832" s="1"/>
     </row>
-    <row r="833" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:31" ht="15.75" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -28916,7 +28917,7 @@
       <c r="AD833" s="1"/>
       <c r="AE833" s="1"/>
     </row>
-    <row r="834" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:31" ht="15.75" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -28949,7 +28950,7 @@
       <c r="AD834" s="1"/>
       <c r="AE834" s="1"/>
     </row>
-    <row r="835" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:31" ht="15.75" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -28982,7 +28983,7 @@
       <c r="AD835" s="1"/>
       <c r="AE835" s="1"/>
     </row>
-    <row r="836" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:31" ht="15.75" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -29015,7 +29016,7 @@
       <c r="AD836" s="1"/>
       <c r="AE836" s="1"/>
     </row>
-    <row r="837" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:31" ht="15.75" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -29048,7 +29049,7 @@
       <c r="AD837" s="1"/>
       <c r="AE837" s="1"/>
     </row>
-    <row r="838" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:31" ht="15.75" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -29081,7 +29082,7 @@
       <c r="AD838" s="1"/>
       <c r="AE838" s="1"/>
     </row>
-    <row r="839" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:31" ht="15.75" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -29114,7 +29115,7 @@
       <c r="AD839" s="1"/>
       <c r="AE839" s="1"/>
     </row>
-    <row r="840" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:31" ht="15.75" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29147,7 +29148,7 @@
       <c r="AD840" s="1"/>
       <c r="AE840" s="1"/>
     </row>
-    <row r="841" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:31" ht="15.75" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29180,7 +29181,7 @@
       <c r="AD841" s="1"/>
       <c r="AE841" s="1"/>
     </row>
-    <row r="842" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:31" ht="15.75" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29213,7 +29214,7 @@
       <c r="AD842" s="1"/>
       <c r="AE842" s="1"/>
     </row>
-    <row r="843" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:31" ht="15.75" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29246,7 +29247,7 @@
       <c r="AD843" s="1"/>
       <c r="AE843" s="1"/>
     </row>
-    <row r="844" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:31" ht="15.75" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29279,7 +29280,7 @@
       <c r="AD844" s="1"/>
       <c r="AE844" s="1"/>
     </row>
-    <row r="845" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:31" ht="15.75" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29312,7 +29313,7 @@
       <c r="AD845" s="1"/>
       <c r="AE845" s="1"/>
     </row>
-    <row r="846" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:31" ht="15.75" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29345,7 +29346,7 @@
       <c r="AD846" s="1"/>
       <c r="AE846" s="1"/>
     </row>
-    <row r="847" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:31" ht="15.75" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29378,7 +29379,7 @@
       <c r="AD847" s="1"/>
       <c r="AE847" s="1"/>
     </row>
-    <row r="848" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:31" ht="15.75" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -29411,7 +29412,7 @@
       <c r="AD848" s="1"/>
       <c r="AE848" s="1"/>
     </row>
-    <row r="849" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:31" ht="15.75" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -29444,7 +29445,7 @@
       <c r="AD849" s="1"/>
       <c r="AE849" s="1"/>
     </row>
-    <row r="850" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:31" ht="15.75" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -29477,7 +29478,7 @@
       <c r="AD850" s="1"/>
       <c r="AE850" s="1"/>
     </row>
-    <row r="851" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:31" ht="15.75" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -29510,7 +29511,7 @@
       <c r="AD851" s="1"/>
       <c r="AE851" s="1"/>
     </row>
-    <row r="852" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:31" ht="15.75" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -29543,7 +29544,7 @@
       <c r="AD852" s="1"/>
       <c r="AE852" s="1"/>
     </row>
-    <row r="853" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:31" ht="15.75" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -29576,7 +29577,7 @@
       <c r="AD853" s="1"/>
       <c r="AE853" s="1"/>
     </row>
-    <row r="854" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:31" ht="15.75" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -29609,7 +29610,7 @@
       <c r="AD854" s="1"/>
       <c r="AE854" s="1"/>
     </row>
-    <row r="855" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:31" ht="15.75" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -29642,7 +29643,7 @@
       <c r="AD855" s="1"/>
       <c r="AE855" s="1"/>
     </row>
-    <row r="856" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:31" ht="15.75" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -29675,7 +29676,7 @@
       <c r="AD856" s="1"/>
       <c r="AE856" s="1"/>
     </row>
-    <row r="857" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:31" ht="15.75" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -29708,7 +29709,7 @@
       <c r="AD857" s="1"/>
       <c r="AE857" s="1"/>
     </row>
-    <row r="858" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:31" ht="15.75" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -29741,7 +29742,7 @@
       <c r="AD858" s="1"/>
       <c r="AE858" s="1"/>
     </row>
-    <row r="859" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:31" ht="15.75" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -29774,7 +29775,7 @@
       <c r="AD859" s="1"/>
       <c r="AE859" s="1"/>
     </row>
-    <row r="860" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:31" ht="15.75" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -29807,7 +29808,7 @@
       <c r="AD860" s="1"/>
       <c r="AE860" s="1"/>
     </row>
-    <row r="861" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:31" ht="15.75" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -29840,7 +29841,7 @@
       <c r="AD861" s="1"/>
       <c r="AE861" s="1"/>
     </row>
-    <row r="862" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:31" ht="15.75" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -29873,7 +29874,7 @@
       <c r="AD862" s="1"/>
       <c r="AE862" s="1"/>
     </row>
-    <row r="863" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:31" ht="15.75" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -29906,7 +29907,7 @@
       <c r="AD863" s="1"/>
       <c r="AE863" s="1"/>
     </row>
-    <row r="864" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:31" ht="15.75" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -29939,7 +29940,7 @@
       <c r="AD864" s="1"/>
       <c r="AE864" s="1"/>
     </row>
-    <row r="865" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:31" ht="15.75" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -29972,7 +29973,7 @@
       <c r="AD865" s="1"/>
       <c r="AE865" s="1"/>
     </row>
-    <row r="866" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:31" ht="15.75" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -30005,7 +30006,7 @@
       <c r="AD866" s="1"/>
       <c r="AE866" s="1"/>
     </row>
-    <row r="867" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:31" ht="15.75" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -30038,7 +30039,7 @@
       <c r="AD867" s="1"/>
       <c r="AE867" s="1"/>
     </row>
-    <row r="868" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:31" ht="15.75" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -30071,7 +30072,7 @@
       <c r="AD868" s="1"/>
       <c r="AE868" s="1"/>
     </row>
-    <row r="869" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:31" ht="15.75" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -30104,7 +30105,7 @@
       <c r="AD869" s="1"/>
       <c r="AE869" s="1"/>
     </row>
-    <row r="870" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:31" ht="15.75" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -30137,7 +30138,7 @@
       <c r="AD870" s="1"/>
       <c r="AE870" s="1"/>
     </row>
-    <row r="871" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:31" ht="15.75" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30170,7 +30171,7 @@
       <c r="AD871" s="1"/>
       <c r="AE871" s="1"/>
     </row>
-    <row r="872" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:31" ht="15.75" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30203,7 +30204,7 @@
       <c r="AD872" s="1"/>
       <c r="AE872" s="1"/>
     </row>
-    <row r="873" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:31" ht="15.75" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30236,7 +30237,7 @@
       <c r="AD873" s="1"/>
       <c r="AE873" s="1"/>
     </row>
-    <row r="874" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:31" ht="15.75" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30269,7 +30270,7 @@
       <c r="AD874" s="1"/>
       <c r="AE874" s="1"/>
     </row>
-    <row r="875" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:31" ht="15.75" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30302,7 +30303,7 @@
       <c r="AD875" s="1"/>
       <c r="AE875" s="1"/>
     </row>
-    <row r="876" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:31" ht="15.75" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30335,7 +30336,7 @@
       <c r="AD876" s="1"/>
       <c r="AE876" s="1"/>
     </row>
-    <row r="877" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:31" ht="15.75" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30368,7 +30369,7 @@
       <c r="AD877" s="1"/>
       <c r="AE877" s="1"/>
     </row>
-    <row r="878" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:31" ht="15.75" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -30401,7 +30402,7 @@
       <c r="AD878" s="1"/>
       <c r="AE878" s="1"/>
     </row>
-    <row r="879" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:31" ht="15.75" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -30434,7 +30435,7 @@
       <c r="AD879" s="1"/>
       <c r="AE879" s="1"/>
     </row>
-    <row r="880" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:31" ht="15.75" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -30467,7 +30468,7 @@
       <c r="AD880" s="1"/>
       <c r="AE880" s="1"/>
     </row>
-    <row r="881" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:31" ht="15.75" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -30500,7 +30501,7 @@
       <c r="AD881" s="1"/>
       <c r="AE881" s="1"/>
     </row>
-    <row r="882" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:31" ht="15.75" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -30533,7 +30534,7 @@
       <c r="AD882" s="1"/>
       <c r="AE882" s="1"/>
     </row>
-    <row r="883" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:31" ht="15.75" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -30566,7 +30567,7 @@
       <c r="AD883" s="1"/>
       <c r="AE883" s="1"/>
     </row>
-    <row r="884" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:31" ht="15.75" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -30599,7 +30600,7 @@
       <c r="AD884" s="1"/>
       <c r="AE884" s="1"/>
     </row>
-    <row r="885" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:31" ht="15.75" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -30632,7 +30633,7 @@
       <c r="AD885" s="1"/>
       <c r="AE885" s="1"/>
     </row>
-    <row r="886" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:31" ht="15.75" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -30665,7 +30666,7 @@
       <c r="AD886" s="1"/>
       <c r="AE886" s="1"/>
     </row>
-    <row r="887" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:31" ht="15.75" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -30698,7 +30699,7 @@
       <c r="AD887" s="1"/>
       <c r="AE887" s="1"/>
     </row>
-    <row r="888" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:31" ht="15.75" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -30731,7 +30732,7 @@
       <c r="AD888" s="1"/>
       <c r="AE888" s="1"/>
     </row>
-    <row r="889" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:31" ht="15.75" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -30764,7 +30765,7 @@
       <c r="AD889" s="1"/>
       <c r="AE889" s="1"/>
     </row>
-    <row r="890" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:31" ht="15.75" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -30797,7 +30798,7 @@
       <c r="AD890" s="1"/>
       <c r="AE890" s="1"/>
     </row>
-    <row r="891" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:31" ht="15.75" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -30830,7 +30831,7 @@
       <c r="AD891" s="1"/>
       <c r="AE891" s="1"/>
     </row>
-    <row r="892" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:31" ht="15.75" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -30863,7 +30864,7 @@
       <c r="AD892" s="1"/>
       <c r="AE892" s="1"/>
     </row>
-    <row r="893" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:31" ht="15.75" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -30896,7 +30897,7 @@
       <c r="AD893" s="1"/>
       <c r="AE893" s="1"/>
     </row>
-    <row r="894" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:31" ht="15.75" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -30929,7 +30930,7 @@
       <c r="AD894" s="1"/>
       <c r="AE894" s="1"/>
     </row>
-    <row r="895" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:31" ht="15.75" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -30962,7 +30963,7 @@
       <c r="AD895" s="1"/>
       <c r="AE895" s="1"/>
     </row>
-    <row r="896" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:31" ht="15.75" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -30995,7 +30996,7 @@
       <c r="AD896" s="1"/>
       <c r="AE896" s="1"/>
     </row>
-    <row r="897" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:31" ht="15.75" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -31028,7 +31029,7 @@
       <c r="AD897" s="1"/>
       <c r="AE897" s="1"/>
     </row>
-    <row r="898" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:31" ht="15.75" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -31061,7 +31062,7 @@
       <c r="AD898" s="1"/>
       <c r="AE898" s="1"/>
     </row>
-    <row r="899" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:31" ht="15.75" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -31094,7 +31095,7 @@
       <c r="AD899" s="1"/>
       <c r="AE899" s="1"/>
     </row>
-    <row r="900" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:31" ht="15.75" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -31127,7 +31128,7 @@
       <c r="AD900" s="1"/>
       <c r="AE900" s="1"/>
     </row>
-    <row r="901" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:31" ht="15.75" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -31160,7 +31161,7 @@
       <c r="AD901" s="1"/>
       <c r="AE901" s="1"/>
     </row>
-    <row r="902" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:31" ht="15.75" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -31193,7 +31194,7 @@
       <c r="AD902" s="1"/>
       <c r="AE902" s="1"/>
     </row>
-    <row r="903" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:31" ht="15.75" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -31226,7 +31227,7 @@
       <c r="AD903" s="1"/>
       <c r="AE903" s="1"/>
     </row>
-    <row r="904" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:31" ht="15.75" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -31259,7 +31260,7 @@
       <c r="AD904" s="1"/>
       <c r="AE904" s="1"/>
     </row>
-    <row r="905" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:31" ht="15.75" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -31292,7 +31293,7 @@
       <c r="AD905" s="1"/>
       <c r="AE905" s="1"/>
     </row>
-    <row r="906" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:31" ht="15.75" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31325,7 +31326,7 @@
       <c r="AD906" s="1"/>
       <c r="AE906" s="1"/>
     </row>
-    <row r="907" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:31" ht="15.75" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -31358,7 +31359,7 @@
       <c r="AD907" s="1"/>
       <c r="AE907" s="1"/>
     </row>
-    <row r="908" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:31" ht="15.75" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -31391,7 +31392,7 @@
       <c r="AD908" s="1"/>
       <c r="AE908" s="1"/>
     </row>
-    <row r="909" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:31" ht="15.75" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -31424,7 +31425,7 @@
       <c r="AD909" s="1"/>
       <c r="AE909" s="1"/>
     </row>
-    <row r="910" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:31" ht="15.75" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -31457,7 +31458,7 @@
       <c r="AD910" s="1"/>
       <c r="AE910" s="1"/>
     </row>
-    <row r="911" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:31" ht="15.75" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -31490,7 +31491,7 @@
       <c r="AD911" s="1"/>
       <c r="AE911" s="1"/>
     </row>
-    <row r="912" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:31" ht="15.75" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -31523,7 +31524,7 @@
       <c r="AD912" s="1"/>
       <c r="AE912" s="1"/>
     </row>
-    <row r="913" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:31" ht="15.75" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -31556,7 +31557,7 @@
       <c r="AD913" s="1"/>
       <c r="AE913" s="1"/>
     </row>
-    <row r="914" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:31" ht="15.75" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -31589,7 +31590,7 @@
       <c r="AD914" s="1"/>
       <c r="AE914" s="1"/>
     </row>
-    <row r="915" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:31" ht="15.75" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -31622,7 +31623,7 @@
       <c r="AD915" s="1"/>
       <c r="AE915" s="1"/>
     </row>
-    <row r="916" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:31" ht="15.75" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -31655,7 +31656,7 @@
       <c r="AD916" s="1"/>
       <c r="AE916" s="1"/>
     </row>
-    <row r="917" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:31" ht="15.75" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -31688,7 +31689,7 @@
       <c r="AD917" s="1"/>
       <c r="AE917" s="1"/>
     </row>
-    <row r="918" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:31" ht="15.75" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -31721,7 +31722,7 @@
       <c r="AD918" s="1"/>
       <c r="AE918" s="1"/>
     </row>
-    <row r="919" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:31" ht="15.75" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -31754,7 +31755,7 @@
       <c r="AD919" s="1"/>
       <c r="AE919" s="1"/>
     </row>
-    <row r="920" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:31" ht="15.75" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -31787,7 +31788,7 @@
       <c r="AD920" s="1"/>
       <c r="AE920" s="1"/>
     </row>
-    <row r="921" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:31" ht="15.75" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>

--- a/Inicio/EDT .xlsx
+++ b/Inicio/EDT .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Inicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87CAC3-2606-4803-835F-BFC06FE7EA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EF6305-FC05-4CD6-9210-98CC2DE8F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>1.1.2 Plan de Alcance</t>
   </si>
   <si>
-    <t>1.4.2 Control de Riesgos</t>
-  </si>
-  <si>
     <t>1.5.2 Informe final del Proyecto</t>
   </si>
   <si>
@@ -278,18 +275,6 @@
     <t>1.2.5 Plan de Calidad</t>
   </si>
   <si>
-    <t>1.4.3 Control de Calidad</t>
-  </si>
-  <si>
-    <t>1.4.4 Seguimiento de Cronograma</t>
-  </si>
-  <si>
-    <t>1.4.5 Gestión de Comunicaciones</t>
-  </si>
-  <si>
-    <t>1.4.6 Control de Alcance</t>
-  </si>
-  <si>
     <t>1.2.1 Cronograma (Carta Gantt)</t>
   </si>
   <si>
@@ -329,13 +314,28 @@
     <t>1.2.8.2 Diseño de la Arquitectura de Software</t>
   </si>
   <si>
-    <t>1.2.8.2.1 Diagrama de Arquitectura del Software (MTV)</t>
+    <t>1.2.8.2.1 Diagrama de Componentes (UML)</t>
   </si>
   <si>
-    <t>1.2.8.2.2 Diagrama de Componentes (UML)</t>
+    <t>1.2.8.2.2 Diagrama de Despliegue (UML)</t>
   </si>
   <si>
-    <t>1.2.8.2.3 Diagrama de Despliegue (UML)</t>
+    <t>1.4.6 Control de Costos</t>
+  </si>
+  <si>
+    <t>1.4.1 Control de Riesgos</t>
+  </si>
+  <si>
+    <t>1.4.2 Control de Calidad</t>
+  </si>
+  <si>
+    <t>1.4.3 Seguimiento de Cronograma</t>
+  </si>
+  <si>
+    <t>1.4.4 Gestión de Comunicaciones</t>
+  </si>
+  <si>
+    <t>1.4.5 Control de Alcance</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -895,9 +895,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,6 +919,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,14 +1189,14 @@
   <sheetPr>
     <tabColor rgb="FFC55A11"/>
   </sheetPr>
-  <dimension ref="A1:AE921"/>
+  <dimension ref="A1:AE920"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.69921875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -1217,7 +1217,7 @@
     <col min="24" max="31" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="3" customHeight="1">
+    <row r="1" spans="1:31" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1250,7 +1250,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="35.25" customHeight="1">
+    <row r="2" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="53" t="s">
         <v>0</v>
@@ -1285,7 +1285,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1">
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1318,13 +1318,13 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="24.75" customHeight="1">
+    <row r="4" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1355,7 +1355,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="24.75" customHeight="1">
+    <row r="5" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -1392,7 +1392,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="18" customHeight="1">
+    <row r="6" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1425,13 +1425,13 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" ht="19.2" customHeight="1">
+    <row r="7" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
@@ -1462,7 +1462,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="36" customHeight="1">
+    <row r="8" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="51"/>
       <c r="C8" s="46"/>
@@ -1495,7 +1495,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="18" customHeight="1">
+    <row r="9" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="52"/>
       <c r="C9" s="48"/>
@@ -1528,7 +1528,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="18" customHeight="1">
+    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="50" t="s">
         <v>4</v>
@@ -1563,7 +1563,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="66" customHeight="1">
+    <row r="11" spans="1:31" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="51"/>
       <c r="C11" s="7"/>
@@ -1583,7 +1583,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
@@ -1606,7 +1606,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="18" customHeight="1">
+    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="52"/>
       <c r="C12" s="7"/>
@@ -1639,7 +1639,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="18" customHeight="1">
+    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="42" t="s">
         <v>9</v>
@@ -1684,7 +1684,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="68.400000000000006" customHeight="1">
+    <row r="14" spans="1:31" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="43"/>
       <c r="C14" s="6"/>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1703,16 +1703,16 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="33"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="22" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="V14" s="18"/>
       <c r="W14" s="22" t="s">
@@ -1727,7 +1727,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="18" customHeight="1">
+    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="43"/>
       <c r="C15" s="6"/>
@@ -1770,7 +1770,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" ht="57" customHeight="1">
+    <row r="16" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="43"/>
       <c r="C16" s="6"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1789,20 +1789,20 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="33"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="32" t="s">
-        <v>41</v>
+      <c r="U16" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -1813,7 +1813,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="43"/>
       <c r="C17" s="6"/>
@@ -1837,11 +1837,11 @@
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="40" t="s">
         <v>10</v>
       </c>
       <c r="V17" s="18"/>
-      <c r="W17" s="41" t="s">
+      <c r="W17" s="40" t="s">
         <v>10</v>
       </c>
       <c r="X17" s="11"/>
@@ -1853,17 +1853,17 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" ht="60" customHeight="1">
+    <row r="18" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="43"/>
       <c r="C18" s="6"/>
       <c r="D18" s="10"/>
       <c r="E18" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1874,18 +1874,18 @@
       <c r="N18" s="17"/>
       <c r="O18" s="26"/>
       <c r="P18" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
-      <c r="U18" s="32" t="s">
-        <v>42</v>
+      <c r="U18" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="V18" s="18"/>
       <c r="W18" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -1896,7 +1896,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="43"/>
       <c r="C19" s="6"/>
@@ -1923,7 +1923,7 @@
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="40" t="s">
         <v>10</v>
       </c>
       <c r="V19" s="18"/>
@@ -1937,17 +1937,17 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" ht="58.5" customHeight="1">
+    <row r="20" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
       <c r="E20" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1958,14 +1958,14 @@
       <c r="N20" s="25"/>
       <c r="O20" s="26"/>
       <c r="P20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="32" t="s">
-        <v>43</v>
+      <c r="U20" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
@@ -1978,7 +1978,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="43"/>
       <c r="C21" s="6"/>
@@ -2005,7 +2005,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="41" t="s">
+      <c r="U21" s="40" t="s">
         <v>10</v>
       </c>
       <c r="V21" s="18"/>
@@ -2019,17 +2019,17 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="61.5" customHeight="1">
+    <row r="22" spans="1:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="43"/>
       <c r="C22" s="6"/>
       <c r="D22" s="10"/>
       <c r="E22" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="36" t="s">
-        <v>51</v>
+      <c r="G22" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2040,14 +2040,14 @@
       <c r="N22" s="25"/>
       <c r="O22" s="26"/>
       <c r="P22" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
-      <c r="U22" s="32" t="s">
-        <v>44</v>
+      <c r="U22" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
@@ -2060,7 +2060,7 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="43"/>
       <c r="C23" s="6"/>
@@ -2078,14 +2078,16 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="39" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="26"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="11"/>
@@ -2097,17 +2099,17 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="71.25" customHeight="1">
+    <row r="24" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="43"/>
       <c r="C24" s="6"/>
       <c r="D24" s="10"/>
       <c r="E24" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2118,13 +2120,15 @@
       <c r="N24" s="25"/>
       <c r="O24" s="26"/>
       <c r="P24" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="33"/>
+      <c r="U24" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="11"/>
@@ -2136,7 +2140,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="43"/>
       <c r="C25" s="6"/>
@@ -2173,7 +2177,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" ht="59.25" customHeight="1">
+    <row r="26" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="43"/>
       <c r="C26" s="6"/>
@@ -2181,7 +2185,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="25"/>
@@ -2192,7 +2196,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="26"/>
       <c r="P26" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="18"/>
@@ -2210,7 +2214,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="43"/>
       <c r="C27" s="6"/>
@@ -2247,7 +2251,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" ht="46.5" customHeight="1">
+    <row r="28" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="43"/>
       <c r="C28" s="6"/>
@@ -2255,7 +2259,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="25"/>
@@ -2266,7 +2270,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
       <c r="P28" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="18"/>
@@ -2284,7 +2288,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" ht="18" customHeight="1">
+    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="43"/>
       <c r="C29" s="6"/>
@@ -2321,7 +2325,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" ht="66" customHeight="1">
+    <row r="30" spans="1:31" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="43"/>
       <c r="C30" s="6"/>
@@ -2329,7 +2333,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2340,7 +2344,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="26"/>
       <c r="P30" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="18"/>
@@ -2358,7 +2362,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" ht="18" customHeight="1">
+    <row r="31" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="43"/>
       <c r="C31" s="6"/>
@@ -2395,18 +2399,18 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" ht="58.8" customHeight="1">
+    <row r="32" spans="1:31" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="43"/>
       <c r="C32" s="6"/>
       <c r="D32" s="10"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="33"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="33"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
@@ -2414,7 +2418,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="26"/>
       <c r="P32" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="18"/>
@@ -2432,7 +2436,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="24.6" customHeight="1">
+    <row r="33" spans="1:31" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="43"/>
       <c r="C33" s="6"/>
@@ -2443,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -2469,18 +2473,18 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="65.400000000000006" customHeight="1">
+    <row r="34" spans="1:31" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="43"/>
       <c r="C34" s="6"/>
       <c r="D34" s="10"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="33"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H34" s="17"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
@@ -2488,7 +2492,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="16"/>
       <c r="P34" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="18"/>
@@ -2506,7 +2510,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" ht="22.8" customHeight="1">
+    <row r="35" spans="1:31" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="43"/>
       <c r="C35" s="6"/>
@@ -2543,7 +2547,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" ht="52.2" customHeight="1">
+    <row r="36" spans="1:31" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="43"/>
       <c r="C36" s="6"/>
@@ -2551,7 +2555,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2562,7 +2566,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="16"/>
       <c r="P36" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="18"/>
@@ -2580,7 +2584,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" ht="18" customHeight="1">
+    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="43"/>
       <c r="C37" s="6"/>
@@ -2617,15 +2621,15 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="69.599999999999994" customHeight="1">
+    <row r="38" spans="1:31" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="43"/>
       <c r="C38" s="6"/>
       <c r="D38" s="10"/>
       <c r="E38" s="17"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="39" t="s">
-        <v>55</v>
+      <c r="G38" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2636,7 +2640,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="16"/>
       <c r="P38" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="18"/>
@@ -2654,14 +2658,14 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="43"/>
       <c r="C39" s="6"/>
       <c r="D39" s="10"/>
       <c r="E39" s="17"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="34" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="17"/>
@@ -2691,26 +2695,26 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" ht="104.4" customHeight="1">
+    <row r="40" spans="1:31" ht="104.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="43"/>
       <c r="C40" s="6"/>
       <c r="D40" s="10"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34" t="s">
-        <v>56</v>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="25"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="16"/>
       <c r="P40" s="23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="18"/>
@@ -2728,14 +2732,14 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" ht="18" customHeight="1">
+    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="43"/>
       <c r="C41" s="6"/>
       <c r="D41" s="10"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="17"/>
@@ -2765,15 +2769,15 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" ht="84" customHeight="1">
+    <row r="42" spans="1:31" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="43"/>
       <c r="C42" s="6"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="38" t="s">
-        <v>57</v>
+      <c r="G42" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2784,7 +2788,7 @@
       <c r="N42" s="17"/>
       <c r="O42" s="16"/>
       <c r="P42" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="18"/>
@@ -2802,14 +2806,14 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" ht="28.8" customHeight="1">
+    <row r="43" spans="1:31" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="43"/>
       <c r="C43" s="6"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="34" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="17"/>
@@ -2837,15 +2841,15 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" ht="58.5" customHeight="1">
+    <row r="44" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="43"/>
       <c r="C44" s="6"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="34" t="s">
-        <v>58</v>
+      <c r="G44" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -2872,14 +2876,14 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" ht="18" customHeight="1">
+    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="43"/>
       <c r="C45" s="6"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="17"/>
@@ -2907,15 +2911,15 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="1:31" ht="55.5" customHeight="1">
+    <row r="46" spans="1:31" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="43"/>
       <c r="C46" s="6"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="34" t="s">
-        <v>59</v>
+      <c r="G46" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -2942,16 +2946,14 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" ht="18" customHeight="1">
+    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="43"/>
       <c r="C47" s="6"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="37" t="s">
-        <v>10</v>
-      </c>
+      <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -2977,26 +2979,24 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" ht="67.5" customHeight="1">
+    <row r="48" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="43"/>
       <c r="C48" s="6"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="25"/>
       <c r="O48" s="26"/>
       <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
+      <c r="Q48" s="26"/>
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
       <c r="T48" s="18"/>
@@ -3012,40 +3012,40 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" ht="18" customHeight="1">
+    <row r="49" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="12"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" ht="17.25" customHeight="1">
+    <row r="50" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3078,7 +3078,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" ht="17.25" customHeight="1">
+    <row r="51" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3111,7 +3111,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" ht="17.25" customHeight="1">
+    <row r="52" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3144,7 +3144,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" ht="17.25" customHeight="1">
+    <row r="53" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3177,7 +3177,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" ht="17.25" customHeight="1">
+    <row r="54" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3210,30 +3210,30 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" ht="17.25" customHeight="1">
+    <row r="55" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -3243,7 +3243,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" ht="17.25" customHeight="1">
+    <row r="56" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3276,7 +3276,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" ht="17.25" customHeight="1">
+    <row r="57" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3309,7 +3309,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" ht="17.25" customHeight="1">
+    <row r="58" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3342,7 +3342,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" ht="17.25" customHeight="1">
+    <row r="59" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3375,7 +3375,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" ht="17.25" customHeight="1">
+    <row r="60" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3408,7 +3408,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" ht="17.25" customHeight="1">
+    <row r="61" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3441,7 +3441,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" ht="17.25" customHeight="1">
+    <row r="62" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3474,7 +3474,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" ht="17.25" customHeight="1">
+    <row r="63" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3507,7 +3507,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" ht="17.25" customHeight="1">
+    <row r="64" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3540,7 +3540,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" ht="17.25" customHeight="1">
+    <row r="65" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3573,7 +3573,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" ht="17.25" customHeight="1">
+    <row r="66" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3606,7 +3606,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" ht="17.25" customHeight="1">
+    <row r="67" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3639,7 +3639,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" ht="17.25" customHeight="1">
+    <row r="68" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3672,7 +3672,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" ht="17.25" customHeight="1">
+    <row r="69" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3705,7 +3705,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" ht="17.25" customHeight="1">
+    <row r="70" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3738,7 +3738,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" ht="17.25" customHeight="1">
+    <row r="71" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" ht="17.25" customHeight="1">
+    <row r="72" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3804,7 +3804,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" ht="17.25" customHeight="1">
+    <row r="73" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3837,7 +3837,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" ht="17.25" customHeight="1">
+    <row r="74" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3870,7 +3870,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" ht="17.25" customHeight="1">
+    <row r="75" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3903,7 +3903,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" ht="17.25" customHeight="1">
+    <row r="76" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3936,7 +3936,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" ht="17.25" customHeight="1">
+    <row r="77" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3969,7 +3969,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" ht="17.25" customHeight="1">
+    <row r="78" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4002,7 +4002,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" ht="17.25" customHeight="1">
+    <row r="79" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4035,7 +4035,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" ht="17.25" customHeight="1">
+    <row r="80" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4068,7 +4068,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="1:31" ht="17.25" customHeight="1">
+    <row r="81" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4101,7 +4101,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="1:31" ht="17.25" customHeight="1">
+    <row r="82" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4134,7 +4134,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="1:31" ht="17.25" customHeight="1">
+    <row r="83" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4167,7 +4167,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="1:31" ht="17.25" customHeight="1">
+    <row r="84" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4200,7 +4200,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="1:31" ht="17.25" customHeight="1">
+    <row r="85" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4233,7 +4233,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="1:31" ht="17.25" customHeight="1">
+    <row r="86" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4266,7 +4266,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="1:31" ht="17.25" customHeight="1">
+    <row r="87" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="1:31" ht="17.25" customHeight="1">
+    <row r="88" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4332,7 +4332,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:31" ht="17.25" customHeight="1">
+    <row r="89" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4365,7 +4365,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="1:31" ht="17.25" customHeight="1">
+    <row r="90" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4398,7 +4398,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="1:31" ht="17.25" customHeight="1">
+    <row r="91" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4431,7 +4431,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="1:31" ht="17.25" customHeight="1">
+    <row r="92" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4464,7 +4464,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="1:31" ht="17.25" customHeight="1">
+    <row r="93" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4497,7 +4497,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="1:31" ht="17.25" customHeight="1">
+    <row r="94" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4530,7 +4530,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="1:31" ht="17.25" customHeight="1">
+    <row r="95" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4563,7 +4563,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="1:31" ht="17.25" customHeight="1">
+    <row r="96" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4596,7 +4596,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="1:31" ht="17.25" customHeight="1">
+    <row r="97" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4629,7 +4629,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="1:31" ht="17.25" customHeight="1">
+    <row r="98" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4662,7 +4662,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="1:31" ht="17.25" customHeight="1">
+    <row r="99" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4695,7 +4695,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="1:31" ht="17.25" customHeight="1">
+    <row r="100" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4728,7 +4728,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="1:31" ht="17.25" customHeight="1">
+    <row r="101" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4761,7 +4761,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="1:31" ht="17.25" customHeight="1">
+    <row r="102" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4794,7 +4794,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="1:31" ht="17.25" customHeight="1">
+    <row r="103" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4827,7 +4827,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
     </row>
-    <row r="104" spans="1:31" ht="17.25" customHeight="1">
+    <row r="104" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4860,7 +4860,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="1:31" ht="17.25" customHeight="1">
+    <row r="105" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4893,7 +4893,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="1:31" ht="17.25" customHeight="1">
+    <row r="106" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4926,7 +4926,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="1:31" ht="17.25" customHeight="1">
+    <row r="107" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4959,7 +4959,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="1:31" ht="17.25" customHeight="1">
+    <row r="108" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4992,7 +4992,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="1:31" ht="17.25" customHeight="1">
+    <row r="109" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5025,7 +5025,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="1:31" ht="17.25" customHeight="1">
+    <row r="110" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5058,7 +5058,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="1:31" ht="17.25" customHeight="1">
+    <row r="111" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5091,7 +5091,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="1:31" ht="17.25" customHeight="1">
+    <row r="112" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5124,7 +5124,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="1:31" ht="17.25" customHeight="1">
+    <row r="113" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5157,7 +5157,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="1:31" ht="17.25" customHeight="1">
+    <row r="114" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5190,7 +5190,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="1:31" ht="17.25" customHeight="1">
+    <row r="115" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5223,7 +5223,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="1:31" ht="17.25" customHeight="1">
+    <row r="116" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5256,7 +5256,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="1:31" ht="17.25" customHeight="1">
+    <row r="117" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5289,7 +5289,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="1:31" ht="17.25" customHeight="1">
+    <row r="118" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5322,7 +5322,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="1:31" ht="17.25" customHeight="1">
+    <row r="119" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5355,7 +5355,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="1:31" ht="17.25" customHeight="1">
+    <row r="120" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5388,7 +5388,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="1:31" ht="17.25" customHeight="1">
+    <row r="121" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5421,7 +5421,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="1:31" ht="17.25" customHeight="1">
+    <row r="122" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5454,7 +5454,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="1:31" ht="17.25" customHeight="1">
+    <row r="123" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5487,7 +5487,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" ht="17.25" customHeight="1">
+    <row r="124" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5520,7 +5520,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="1:31" ht="17.25" customHeight="1">
+    <row r="125" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5553,7 +5553,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="1:31" ht="17.25" customHeight="1">
+    <row r="126" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5586,7 +5586,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="1:31" ht="17.25" customHeight="1">
+    <row r="127" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5619,7 +5619,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="1:31" ht="17.25" customHeight="1">
+    <row r="128" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5652,7 +5652,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="1:31" ht="17.25" customHeight="1">
+    <row r="129" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5685,7 +5685,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="1:31" ht="17.25" customHeight="1">
+    <row r="130" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5718,7 +5718,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="1:31" ht="17.25" customHeight="1">
+    <row r="131" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5751,7 +5751,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="1:31" ht="17.25" customHeight="1">
+    <row r="132" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5784,7 +5784,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="1:31" ht="17.25" customHeight="1">
+    <row r="133" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5817,7 +5817,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="1:31" ht="17.25" customHeight="1">
+    <row r="134" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5850,7 +5850,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="1:31" ht="17.25" customHeight="1">
+    <row r="135" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5883,7 +5883,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="1:31" ht="17.25" customHeight="1">
+    <row r="136" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5916,7 +5916,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="1:31" ht="17.25" customHeight="1">
+    <row r="137" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5949,7 +5949,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="1:31" ht="17.25" customHeight="1">
+    <row r="138" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5982,7 +5982,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="1:31" ht="17.25" customHeight="1">
+    <row r="139" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6015,7 +6015,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="1:31" ht="17.25" customHeight="1">
+    <row r="140" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6048,7 +6048,7 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="1:31" ht="17.25" customHeight="1">
+    <row r="141" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6081,7 +6081,7 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="1:31" ht="17.25" customHeight="1">
+    <row r="142" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6114,7 +6114,7 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="1:31" ht="17.25" customHeight="1">
+    <row r="143" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6147,7 +6147,7 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="1:31" ht="17.25" customHeight="1">
+    <row r="144" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6180,7 +6180,7 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="1:31" ht="17.25" customHeight="1">
+    <row r="145" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6213,7 +6213,7 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="1:31" ht="17.25" customHeight="1">
+    <row r="146" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6246,7 +6246,7 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="1:31" ht="17.25" customHeight="1">
+    <row r="147" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6279,7 +6279,7 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="1:31" ht="15.75" customHeight="1">
+    <row r="148" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6312,7 +6312,7 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="1:31" ht="15.75" customHeight="1">
+    <row r="149" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6345,7 +6345,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="1:31" ht="15.75" customHeight="1">
+    <row r="150" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6378,7 +6378,7 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="1:31" ht="15.75" customHeight="1">
+    <row r="151" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6411,7 +6411,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="1:31" ht="15.75" customHeight="1">
+    <row r="152" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6444,7 +6444,7 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="1:31" ht="15.75" customHeight="1">
+    <row r="153" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6477,7 +6477,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="1:31" ht="15.75" customHeight="1">
+    <row r="154" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6510,7 +6510,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="1:31" ht="15.75" customHeight="1">
+    <row r="155" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6543,7 +6543,7 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="1:31" ht="15.75" customHeight="1">
+    <row r="156" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6576,7 +6576,7 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="1:31" ht="15.75" customHeight="1">
+    <row r="157" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6609,7 +6609,7 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="1:31" ht="15.75" customHeight="1">
+    <row r="158" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6642,7 +6642,7 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="1:31" ht="15.75" customHeight="1">
+    <row r="159" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6675,7 +6675,7 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
     </row>
-    <row r="160" spans="1:31" ht="15.75" customHeight="1">
+    <row r="160" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6708,7 +6708,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
     </row>
-    <row r="161" spans="1:31" ht="15.75" customHeight="1">
+    <row r="161" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6741,7 +6741,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
     </row>
-    <row r="162" spans="1:31" ht="15.75" customHeight="1">
+    <row r="162" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6774,7 +6774,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
     </row>
-    <row r="163" spans="1:31" ht="15.75" customHeight="1">
+    <row r="163" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6807,7 +6807,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
     </row>
-    <row r="164" spans="1:31" ht="15.75" customHeight="1">
+    <row r="164" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6840,7 +6840,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
     </row>
-    <row r="165" spans="1:31" ht="15.75" customHeight="1">
+    <row r="165" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6873,7 +6873,7 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
     </row>
-    <row r="166" spans="1:31" ht="15.75" customHeight="1">
+    <row r="166" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6906,7 +6906,7 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
     </row>
-    <row r="167" spans="1:31" ht="15.75" customHeight="1">
+    <row r="167" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6939,7 +6939,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
     </row>
-    <row r="168" spans="1:31" ht="15.75" customHeight="1">
+    <row r="168" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6972,7 +6972,7 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
     </row>
-    <row r="169" spans="1:31" ht="15.75" customHeight="1">
+    <row r="169" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7005,7 +7005,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
     </row>
-    <row r="170" spans="1:31" ht="15.75" customHeight="1">
+    <row r="170" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7038,7 +7038,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
     </row>
-    <row r="171" spans="1:31" ht="15.75" customHeight="1">
+    <row r="171" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7071,7 +7071,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
     </row>
-    <row r="172" spans="1:31" ht="15.75" customHeight="1">
+    <row r="172" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7104,7 +7104,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
     </row>
-    <row r="173" spans="1:31" ht="15.75" customHeight="1">
+    <row r="173" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7137,7 +7137,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
     </row>
-    <row r="174" spans="1:31" ht="15.75" customHeight="1">
+    <row r="174" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7170,7 +7170,7 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
     </row>
-    <row r="175" spans="1:31" ht="15.75" customHeight="1">
+    <row r="175" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7203,7 +7203,7 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
     </row>
-    <row r="176" spans="1:31" ht="15.75" customHeight="1">
+    <row r="176" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7236,7 +7236,7 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
     </row>
-    <row r="177" spans="1:31" ht="15.75" customHeight="1">
+    <row r="177" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7269,7 +7269,7 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
     </row>
-    <row r="178" spans="1:31" ht="15.75" customHeight="1">
+    <row r="178" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7302,7 +7302,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
     </row>
-    <row r="179" spans="1:31" ht="15.75" customHeight="1">
+    <row r="179" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7335,7 +7335,7 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
     </row>
-    <row r="180" spans="1:31" ht="15.75" customHeight="1">
+    <row r="180" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7368,7 +7368,7 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
     </row>
-    <row r="181" spans="1:31" ht="15.75" customHeight="1">
+    <row r="181" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7401,7 +7401,7 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
     </row>
-    <row r="182" spans="1:31" ht="15.75" customHeight="1">
+    <row r="182" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7434,7 +7434,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
     </row>
-    <row r="183" spans="1:31" ht="15.75" customHeight="1">
+    <row r="183" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7467,7 +7467,7 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
     </row>
-    <row r="184" spans="1:31" ht="15.75" customHeight="1">
+    <row r="184" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7500,7 +7500,7 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
     </row>
-    <row r="185" spans="1:31" ht="15.75" customHeight="1">
+    <row r="185" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7533,7 +7533,7 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
     </row>
-    <row r="186" spans="1:31" ht="15.75" customHeight="1">
+    <row r="186" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7566,7 +7566,7 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
     </row>
-    <row r="187" spans="1:31" ht="15.75" customHeight="1">
+    <row r="187" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7599,7 +7599,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
     </row>
-    <row r="188" spans="1:31" ht="15.75" customHeight="1">
+    <row r="188" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7632,7 +7632,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
     </row>
-    <row r="189" spans="1:31" ht="15.75" customHeight="1">
+    <row r="189" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7665,7 +7665,7 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
     </row>
-    <row r="190" spans="1:31" ht="15.75" customHeight="1">
+    <row r="190" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7698,7 +7698,7 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
     </row>
-    <row r="191" spans="1:31" ht="15.75" customHeight="1">
+    <row r="191" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7731,7 +7731,7 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
     </row>
-    <row r="192" spans="1:31" ht="15.75" customHeight="1">
+    <row r="192" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7764,7 +7764,7 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
     </row>
-    <row r="193" spans="1:31" ht="15.75" customHeight="1">
+    <row r="193" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7797,7 +7797,7 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
     </row>
-    <row r="194" spans="1:31" ht="15.75" customHeight="1">
+    <row r="194" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7830,7 +7830,7 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
     </row>
-    <row r="195" spans="1:31" ht="15.75" customHeight="1">
+    <row r="195" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7863,7 +7863,7 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
     </row>
-    <row r="196" spans="1:31" ht="15.75" customHeight="1">
+    <row r="196" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7896,7 +7896,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
     </row>
-    <row r="197" spans="1:31" ht="15.75" customHeight="1">
+    <row r="197" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7929,7 +7929,7 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
     </row>
-    <row r="198" spans="1:31" ht="15.75" customHeight="1">
+    <row r="198" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7962,7 +7962,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
     </row>
-    <row r="199" spans="1:31" ht="15.75" customHeight="1">
+    <row r="199" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7995,7 +7995,7 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
     </row>
-    <row r="200" spans="1:31" ht="15.75" customHeight="1">
+    <row r="200" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8028,7 +8028,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
     </row>
-    <row r="201" spans="1:31" ht="15.75" customHeight="1">
+    <row r="201" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8061,7 +8061,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
     </row>
-    <row r="202" spans="1:31" ht="15.75" customHeight="1">
+    <row r="202" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8094,7 +8094,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
     </row>
-    <row r="203" spans="1:31" ht="15.75" customHeight="1">
+    <row r="203" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8127,7 +8127,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
     </row>
-    <row r="204" spans="1:31" ht="15.75" customHeight="1">
+    <row r="204" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8160,7 +8160,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
     </row>
-    <row r="205" spans="1:31" ht="15.75" customHeight="1">
+    <row r="205" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8193,7 +8193,7 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
     </row>
-    <row r="206" spans="1:31" ht="15.75" customHeight="1">
+    <row r="206" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8226,7 +8226,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
     </row>
-    <row r="207" spans="1:31" ht="15.75" customHeight="1">
+    <row r="207" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8259,7 +8259,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
     </row>
-    <row r="208" spans="1:31" ht="15.75" customHeight="1">
+    <row r="208" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8292,7 +8292,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
     </row>
-    <row r="209" spans="1:31" ht="15.75" customHeight="1">
+    <row r="209" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8325,7 +8325,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
     </row>
-    <row r="210" spans="1:31" ht="15.75" customHeight="1">
+    <row r="210" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8358,7 +8358,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
     </row>
-    <row r="211" spans="1:31" ht="15.75" customHeight="1">
+    <row r="211" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8391,7 +8391,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
     </row>
-    <row r="212" spans="1:31" ht="15.75" customHeight="1">
+    <row r="212" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8424,7 +8424,7 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
     </row>
-    <row r="213" spans="1:31" ht="15.75" customHeight="1">
+    <row r="213" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8457,7 +8457,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
     </row>
-    <row r="214" spans="1:31" ht="15.75" customHeight="1">
+    <row r="214" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8490,7 +8490,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
     </row>
-    <row r="215" spans="1:31" ht="15.75" customHeight="1">
+    <row r="215" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8523,7 +8523,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
     </row>
-    <row r="216" spans="1:31" ht="15.75" customHeight="1">
+    <row r="216" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8556,7 +8556,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
     </row>
-    <row r="217" spans="1:31" ht="15.75" customHeight="1">
+    <row r="217" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8589,7 +8589,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
     </row>
-    <row r="218" spans="1:31" ht="15.75" customHeight="1">
+    <row r="218" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8622,7 +8622,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
     </row>
-    <row r="219" spans="1:31" ht="15.75" customHeight="1">
+    <row r="219" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8655,7 +8655,7 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
     </row>
-    <row r="220" spans="1:31" ht="15.75" customHeight="1">
+    <row r="220" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8688,7 +8688,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
     </row>
-    <row r="221" spans="1:31" ht="15.75" customHeight="1">
+    <row r="221" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8721,7 +8721,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
     </row>
-    <row r="222" spans="1:31" ht="15.75" customHeight="1">
+    <row r="222" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8754,7 +8754,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
     </row>
-    <row r="223" spans="1:31" ht="15.75" customHeight="1">
+    <row r="223" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8787,7 +8787,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
     </row>
-    <row r="224" spans="1:31" ht="15.75" customHeight="1">
+    <row r="224" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8820,7 +8820,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
     </row>
-    <row r="225" spans="1:31" ht="15.75" customHeight="1">
+    <row r="225" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8853,7 +8853,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
     </row>
-    <row r="226" spans="1:31" ht="15.75" customHeight="1">
+    <row r="226" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8886,7 +8886,7 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
     </row>
-    <row r="227" spans="1:31" ht="15.75" customHeight="1">
+    <row r="227" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8919,7 +8919,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
     </row>
-    <row r="228" spans="1:31" ht="15.75" customHeight="1">
+    <row r="228" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8952,7 +8952,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
     </row>
-    <row r="229" spans="1:31" ht="15.75" customHeight="1">
+    <row r="229" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8985,7 +8985,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
     </row>
-    <row r="230" spans="1:31" ht="15.75" customHeight="1">
+    <row r="230" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9018,7 +9018,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
     </row>
-    <row r="231" spans="1:31" ht="15.75" customHeight="1">
+    <row r="231" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9051,7 +9051,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
     </row>
-    <row r="232" spans="1:31" ht="15.75" customHeight="1">
+    <row r="232" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9084,7 +9084,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
     </row>
-    <row r="233" spans="1:31" ht="15.75" customHeight="1">
+    <row r="233" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9117,7 +9117,7 @@
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
     </row>
-    <row r="234" spans="1:31" ht="15.75" customHeight="1">
+    <row r="234" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9150,7 +9150,7 @@
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
     </row>
-    <row r="235" spans="1:31" ht="15.75" customHeight="1">
+    <row r="235" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9183,7 +9183,7 @@
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
     </row>
-    <row r="236" spans="1:31" ht="15.75" customHeight="1">
+    <row r="236" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9216,7 +9216,7 @@
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
     </row>
-    <row r="237" spans="1:31" ht="15.75" customHeight="1">
+    <row r="237" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9249,7 +9249,7 @@
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
     </row>
-    <row r="238" spans="1:31" ht="15.75" customHeight="1">
+    <row r="238" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9282,7 +9282,7 @@
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
     </row>
-    <row r="239" spans="1:31" ht="15.75" customHeight="1">
+    <row r="239" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9315,7 +9315,7 @@
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
     </row>
-    <row r="240" spans="1:31" ht="15.75" customHeight="1">
+    <row r="240" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9348,7 +9348,7 @@
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
     </row>
-    <row r="241" spans="1:31" ht="15.75" customHeight="1">
+    <row r="241" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9381,7 +9381,7 @@
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
     </row>
-    <row r="242" spans="1:31" ht="15.75" customHeight="1">
+    <row r="242" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9414,7 +9414,7 @@
       <c r="AD242" s="1"/>
       <c r="AE242" s="1"/>
     </row>
-    <row r="243" spans="1:31" ht="15.75" customHeight="1">
+    <row r="243" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9447,7 +9447,7 @@
       <c r="AD243" s="1"/>
       <c r="AE243" s="1"/>
     </row>
-    <row r="244" spans="1:31" ht="15.75" customHeight="1">
+    <row r="244" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9480,7 +9480,7 @@
       <c r="AD244" s="1"/>
       <c r="AE244" s="1"/>
     </row>
-    <row r="245" spans="1:31" ht="15.75" customHeight="1">
+    <row r="245" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9513,7 +9513,7 @@
       <c r="AD245" s="1"/>
       <c r="AE245" s="1"/>
     </row>
-    <row r="246" spans="1:31" ht="15.75" customHeight="1">
+    <row r="246" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9546,7 +9546,7 @@
       <c r="AD246" s="1"/>
       <c r="AE246" s="1"/>
     </row>
-    <row r="247" spans="1:31" ht="15.75" customHeight="1">
+    <row r="247" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9579,7 +9579,7 @@
       <c r="AD247" s="1"/>
       <c r="AE247" s="1"/>
     </row>
-    <row r="248" spans="1:31" ht="15.75" customHeight="1">
+    <row r="248" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9612,7 +9612,7 @@
       <c r="AD248" s="1"/>
       <c r="AE248" s="1"/>
     </row>
-    <row r="249" spans="1:31" ht="15.75" customHeight="1">
+    <row r="249" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9645,7 +9645,7 @@
       <c r="AD249" s="1"/>
       <c r="AE249" s="1"/>
     </row>
-    <row r="250" spans="1:31" ht="15.75" customHeight="1">
+    <row r="250" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9678,7 +9678,7 @@
       <c r="AD250" s="1"/>
       <c r="AE250" s="1"/>
     </row>
-    <row r="251" spans="1:31" ht="15.75" customHeight="1">
+    <row r="251" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9711,7 +9711,7 @@
       <c r="AD251" s="1"/>
       <c r="AE251" s="1"/>
     </row>
-    <row r="252" spans="1:31" ht="15.75" customHeight="1">
+    <row r="252" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9744,7 +9744,7 @@
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
     </row>
-    <row r="253" spans="1:31" ht="15.75" customHeight="1">
+    <row r="253" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9777,7 +9777,7 @@
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
     </row>
-    <row r="254" spans="1:31" ht="15.75" customHeight="1">
+    <row r="254" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9810,7 +9810,7 @@
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
     </row>
-    <row r="255" spans="1:31" ht="15.75" customHeight="1">
+    <row r="255" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9843,7 +9843,7 @@
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
     </row>
-    <row r="256" spans="1:31" ht="15.75" customHeight="1">
+    <row r="256" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9876,7 +9876,7 @@
       <c r="AD256" s="1"/>
       <c r="AE256" s="1"/>
     </row>
-    <row r="257" spans="1:31" ht="15.75" customHeight="1">
+    <row r="257" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9909,7 +9909,7 @@
       <c r="AD257" s="1"/>
       <c r="AE257" s="1"/>
     </row>
-    <row r="258" spans="1:31" ht="15.75" customHeight="1">
+    <row r="258" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9942,7 +9942,7 @@
       <c r="AD258" s="1"/>
       <c r="AE258" s="1"/>
     </row>
-    <row r="259" spans="1:31" ht="15.75" customHeight="1">
+    <row r="259" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9975,7 +9975,7 @@
       <c r="AD259" s="1"/>
       <c r="AE259" s="1"/>
     </row>
-    <row r="260" spans="1:31" ht="15.75" customHeight="1">
+    <row r="260" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10008,7 +10008,7 @@
       <c r="AD260" s="1"/>
       <c r="AE260" s="1"/>
     </row>
-    <row r="261" spans="1:31" ht="15.75" customHeight="1">
+    <row r="261" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10041,7 +10041,7 @@
       <c r="AD261" s="1"/>
       <c r="AE261" s="1"/>
     </row>
-    <row r="262" spans="1:31" ht="15.75" customHeight="1">
+    <row r="262" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10074,7 +10074,7 @@
       <c r="AD262" s="1"/>
       <c r="AE262" s="1"/>
     </row>
-    <row r="263" spans="1:31" ht="15.75" customHeight="1">
+    <row r="263" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10107,7 +10107,7 @@
       <c r="AD263" s="1"/>
       <c r="AE263" s="1"/>
     </row>
-    <row r="264" spans="1:31" ht="15.75" customHeight="1">
+    <row r="264" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10140,7 +10140,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
     </row>
-    <row r="265" spans="1:31" ht="15.75" customHeight="1">
+    <row r="265" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10173,7 +10173,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
     </row>
-    <row r="266" spans="1:31" ht="15.75" customHeight="1">
+    <row r="266" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10206,7 +10206,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
     </row>
-    <row r="267" spans="1:31" ht="15.75" customHeight="1">
+    <row r="267" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10239,7 +10239,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
     </row>
-    <row r="268" spans="1:31" ht="15.75" customHeight="1">
+    <row r="268" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10272,7 +10272,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
     </row>
-    <row r="269" spans="1:31" ht="15.75" customHeight="1">
+    <row r="269" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10305,7 +10305,7 @@
       <c r="AD269" s="1"/>
       <c r="AE269" s="1"/>
     </row>
-    <row r="270" spans="1:31" ht="15.75" customHeight="1">
+    <row r="270" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10338,7 +10338,7 @@
       <c r="AD270" s="1"/>
       <c r="AE270" s="1"/>
     </row>
-    <row r="271" spans="1:31" ht="15.75" customHeight="1">
+    <row r="271" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10371,7 +10371,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
     </row>
-    <row r="272" spans="1:31" ht="15.75" customHeight="1">
+    <row r="272" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10404,7 +10404,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
     </row>
-    <row r="273" spans="1:31" ht="15.75" customHeight="1">
+    <row r="273" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10437,7 +10437,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
     </row>
-    <row r="274" spans="1:31" ht="15.75" customHeight="1">
+    <row r="274" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10470,7 +10470,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
     </row>
-    <row r="275" spans="1:31" ht="15.75" customHeight="1">
+    <row r="275" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10503,7 +10503,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
     </row>
-    <row r="276" spans="1:31" ht="15.75" customHeight="1">
+    <row r="276" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10536,7 +10536,7 @@
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
     </row>
-    <row r="277" spans="1:31" ht="15.75" customHeight="1">
+    <row r="277" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10569,7 +10569,7 @@
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
     </row>
-    <row r="278" spans="1:31" ht="15.75" customHeight="1">
+    <row r="278" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10602,7 +10602,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
     </row>
-    <row r="279" spans="1:31" ht="15.75" customHeight="1">
+    <row r="279" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10635,7 +10635,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
     </row>
-    <row r="280" spans="1:31" ht="15.75" customHeight="1">
+    <row r="280" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10668,7 +10668,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
     </row>
-    <row r="281" spans="1:31" ht="15.75" customHeight="1">
+    <row r="281" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10701,7 +10701,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
     </row>
-    <row r="282" spans="1:31" ht="15.75" customHeight="1">
+    <row r="282" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10734,7 +10734,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
     </row>
-    <row r="283" spans="1:31" ht="15.75" customHeight="1">
+    <row r="283" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10767,7 +10767,7 @@
       <c r="AD283" s="1"/>
       <c r="AE283" s="1"/>
     </row>
-    <row r="284" spans="1:31" ht="15.75" customHeight="1">
+    <row r="284" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10800,7 +10800,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
     </row>
-    <row r="285" spans="1:31" ht="15.75" customHeight="1">
+    <row r="285" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10833,7 +10833,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
     </row>
-    <row r="286" spans="1:31" ht="15.75" customHeight="1">
+    <row r="286" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10866,7 +10866,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
     </row>
-    <row r="287" spans="1:31" ht="15.75" customHeight="1">
+    <row r="287" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10899,7 +10899,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
     </row>
-    <row r="288" spans="1:31" ht="15.75" customHeight="1">
+    <row r="288" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10932,7 +10932,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
     </row>
-    <row r="289" spans="1:31" ht="15.75" customHeight="1">
+    <row r="289" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -10965,7 +10965,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
     </row>
-    <row r="290" spans="1:31" ht="15.75" customHeight="1">
+    <row r="290" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -10998,7 +10998,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
     </row>
-    <row r="291" spans="1:31" ht="15.75" customHeight="1">
+    <row r="291" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11031,7 +11031,7 @@
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
     </row>
-    <row r="292" spans="1:31" ht="15.75" customHeight="1">
+    <row r="292" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11064,7 +11064,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
     </row>
-    <row r="293" spans="1:31" ht="15.75" customHeight="1">
+    <row r="293" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11097,7 +11097,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
     </row>
-    <row r="294" spans="1:31" ht="15.75" customHeight="1">
+    <row r="294" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11130,7 +11130,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
     </row>
-    <row r="295" spans="1:31" ht="15.75" customHeight="1">
+    <row r="295" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11163,7 +11163,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
     </row>
-    <row r="296" spans="1:31" ht="15.75" customHeight="1">
+    <row r="296" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11196,7 +11196,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
     </row>
-    <row r="297" spans="1:31" ht="15.75" customHeight="1">
+    <row r="297" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11229,7 +11229,7 @@
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
     </row>
-    <row r="298" spans="1:31" ht="15.75" customHeight="1">
+    <row r="298" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11262,7 +11262,7 @@
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
     </row>
-    <row r="299" spans="1:31" ht="15.75" customHeight="1">
+    <row r="299" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11295,7 +11295,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
     </row>
-    <row r="300" spans="1:31" ht="15.75" customHeight="1">
+    <row r="300" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11328,7 +11328,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
     </row>
-    <row r="301" spans="1:31" ht="15.75" customHeight="1">
+    <row r="301" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11361,7 +11361,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
     </row>
-    <row r="302" spans="1:31" ht="15.75" customHeight="1">
+    <row r="302" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11394,7 +11394,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
     </row>
-    <row r="303" spans="1:31" ht="15.75" customHeight="1">
+    <row r="303" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11427,7 +11427,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
     </row>
-    <row r="304" spans="1:31" ht="15.75" customHeight="1">
+    <row r="304" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11460,7 +11460,7 @@
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
     </row>
-    <row r="305" spans="1:31" ht="15.75" customHeight="1">
+    <row r="305" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11493,7 +11493,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
     </row>
-    <row r="306" spans="1:31" ht="15.75" customHeight="1">
+    <row r="306" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11526,7 +11526,7 @@
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
     </row>
-    <row r="307" spans="1:31" ht="15.75" customHeight="1">
+    <row r="307" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11559,7 +11559,7 @@
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
     </row>
-    <row r="308" spans="1:31" ht="15.75" customHeight="1">
+    <row r="308" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11592,7 +11592,7 @@
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
     </row>
-    <row r="309" spans="1:31" ht="15.75" customHeight="1">
+    <row r="309" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11625,7 +11625,7 @@
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
     </row>
-    <row r="310" spans="1:31" ht="15.75" customHeight="1">
+    <row r="310" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11658,7 +11658,7 @@
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
     </row>
-    <row r="311" spans="1:31" ht="15.75" customHeight="1">
+    <row r="311" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11691,7 +11691,7 @@
       <c r="AD311" s="1"/>
       <c r="AE311" s="1"/>
     </row>
-    <row r="312" spans="1:31" ht="15.75" customHeight="1">
+    <row r="312" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11724,7 +11724,7 @@
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
     </row>
-    <row r="313" spans="1:31" ht="15.75" customHeight="1">
+    <row r="313" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11757,7 +11757,7 @@
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
     </row>
-    <row r="314" spans="1:31" ht="15.75" customHeight="1">
+    <row r="314" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11790,7 +11790,7 @@
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
     </row>
-    <row r="315" spans="1:31" ht="15.75" customHeight="1">
+    <row r="315" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11823,7 +11823,7 @@
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
     </row>
-    <row r="316" spans="1:31" ht="15.75" customHeight="1">
+    <row r="316" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11856,7 +11856,7 @@
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
     </row>
-    <row r="317" spans="1:31" ht="15.75" customHeight="1">
+    <row r="317" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11889,7 +11889,7 @@
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
     </row>
-    <row r="318" spans="1:31" ht="15.75" customHeight="1">
+    <row r="318" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11922,7 +11922,7 @@
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
     </row>
-    <row r="319" spans="1:31" ht="15.75" customHeight="1">
+    <row r="319" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -11955,7 +11955,7 @@
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
     </row>
-    <row r="320" spans="1:31" ht="15.75" customHeight="1">
+    <row r="320" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -11988,7 +11988,7 @@
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
     </row>
-    <row r="321" spans="1:31" ht="15.75" customHeight="1">
+    <row r="321" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -12021,7 +12021,7 @@
       <c r="AD321" s="1"/>
       <c r="AE321" s="1"/>
     </row>
-    <row r="322" spans="1:31" ht="15.75" customHeight="1">
+    <row r="322" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -12054,7 +12054,7 @@
       <c r="AD322" s="1"/>
       <c r="AE322" s="1"/>
     </row>
-    <row r="323" spans="1:31" ht="15.75" customHeight="1">
+    <row r="323" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -12087,7 +12087,7 @@
       <c r="AD323" s="1"/>
       <c r="AE323" s="1"/>
     </row>
-    <row r="324" spans="1:31" ht="15.75" customHeight="1">
+    <row r="324" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -12120,7 +12120,7 @@
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
     </row>
-    <row r="325" spans="1:31" ht="15.75" customHeight="1">
+    <row r="325" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12153,7 +12153,7 @@
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
     </row>
-    <row r="326" spans="1:31" ht="15.75" customHeight="1">
+    <row r="326" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12186,7 +12186,7 @@
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
     </row>
-    <row r="327" spans="1:31" ht="15.75" customHeight="1">
+    <row r="327" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12219,7 +12219,7 @@
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
     </row>
-    <row r="328" spans="1:31" ht="15.75" customHeight="1">
+    <row r="328" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12252,7 +12252,7 @@
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
     </row>
-    <row r="329" spans="1:31" ht="15.75" customHeight="1">
+    <row r="329" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12285,7 +12285,7 @@
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
     </row>
-    <row r="330" spans="1:31" ht="15.75" customHeight="1">
+    <row r="330" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12318,7 +12318,7 @@
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
     </row>
-    <row r="331" spans="1:31" ht="15.75" customHeight="1">
+    <row r="331" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12351,7 +12351,7 @@
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
     </row>
-    <row r="332" spans="1:31" ht="15.75" customHeight="1">
+    <row r="332" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12384,7 +12384,7 @@
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
     </row>
-    <row r="333" spans="1:31" ht="15.75" customHeight="1">
+    <row r="333" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12417,7 +12417,7 @@
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
     </row>
-    <row r="334" spans="1:31" ht="15.75" customHeight="1">
+    <row r="334" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12450,7 +12450,7 @@
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
     </row>
-    <row r="335" spans="1:31" ht="15.75" customHeight="1">
+    <row r="335" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12483,7 +12483,7 @@
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
     </row>
-    <row r="336" spans="1:31" ht="15.75" customHeight="1">
+    <row r="336" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12516,7 +12516,7 @@
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
     </row>
-    <row r="337" spans="1:31" ht="15.75" customHeight="1">
+    <row r="337" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12549,7 +12549,7 @@
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
     </row>
-    <row r="338" spans="1:31" ht="15.75" customHeight="1">
+    <row r="338" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12582,7 +12582,7 @@
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
     </row>
-    <row r="339" spans="1:31" ht="15.75" customHeight="1">
+    <row r="339" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12615,7 +12615,7 @@
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
     </row>
-    <row r="340" spans="1:31" ht="15.75" customHeight="1">
+    <row r="340" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12648,7 +12648,7 @@
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
     </row>
-    <row r="341" spans="1:31" ht="15.75" customHeight="1">
+    <row r="341" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12681,7 +12681,7 @@
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
     </row>
-    <row r="342" spans="1:31" ht="15.75" customHeight="1">
+    <row r="342" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12714,7 +12714,7 @@
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
     </row>
-    <row r="343" spans="1:31" ht="15.75" customHeight="1">
+    <row r="343" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12747,7 +12747,7 @@
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
     </row>
-    <row r="344" spans="1:31" ht="15.75" customHeight="1">
+    <row r="344" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12780,7 +12780,7 @@
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
     </row>
-    <row r="345" spans="1:31" ht="15.75" customHeight="1">
+    <row r="345" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12813,7 +12813,7 @@
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
     </row>
-    <row r="346" spans="1:31" ht="15.75" customHeight="1">
+    <row r="346" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12846,7 +12846,7 @@
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
     </row>
-    <row r="347" spans="1:31" ht="15.75" customHeight="1">
+    <row r="347" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12879,7 +12879,7 @@
       <c r="AD347" s="1"/>
       <c r="AE347" s="1"/>
     </row>
-    <row r="348" spans="1:31" ht="15.75" customHeight="1">
+    <row r="348" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12912,7 +12912,7 @@
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
     </row>
-    <row r="349" spans="1:31" ht="15.75" customHeight="1">
+    <row r="349" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12945,7 +12945,7 @@
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
     </row>
-    <row r="350" spans="1:31" ht="15.75" customHeight="1">
+    <row r="350" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -12978,7 +12978,7 @@
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
     </row>
-    <row r="351" spans="1:31" ht="15.75" customHeight="1">
+    <row r="351" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -13011,7 +13011,7 @@
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
     </row>
-    <row r="352" spans="1:31" ht="15.75" customHeight="1">
+    <row r="352" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -13044,7 +13044,7 @@
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
     </row>
-    <row r="353" spans="1:31" ht="15.75" customHeight="1">
+    <row r="353" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -13077,7 +13077,7 @@
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
     </row>
-    <row r="354" spans="1:31" ht="15.75" customHeight="1">
+    <row r="354" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -13110,7 +13110,7 @@
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
     </row>
-    <row r="355" spans="1:31" ht="15.75" customHeight="1">
+    <row r="355" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -13143,7 +13143,7 @@
       <c r="AD355" s="1"/>
       <c r="AE355" s="1"/>
     </row>
-    <row r="356" spans="1:31" ht="15.75" customHeight="1">
+    <row r="356" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -13176,7 +13176,7 @@
       <c r="AD356" s="1"/>
       <c r="AE356" s="1"/>
     </row>
-    <row r="357" spans="1:31" ht="15.75" customHeight="1">
+    <row r="357" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13209,7 +13209,7 @@
       <c r="AD357" s="1"/>
       <c r="AE357" s="1"/>
     </row>
-    <row r="358" spans="1:31" ht="15.75" customHeight="1">
+    <row r="358" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13242,7 +13242,7 @@
       <c r="AD358" s="1"/>
       <c r="AE358" s="1"/>
     </row>
-    <row r="359" spans="1:31" ht="15.75" customHeight="1">
+    <row r="359" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13275,7 +13275,7 @@
       <c r="AD359" s="1"/>
       <c r="AE359" s="1"/>
     </row>
-    <row r="360" spans="1:31" ht="15.75" customHeight="1">
+    <row r="360" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13308,7 +13308,7 @@
       <c r="AD360" s="1"/>
       <c r="AE360" s="1"/>
     </row>
-    <row r="361" spans="1:31" ht="15.75" customHeight="1">
+    <row r="361" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13341,7 +13341,7 @@
       <c r="AD361" s="1"/>
       <c r="AE361" s="1"/>
     </row>
-    <row r="362" spans="1:31" ht="15.75" customHeight="1">
+    <row r="362" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13374,7 +13374,7 @@
       <c r="AD362" s="1"/>
       <c r="AE362" s="1"/>
     </row>
-    <row r="363" spans="1:31" ht="15.75" customHeight="1">
+    <row r="363" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13407,7 +13407,7 @@
       <c r="AD363" s="1"/>
       <c r="AE363" s="1"/>
     </row>
-    <row r="364" spans="1:31" ht="15.75" customHeight="1">
+    <row r="364" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13440,7 +13440,7 @@
       <c r="AD364" s="1"/>
       <c r="AE364" s="1"/>
     </row>
-    <row r="365" spans="1:31" ht="15.75" customHeight="1">
+    <row r="365" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13473,7 +13473,7 @@
       <c r="AD365" s="1"/>
       <c r="AE365" s="1"/>
     </row>
-    <row r="366" spans="1:31" ht="15.75" customHeight="1">
+    <row r="366" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13506,7 +13506,7 @@
       <c r="AD366" s="1"/>
       <c r="AE366" s="1"/>
     </row>
-    <row r="367" spans="1:31" ht="15.75" customHeight="1">
+    <row r="367" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13539,7 +13539,7 @@
       <c r="AD367" s="1"/>
       <c r="AE367" s="1"/>
     </row>
-    <row r="368" spans="1:31" ht="15.75" customHeight="1">
+    <row r="368" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13572,7 +13572,7 @@
       <c r="AD368" s="1"/>
       <c r="AE368" s="1"/>
     </row>
-    <row r="369" spans="1:31" ht="15.75" customHeight="1">
+    <row r="369" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13605,7 +13605,7 @@
       <c r="AD369" s="1"/>
       <c r="AE369" s="1"/>
     </row>
-    <row r="370" spans="1:31" ht="15.75" customHeight="1">
+    <row r="370" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13638,7 +13638,7 @@
       <c r="AD370" s="1"/>
       <c r="AE370" s="1"/>
     </row>
-    <row r="371" spans="1:31" ht="15.75" customHeight="1">
+    <row r="371" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13671,7 +13671,7 @@
       <c r="AD371" s="1"/>
       <c r="AE371" s="1"/>
     </row>
-    <row r="372" spans="1:31" ht="15.75" customHeight="1">
+    <row r="372" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13704,7 +13704,7 @@
       <c r="AD372" s="1"/>
       <c r="AE372" s="1"/>
     </row>
-    <row r="373" spans="1:31" ht="15.75" customHeight="1">
+    <row r="373" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13737,7 +13737,7 @@
       <c r="AD373" s="1"/>
       <c r="AE373" s="1"/>
     </row>
-    <row r="374" spans="1:31" ht="15.75" customHeight="1">
+    <row r="374" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13770,7 +13770,7 @@
       <c r="AD374" s="1"/>
       <c r="AE374" s="1"/>
     </row>
-    <row r="375" spans="1:31" ht="15.75" customHeight="1">
+    <row r="375" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13803,7 +13803,7 @@
       <c r="AD375" s="1"/>
       <c r="AE375" s="1"/>
     </row>
-    <row r="376" spans="1:31" ht="15.75" customHeight="1">
+    <row r="376" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13836,7 +13836,7 @@
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
     </row>
-    <row r="377" spans="1:31" ht="15.75" customHeight="1">
+    <row r="377" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13869,7 +13869,7 @@
       <c r="AD377" s="1"/>
       <c r="AE377" s="1"/>
     </row>
-    <row r="378" spans="1:31" ht="15.75" customHeight="1">
+    <row r="378" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13902,7 +13902,7 @@
       <c r="AD378" s="1"/>
       <c r="AE378" s="1"/>
     </row>
-    <row r="379" spans="1:31" ht="15.75" customHeight="1">
+    <row r="379" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -13935,7 +13935,7 @@
       <c r="AD379" s="1"/>
       <c r="AE379" s="1"/>
     </row>
-    <row r="380" spans="1:31" ht="15.75" customHeight="1">
+    <row r="380" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -13968,7 +13968,7 @@
       <c r="AD380" s="1"/>
       <c r="AE380" s="1"/>
     </row>
-    <row r="381" spans="1:31" ht="15.75" customHeight="1">
+    <row r="381" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -14001,7 +14001,7 @@
       <c r="AD381" s="1"/>
       <c r="AE381" s="1"/>
     </row>
-    <row r="382" spans="1:31" ht="15.75" customHeight="1">
+    <row r="382" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -14034,7 +14034,7 @@
       <c r="AD382" s="1"/>
       <c r="AE382" s="1"/>
     </row>
-    <row r="383" spans="1:31" ht="15.75" customHeight="1">
+    <row r="383" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -14067,7 +14067,7 @@
       <c r="AD383" s="1"/>
       <c r="AE383" s="1"/>
     </row>
-    <row r="384" spans="1:31" ht="15.75" customHeight="1">
+    <row r="384" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -14100,7 +14100,7 @@
       <c r="AD384" s="1"/>
       <c r="AE384" s="1"/>
     </row>
-    <row r="385" spans="1:31" ht="15.75" customHeight="1">
+    <row r="385" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -14133,7 +14133,7 @@
       <c r="AD385" s="1"/>
       <c r="AE385" s="1"/>
     </row>
-    <row r="386" spans="1:31" ht="15.75" customHeight="1">
+    <row r="386" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -14166,7 +14166,7 @@
       <c r="AD386" s="1"/>
       <c r="AE386" s="1"/>
     </row>
-    <row r="387" spans="1:31" ht="15.75" customHeight="1">
+    <row r="387" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -14199,7 +14199,7 @@
       <c r="AD387" s="1"/>
       <c r="AE387" s="1"/>
     </row>
-    <row r="388" spans="1:31" ht="15.75" customHeight="1">
+    <row r="388" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -14232,7 +14232,7 @@
       <c r="AD388" s="1"/>
       <c r="AE388" s="1"/>
     </row>
-    <row r="389" spans="1:31" ht="15.75" customHeight="1">
+    <row r="389" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14265,7 +14265,7 @@
       <c r="AD389" s="1"/>
       <c r="AE389" s="1"/>
     </row>
-    <row r="390" spans="1:31" ht="15.75" customHeight="1">
+    <row r="390" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14298,7 +14298,7 @@
       <c r="AD390" s="1"/>
       <c r="AE390" s="1"/>
     </row>
-    <row r="391" spans="1:31" ht="15.75" customHeight="1">
+    <row r="391" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14331,7 +14331,7 @@
       <c r="AD391" s="1"/>
       <c r="AE391" s="1"/>
     </row>
-    <row r="392" spans="1:31" ht="15.75" customHeight="1">
+    <row r="392" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14364,7 +14364,7 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
     </row>
-    <row r="393" spans="1:31" ht="15.75" customHeight="1">
+    <row r="393" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14397,7 +14397,7 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
     </row>
-    <row r="394" spans="1:31" ht="15.75" customHeight="1">
+    <row r="394" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14430,7 +14430,7 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
     </row>
-    <row r="395" spans="1:31" ht="15.75" customHeight="1">
+    <row r="395" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14463,7 +14463,7 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
     </row>
-    <row r="396" spans="1:31" ht="15.75" customHeight="1">
+    <row r="396" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14496,7 +14496,7 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
     </row>
-    <row r="397" spans="1:31" ht="15.75" customHeight="1">
+    <row r="397" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14529,7 +14529,7 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
     </row>
-    <row r="398" spans="1:31" ht="15.75" customHeight="1">
+    <row r="398" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14562,7 +14562,7 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
     </row>
-    <row r="399" spans="1:31" ht="15.75" customHeight="1">
+    <row r="399" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14595,7 +14595,7 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
     </row>
-    <row r="400" spans="1:31" ht="15.75" customHeight="1">
+    <row r="400" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14628,7 +14628,7 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
     </row>
-    <row r="401" spans="1:31" ht="15.75" customHeight="1">
+    <row r="401" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14661,7 +14661,7 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
     </row>
-    <row r="402" spans="1:31" ht="15.75" customHeight="1">
+    <row r="402" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14694,7 +14694,7 @@
       <c r="AD402" s="1"/>
       <c r="AE402" s="1"/>
     </row>
-    <row r="403" spans="1:31" ht="15.75" customHeight="1">
+    <row r="403" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14727,7 +14727,7 @@
       <c r="AD403" s="1"/>
       <c r="AE403" s="1"/>
     </row>
-    <row r="404" spans="1:31" ht="15.75" customHeight="1">
+    <row r="404" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14760,7 +14760,7 @@
       <c r="AD404" s="1"/>
       <c r="AE404" s="1"/>
     </row>
-    <row r="405" spans="1:31" ht="15.75" customHeight="1">
+    <row r="405" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14793,7 +14793,7 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
     </row>
-    <row r="406" spans="1:31" ht="15.75" customHeight="1">
+    <row r="406" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14826,7 +14826,7 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
     </row>
-    <row r="407" spans="1:31" ht="15.75" customHeight="1">
+    <row r="407" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14859,7 +14859,7 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
     </row>
-    <row r="408" spans="1:31" ht="15.75" customHeight="1">
+    <row r="408" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14892,7 +14892,7 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
     </row>
-    <row r="409" spans="1:31" ht="15.75" customHeight="1">
+    <row r="409" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -14925,7 +14925,7 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
     </row>
-    <row r="410" spans="1:31" ht="15.75" customHeight="1">
+    <row r="410" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -14958,7 +14958,7 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
     </row>
-    <row r="411" spans="1:31" ht="15.75" customHeight="1">
+    <row r="411" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -14991,7 +14991,7 @@
       <c r="AD411" s="1"/>
       <c r="AE411" s="1"/>
     </row>
-    <row r="412" spans="1:31" ht="15.75" customHeight="1">
+    <row r="412" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -15024,7 +15024,7 @@
       <c r="AD412" s="1"/>
       <c r="AE412" s="1"/>
     </row>
-    <row r="413" spans="1:31" ht="15.75" customHeight="1">
+    <row r="413" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -15057,7 +15057,7 @@
       <c r="AD413" s="1"/>
       <c r="AE413" s="1"/>
     </row>
-    <row r="414" spans="1:31" ht="15.75" customHeight="1">
+    <row r="414" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -15090,7 +15090,7 @@
       <c r="AD414" s="1"/>
       <c r="AE414" s="1"/>
     </row>
-    <row r="415" spans="1:31" ht="15.75" customHeight="1">
+    <row r="415" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -15123,7 +15123,7 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
     </row>
-    <row r="416" spans="1:31" ht="15.75" customHeight="1">
+    <row r="416" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -15156,7 +15156,7 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
     </row>
-    <row r="417" spans="1:31" ht="15.75" customHeight="1">
+    <row r="417" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -15189,7 +15189,7 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
     </row>
-    <row r="418" spans="1:31" ht="15.75" customHeight="1">
+    <row r="418" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -15222,7 +15222,7 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
     </row>
-    <row r="419" spans="1:31" ht="15.75" customHeight="1">
+    <row r="419" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -15255,7 +15255,7 @@
       <c r="AD419" s="1"/>
       <c r="AE419" s="1"/>
     </row>
-    <row r="420" spans="1:31" ht="15.75" customHeight="1">
+    <row r="420" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -15288,7 +15288,7 @@
       <c r="AD420" s="1"/>
       <c r="AE420" s="1"/>
     </row>
-    <row r="421" spans="1:31" ht="15.75" customHeight="1">
+    <row r="421" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -15321,7 +15321,7 @@
       <c r="AD421" s="1"/>
       <c r="AE421" s="1"/>
     </row>
-    <row r="422" spans="1:31" ht="15.75" customHeight="1">
+    <row r="422" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15354,7 +15354,7 @@
       <c r="AD422" s="1"/>
       <c r="AE422" s="1"/>
     </row>
-    <row r="423" spans="1:31" ht="15.75" customHeight="1">
+    <row r="423" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15387,7 +15387,7 @@
       <c r="AD423" s="1"/>
       <c r="AE423" s="1"/>
     </row>
-    <row r="424" spans="1:31" ht="15.75" customHeight="1">
+    <row r="424" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15420,7 +15420,7 @@
       <c r="AD424" s="1"/>
       <c r="AE424" s="1"/>
     </row>
-    <row r="425" spans="1:31" ht="15.75" customHeight="1">
+    <row r="425" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15453,7 +15453,7 @@
       <c r="AD425" s="1"/>
       <c r="AE425" s="1"/>
     </row>
-    <row r="426" spans="1:31" ht="15.75" customHeight="1">
+    <row r="426" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15486,7 +15486,7 @@
       <c r="AD426" s="1"/>
       <c r="AE426" s="1"/>
     </row>
-    <row r="427" spans="1:31" ht="15.75" customHeight="1">
+    <row r="427" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15519,7 +15519,7 @@
       <c r="AD427" s="1"/>
       <c r="AE427" s="1"/>
     </row>
-    <row r="428" spans="1:31" ht="15.75" customHeight="1">
+    <row r="428" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15552,7 +15552,7 @@
       <c r="AD428" s="1"/>
       <c r="AE428" s="1"/>
     </row>
-    <row r="429" spans="1:31" ht="15.75" customHeight="1">
+    <row r="429" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15585,7 +15585,7 @@
       <c r="AD429" s="1"/>
       <c r="AE429" s="1"/>
     </row>
-    <row r="430" spans="1:31" ht="15.75" customHeight="1">
+    <row r="430" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15618,7 +15618,7 @@
       <c r="AD430" s="1"/>
       <c r="AE430" s="1"/>
     </row>
-    <row r="431" spans="1:31" ht="15.75" customHeight="1">
+    <row r="431" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15651,7 +15651,7 @@
       <c r="AD431" s="1"/>
       <c r="AE431" s="1"/>
     </row>
-    <row r="432" spans="1:31" ht="15.75" customHeight="1">
+    <row r="432" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15684,7 +15684,7 @@
       <c r="AD432" s="1"/>
       <c r="AE432" s="1"/>
     </row>
-    <row r="433" spans="1:31" ht="15.75" customHeight="1">
+    <row r="433" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15717,7 +15717,7 @@
       <c r="AD433" s="1"/>
       <c r="AE433" s="1"/>
     </row>
-    <row r="434" spans="1:31" ht="15.75" customHeight="1">
+    <row r="434" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15750,7 +15750,7 @@
       <c r="AD434" s="1"/>
       <c r="AE434" s="1"/>
     </row>
-    <row r="435" spans="1:31" ht="15.75" customHeight="1">
+    <row r="435" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15783,7 +15783,7 @@
       <c r="AD435" s="1"/>
       <c r="AE435" s="1"/>
     </row>
-    <row r="436" spans="1:31" ht="15.75" customHeight="1">
+    <row r="436" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -15816,7 +15816,7 @@
       <c r="AD436" s="1"/>
       <c r="AE436" s="1"/>
     </row>
-    <row r="437" spans="1:31" ht="15.75" customHeight="1">
+    <row r="437" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -15849,7 +15849,7 @@
       <c r="AD437" s="1"/>
       <c r="AE437" s="1"/>
     </row>
-    <row r="438" spans="1:31" ht="15.75" customHeight="1">
+    <row r="438" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -15882,7 +15882,7 @@
       <c r="AD438" s="1"/>
       <c r="AE438" s="1"/>
     </row>
-    <row r="439" spans="1:31" ht="15.75" customHeight="1">
+    <row r="439" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -15915,7 +15915,7 @@
       <c r="AD439" s="1"/>
       <c r="AE439" s="1"/>
     </row>
-    <row r="440" spans="1:31" ht="15.75" customHeight="1">
+    <row r="440" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -15948,7 +15948,7 @@
       <c r="AD440" s="1"/>
       <c r="AE440" s="1"/>
     </row>
-    <row r="441" spans="1:31" ht="15.75" customHeight="1">
+    <row r="441" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -15981,7 +15981,7 @@
       <c r="AD441" s="1"/>
       <c r="AE441" s="1"/>
     </row>
-    <row r="442" spans="1:31" ht="15.75" customHeight="1">
+    <row r="442" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -16014,7 +16014,7 @@
       <c r="AD442" s="1"/>
       <c r="AE442" s="1"/>
     </row>
-    <row r="443" spans="1:31" ht="15.75" customHeight="1">
+    <row r="443" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -16047,7 +16047,7 @@
       <c r="AD443" s="1"/>
       <c r="AE443" s="1"/>
     </row>
-    <row r="444" spans="1:31" ht="15.75" customHeight="1">
+    <row r="444" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -16080,7 +16080,7 @@
       <c r="AD444" s="1"/>
       <c r="AE444" s="1"/>
     </row>
-    <row r="445" spans="1:31" ht="15.75" customHeight="1">
+    <row r="445" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -16113,7 +16113,7 @@
       <c r="AD445" s="1"/>
       <c r="AE445" s="1"/>
     </row>
-    <row r="446" spans="1:31" ht="15.75" customHeight="1">
+    <row r="446" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -16146,7 +16146,7 @@
       <c r="AD446" s="1"/>
       <c r="AE446" s="1"/>
     </row>
-    <row r="447" spans="1:31" ht="15.75" customHeight="1">
+    <row r="447" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -16179,7 +16179,7 @@
       <c r="AD447" s="1"/>
       <c r="AE447" s="1"/>
     </row>
-    <row r="448" spans="1:31" ht="15.75" customHeight="1">
+    <row r="448" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -16212,7 +16212,7 @@
       <c r="AD448" s="1"/>
       <c r="AE448" s="1"/>
     </row>
-    <row r="449" spans="1:31" ht="15.75" customHeight="1">
+    <row r="449" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -16245,7 +16245,7 @@
       <c r="AD449" s="1"/>
       <c r="AE449" s="1"/>
     </row>
-    <row r="450" spans="1:31" ht="15.75" customHeight="1">
+    <row r="450" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -16278,7 +16278,7 @@
       <c r="AD450" s="1"/>
       <c r="AE450" s="1"/>
     </row>
-    <row r="451" spans="1:31" ht="15.75" customHeight="1">
+    <row r="451" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -16311,7 +16311,7 @@
       <c r="AD451" s="1"/>
       <c r="AE451" s="1"/>
     </row>
-    <row r="452" spans="1:31" ht="15.75" customHeight="1">
+    <row r="452" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -16344,7 +16344,7 @@
       <c r="AD452" s="1"/>
       <c r="AE452" s="1"/>
     </row>
-    <row r="453" spans="1:31" ht="15.75" customHeight="1">
+    <row r="453" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -16377,7 +16377,7 @@
       <c r="AD453" s="1"/>
       <c r="AE453" s="1"/>
     </row>
-    <row r="454" spans="1:31" ht="15.75" customHeight="1">
+    <row r="454" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -16410,7 +16410,7 @@
       <c r="AD454" s="1"/>
       <c r="AE454" s="1"/>
     </row>
-    <row r="455" spans="1:31" ht="15.75" customHeight="1">
+    <row r="455" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -16443,7 +16443,7 @@
       <c r="AD455" s="1"/>
       <c r="AE455" s="1"/>
     </row>
-    <row r="456" spans="1:31" ht="15.75" customHeight="1">
+    <row r="456" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -16476,7 +16476,7 @@
       <c r="AD456" s="1"/>
       <c r="AE456" s="1"/>
     </row>
-    <row r="457" spans="1:31" ht="15.75" customHeight="1">
+    <row r="457" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -16509,7 +16509,7 @@
       <c r="AD457" s="1"/>
       <c r="AE457" s="1"/>
     </row>
-    <row r="458" spans="1:31" ht="15.75" customHeight="1">
+    <row r="458" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -16542,7 +16542,7 @@
       <c r="AD458" s="1"/>
       <c r="AE458" s="1"/>
     </row>
-    <row r="459" spans="1:31" ht="15.75" customHeight="1">
+    <row r="459" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -16575,7 +16575,7 @@
       <c r="AD459" s="1"/>
       <c r="AE459" s="1"/>
     </row>
-    <row r="460" spans="1:31" ht="15.75" customHeight="1">
+    <row r="460" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -16608,7 +16608,7 @@
       <c r="AD460" s="1"/>
       <c r="AE460" s="1"/>
     </row>
-    <row r="461" spans="1:31" ht="15.75" customHeight="1">
+    <row r="461" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -16641,7 +16641,7 @@
       <c r="AD461" s="1"/>
       <c r="AE461" s="1"/>
     </row>
-    <row r="462" spans="1:31" ht="15.75" customHeight="1">
+    <row r="462" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -16674,7 +16674,7 @@
       <c r="AD462" s="1"/>
       <c r="AE462" s="1"/>
     </row>
-    <row r="463" spans="1:31" ht="15.75" customHeight="1">
+    <row r="463" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -16707,7 +16707,7 @@
       <c r="AD463" s="1"/>
       <c r="AE463" s="1"/>
     </row>
-    <row r="464" spans="1:31" ht="15.75" customHeight="1">
+    <row r="464" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -16740,7 +16740,7 @@
       <c r="AD464" s="1"/>
       <c r="AE464" s="1"/>
     </row>
-    <row r="465" spans="1:31" ht="15.75" customHeight="1">
+    <row r="465" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -16773,7 +16773,7 @@
       <c r="AD465" s="1"/>
       <c r="AE465" s="1"/>
     </row>
-    <row r="466" spans="1:31" ht="15.75" customHeight="1">
+    <row r="466" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -16806,7 +16806,7 @@
       <c r="AD466" s="1"/>
       <c r="AE466" s="1"/>
     </row>
-    <row r="467" spans="1:31" ht="15.75" customHeight="1">
+    <row r="467" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -16839,7 +16839,7 @@
       <c r="AD467" s="1"/>
       <c r="AE467" s="1"/>
     </row>
-    <row r="468" spans="1:31" ht="15.75" customHeight="1">
+    <row r="468" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -16872,7 +16872,7 @@
       <c r="AD468" s="1"/>
       <c r="AE468" s="1"/>
     </row>
-    <row r="469" spans="1:31" ht="15.75" customHeight="1">
+    <row r="469" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -16905,7 +16905,7 @@
       <c r="AD469" s="1"/>
       <c r="AE469" s="1"/>
     </row>
-    <row r="470" spans="1:31" ht="15.75" customHeight="1">
+    <row r="470" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -16938,7 +16938,7 @@
       <c r="AD470" s="1"/>
       <c r="AE470" s="1"/>
     </row>
-    <row r="471" spans="1:31" ht="15.75" customHeight="1">
+    <row r="471" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -16971,7 +16971,7 @@
       <c r="AD471" s="1"/>
       <c r="AE471" s="1"/>
     </row>
-    <row r="472" spans="1:31" ht="15.75" customHeight="1">
+    <row r="472" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -17004,7 +17004,7 @@
       <c r="AD472" s="1"/>
       <c r="AE472" s="1"/>
     </row>
-    <row r="473" spans="1:31" ht="15.75" customHeight="1">
+    <row r="473" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -17037,7 +17037,7 @@
       <c r="AD473" s="1"/>
       <c r="AE473" s="1"/>
     </row>
-    <row r="474" spans="1:31" ht="15.75" customHeight="1">
+    <row r="474" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -17070,7 +17070,7 @@
       <c r="AD474" s="1"/>
       <c r="AE474" s="1"/>
     </row>
-    <row r="475" spans="1:31" ht="15.75" customHeight="1">
+    <row r="475" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -17103,7 +17103,7 @@
       <c r="AD475" s="1"/>
       <c r="AE475" s="1"/>
     </row>
-    <row r="476" spans="1:31" ht="15.75" customHeight="1">
+    <row r="476" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -17136,7 +17136,7 @@
       <c r="AD476" s="1"/>
       <c r="AE476" s="1"/>
     </row>
-    <row r="477" spans="1:31" ht="15.75" customHeight="1">
+    <row r="477" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -17169,7 +17169,7 @@
       <c r="AD477" s="1"/>
       <c r="AE477" s="1"/>
     </row>
-    <row r="478" spans="1:31" ht="15.75" customHeight="1">
+    <row r="478" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -17202,7 +17202,7 @@
       <c r="AD478" s="1"/>
       <c r="AE478" s="1"/>
     </row>
-    <row r="479" spans="1:31" ht="15.75" customHeight="1">
+    <row r="479" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -17235,7 +17235,7 @@
       <c r="AD479" s="1"/>
       <c r="AE479" s="1"/>
     </row>
-    <row r="480" spans="1:31" ht="15.75" customHeight="1">
+    <row r="480" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -17268,7 +17268,7 @@
       <c r="AD480" s="1"/>
       <c r="AE480" s="1"/>
     </row>
-    <row r="481" spans="1:31" ht="15.75" customHeight="1">
+    <row r="481" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -17301,7 +17301,7 @@
       <c r="AD481" s="1"/>
       <c r="AE481" s="1"/>
     </row>
-    <row r="482" spans="1:31" ht="15.75" customHeight="1">
+    <row r="482" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -17334,7 +17334,7 @@
       <c r="AD482" s="1"/>
       <c r="AE482" s="1"/>
     </row>
-    <row r="483" spans="1:31" ht="15.75" customHeight="1">
+    <row r="483" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -17367,7 +17367,7 @@
       <c r="AD483" s="1"/>
       <c r="AE483" s="1"/>
     </row>
-    <row r="484" spans="1:31" ht="15.75" customHeight="1">
+    <row r="484" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -17400,7 +17400,7 @@
       <c r="AD484" s="1"/>
       <c r="AE484" s="1"/>
     </row>
-    <row r="485" spans="1:31" ht="15.75" customHeight="1">
+    <row r="485" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -17433,7 +17433,7 @@
       <c r="AD485" s="1"/>
       <c r="AE485" s="1"/>
     </row>
-    <row r="486" spans="1:31" ht="15.75" customHeight="1">
+    <row r="486" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -17466,7 +17466,7 @@
       <c r="AD486" s="1"/>
       <c r="AE486" s="1"/>
     </row>
-    <row r="487" spans="1:31" ht="15.75" customHeight="1">
+    <row r="487" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -17499,7 +17499,7 @@
       <c r="AD487" s="1"/>
       <c r="AE487" s="1"/>
     </row>
-    <row r="488" spans="1:31" ht="15.75" customHeight="1">
+    <row r="488" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -17532,7 +17532,7 @@
       <c r="AD488" s="1"/>
       <c r="AE488" s="1"/>
     </row>
-    <row r="489" spans="1:31" ht="15.75" customHeight="1">
+    <row r="489" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -17565,7 +17565,7 @@
       <c r="AD489" s="1"/>
       <c r="AE489" s="1"/>
     </row>
-    <row r="490" spans="1:31" ht="15.75" customHeight="1">
+    <row r="490" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -17598,7 +17598,7 @@
       <c r="AD490" s="1"/>
       <c r="AE490" s="1"/>
     </row>
-    <row r="491" spans="1:31" ht="15.75" customHeight="1">
+    <row r="491" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -17631,7 +17631,7 @@
       <c r="AD491" s="1"/>
       <c r="AE491" s="1"/>
     </row>
-    <row r="492" spans="1:31" ht="15.75" customHeight="1">
+    <row r="492" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -17664,7 +17664,7 @@
       <c r="AD492" s="1"/>
       <c r="AE492" s="1"/>
     </row>
-    <row r="493" spans="1:31" ht="15.75" customHeight="1">
+    <row r="493" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -17697,7 +17697,7 @@
       <c r="AD493" s="1"/>
       <c r="AE493" s="1"/>
     </row>
-    <row r="494" spans="1:31" ht="15.75" customHeight="1">
+    <row r="494" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -17730,7 +17730,7 @@
       <c r="AD494" s="1"/>
       <c r="AE494" s="1"/>
     </row>
-    <row r="495" spans="1:31" ht="15.75" customHeight="1">
+    <row r="495" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -17763,7 +17763,7 @@
       <c r="AD495" s="1"/>
       <c r="AE495" s="1"/>
     </row>
-    <row r="496" spans="1:31" ht="15.75" customHeight="1">
+    <row r="496" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -17796,7 +17796,7 @@
       <c r="AD496" s="1"/>
       <c r="AE496" s="1"/>
     </row>
-    <row r="497" spans="1:31" ht="15.75" customHeight="1">
+    <row r="497" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -17829,7 +17829,7 @@
       <c r="AD497" s="1"/>
       <c r="AE497" s="1"/>
     </row>
-    <row r="498" spans="1:31" ht="15.75" customHeight="1">
+    <row r="498" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -17862,7 +17862,7 @@
       <c r="AD498" s="1"/>
       <c r="AE498" s="1"/>
     </row>
-    <row r="499" spans="1:31" ht="15.75" customHeight="1">
+    <row r="499" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -17895,7 +17895,7 @@
       <c r="AD499" s="1"/>
       <c r="AE499" s="1"/>
     </row>
-    <row r="500" spans="1:31" ht="15.75" customHeight="1">
+    <row r="500" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -17928,7 +17928,7 @@
       <c r="AD500" s="1"/>
       <c r="AE500" s="1"/>
     </row>
-    <row r="501" spans="1:31" ht="15.75" customHeight="1">
+    <row r="501" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -17961,7 +17961,7 @@
       <c r="AD501" s="1"/>
       <c r="AE501" s="1"/>
     </row>
-    <row r="502" spans="1:31" ht="15.75" customHeight="1">
+    <row r="502" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -17994,7 +17994,7 @@
       <c r="AD502" s="1"/>
       <c r="AE502" s="1"/>
     </row>
-    <row r="503" spans="1:31" ht="15.75" customHeight="1">
+    <row r="503" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -18027,7 +18027,7 @@
       <c r="AD503" s="1"/>
       <c r="AE503" s="1"/>
     </row>
-    <row r="504" spans="1:31" ht="15.75" customHeight="1">
+    <row r="504" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -18060,7 +18060,7 @@
       <c r="AD504" s="1"/>
       <c r="AE504" s="1"/>
     </row>
-    <row r="505" spans="1:31" ht="15.75" customHeight="1">
+    <row r="505" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -18093,7 +18093,7 @@
       <c r="AD505" s="1"/>
       <c r="AE505" s="1"/>
     </row>
-    <row r="506" spans="1:31" ht="15.75" customHeight="1">
+    <row r="506" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -18126,7 +18126,7 @@
       <c r="AD506" s="1"/>
       <c r="AE506" s="1"/>
     </row>
-    <row r="507" spans="1:31" ht="15.75" customHeight="1">
+    <row r="507" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -18159,7 +18159,7 @@
       <c r="AD507" s="1"/>
       <c r="AE507" s="1"/>
     </row>
-    <row r="508" spans="1:31" ht="15.75" customHeight="1">
+    <row r="508" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -18192,7 +18192,7 @@
       <c r="AD508" s="1"/>
       <c r="AE508" s="1"/>
     </row>
-    <row r="509" spans="1:31" ht="15.75" customHeight="1">
+    <row r="509" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -18225,7 +18225,7 @@
       <c r="AD509" s="1"/>
       <c r="AE509" s="1"/>
     </row>
-    <row r="510" spans="1:31" ht="15.75" customHeight="1">
+    <row r="510" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -18258,7 +18258,7 @@
       <c r="AD510" s="1"/>
       <c r="AE510" s="1"/>
     </row>
-    <row r="511" spans="1:31" ht="15.75" customHeight="1">
+    <row r="511" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -18291,7 +18291,7 @@
       <c r="AD511" s="1"/>
       <c r="AE511" s="1"/>
     </row>
-    <row r="512" spans="1:31" ht="15.75" customHeight="1">
+    <row r="512" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -18324,7 +18324,7 @@
       <c r="AD512" s="1"/>
       <c r="AE512" s="1"/>
     </row>
-    <row r="513" spans="1:31" ht="15.75" customHeight="1">
+    <row r="513" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -18357,7 +18357,7 @@
       <c r="AD513" s="1"/>
       <c r="AE513" s="1"/>
     </row>
-    <row r="514" spans="1:31" ht="15.75" customHeight="1">
+    <row r="514" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -18390,7 +18390,7 @@
       <c r="AD514" s="1"/>
       <c r="AE514" s="1"/>
     </row>
-    <row r="515" spans="1:31" ht="15.75" customHeight="1">
+    <row r="515" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -18423,7 +18423,7 @@
       <c r="AD515" s="1"/>
       <c r="AE515" s="1"/>
     </row>
-    <row r="516" spans="1:31" ht="15.75" customHeight="1">
+    <row r="516" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -18456,7 +18456,7 @@
       <c r="AD516" s="1"/>
       <c r="AE516" s="1"/>
     </row>
-    <row r="517" spans="1:31" ht="15.75" customHeight="1">
+    <row r="517" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -18489,7 +18489,7 @@
       <c r="AD517" s="1"/>
       <c r="AE517" s="1"/>
     </row>
-    <row r="518" spans="1:31" ht="15.75" customHeight="1">
+    <row r="518" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -18522,7 +18522,7 @@
       <c r="AD518" s="1"/>
       <c r="AE518" s="1"/>
     </row>
-    <row r="519" spans="1:31" ht="15.75" customHeight="1">
+    <row r="519" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -18555,7 +18555,7 @@
       <c r="AD519" s="1"/>
       <c r="AE519" s="1"/>
     </row>
-    <row r="520" spans="1:31" ht="15.75" customHeight="1">
+    <row r="520" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -18588,7 +18588,7 @@
       <c r="AD520" s="1"/>
       <c r="AE520" s="1"/>
     </row>
-    <row r="521" spans="1:31" ht="15.75" customHeight="1">
+    <row r="521" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -18621,7 +18621,7 @@
       <c r="AD521" s="1"/>
       <c r="AE521" s="1"/>
     </row>
-    <row r="522" spans="1:31" ht="15.75" customHeight="1">
+    <row r="522" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -18654,7 +18654,7 @@
       <c r="AD522" s="1"/>
       <c r="AE522" s="1"/>
     </row>
-    <row r="523" spans="1:31" ht="15.75" customHeight="1">
+    <row r="523" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -18687,7 +18687,7 @@
       <c r="AD523" s="1"/>
       <c r="AE523" s="1"/>
     </row>
-    <row r="524" spans="1:31" ht="15.75" customHeight="1">
+    <row r="524" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -18720,7 +18720,7 @@
       <c r="AD524" s="1"/>
       <c r="AE524" s="1"/>
     </row>
-    <row r="525" spans="1:31" ht="15.75" customHeight="1">
+    <row r="525" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -18753,7 +18753,7 @@
       <c r="AD525" s="1"/>
       <c r="AE525" s="1"/>
     </row>
-    <row r="526" spans="1:31" ht="15.75" customHeight="1">
+    <row r="526" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -18786,7 +18786,7 @@
       <c r="AD526" s="1"/>
       <c r="AE526" s="1"/>
     </row>
-    <row r="527" spans="1:31" ht="15.75" customHeight="1">
+    <row r="527" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -18819,7 +18819,7 @@
       <c r="AD527" s="1"/>
       <c r="AE527" s="1"/>
     </row>
-    <row r="528" spans="1:31" ht="15.75" customHeight="1">
+    <row r="528" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -18852,7 +18852,7 @@
       <c r="AD528" s="1"/>
       <c r="AE528" s="1"/>
     </row>
-    <row r="529" spans="1:31" ht="15.75" customHeight="1">
+    <row r="529" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -18885,7 +18885,7 @@
       <c r="AD529" s="1"/>
       <c r="AE529" s="1"/>
     </row>
-    <row r="530" spans="1:31" ht="15.75" customHeight="1">
+    <row r="530" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -18918,7 +18918,7 @@
       <c r="AD530" s="1"/>
       <c r="AE530" s="1"/>
     </row>
-    <row r="531" spans="1:31" ht="15.75" customHeight="1">
+    <row r="531" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -18951,7 +18951,7 @@
       <c r="AD531" s="1"/>
       <c r="AE531" s="1"/>
     </row>
-    <row r="532" spans="1:31" ht="15.75" customHeight="1">
+    <row r="532" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -18984,7 +18984,7 @@
       <c r="AD532" s="1"/>
       <c r="AE532" s="1"/>
     </row>
-    <row r="533" spans="1:31" ht="15.75" customHeight="1">
+    <row r="533" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -19017,7 +19017,7 @@
       <c r="AD533" s="1"/>
       <c r="AE533" s="1"/>
     </row>
-    <row r="534" spans="1:31" ht="15.75" customHeight="1">
+    <row r="534" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -19050,7 +19050,7 @@
       <c r="AD534" s="1"/>
       <c r="AE534" s="1"/>
     </row>
-    <row r="535" spans="1:31" ht="15.75" customHeight="1">
+    <row r="535" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -19083,7 +19083,7 @@
       <c r="AD535" s="1"/>
       <c r="AE535" s="1"/>
     </row>
-    <row r="536" spans="1:31" ht="15.75" customHeight="1">
+    <row r="536" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -19116,7 +19116,7 @@
       <c r="AD536" s="1"/>
       <c r="AE536" s="1"/>
     </row>
-    <row r="537" spans="1:31" ht="15.75" customHeight="1">
+    <row r="537" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -19149,7 +19149,7 @@
       <c r="AD537" s="1"/>
       <c r="AE537" s="1"/>
     </row>
-    <row r="538" spans="1:31" ht="15.75" customHeight="1">
+    <row r="538" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -19182,7 +19182,7 @@
       <c r="AD538" s="1"/>
       <c r="AE538" s="1"/>
     </row>
-    <row r="539" spans="1:31" ht="15.75" customHeight="1">
+    <row r="539" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -19215,7 +19215,7 @@
       <c r="AD539" s="1"/>
       <c r="AE539" s="1"/>
     </row>
-    <row r="540" spans="1:31" ht="15.75" customHeight="1">
+    <row r="540" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -19248,7 +19248,7 @@
       <c r="AD540" s="1"/>
       <c r="AE540" s="1"/>
     </row>
-    <row r="541" spans="1:31" ht="15.75" customHeight="1">
+    <row r="541" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -19281,7 +19281,7 @@
       <c r="AD541" s="1"/>
       <c r="AE541" s="1"/>
     </row>
-    <row r="542" spans="1:31" ht="15.75" customHeight="1">
+    <row r="542" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -19314,7 +19314,7 @@
       <c r="AD542" s="1"/>
       <c r="AE542" s="1"/>
     </row>
-    <row r="543" spans="1:31" ht="15.75" customHeight="1">
+    <row r="543" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -19347,7 +19347,7 @@
       <c r="AD543" s="1"/>
       <c r="AE543" s="1"/>
     </row>
-    <row r="544" spans="1:31" ht="15.75" customHeight="1">
+    <row r="544" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -19380,7 +19380,7 @@
       <c r="AD544" s="1"/>
       <c r="AE544" s="1"/>
     </row>
-    <row r="545" spans="1:31" ht="15.75" customHeight="1">
+    <row r="545" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -19413,7 +19413,7 @@
       <c r="AD545" s="1"/>
       <c r="AE545" s="1"/>
     </row>
-    <row r="546" spans="1:31" ht="15.75" customHeight="1">
+    <row r="546" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -19446,7 +19446,7 @@
       <c r="AD546" s="1"/>
       <c r="AE546" s="1"/>
     </row>
-    <row r="547" spans="1:31" ht="15.75" customHeight="1">
+    <row r="547" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -19479,7 +19479,7 @@
       <c r="AD547" s="1"/>
       <c r="AE547" s="1"/>
     </row>
-    <row r="548" spans="1:31" ht="15.75" customHeight="1">
+    <row r="548" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -19512,7 +19512,7 @@
       <c r="AD548" s="1"/>
       <c r="AE548" s="1"/>
     </row>
-    <row r="549" spans="1:31" ht="15.75" customHeight="1">
+    <row r="549" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -19545,7 +19545,7 @@
       <c r="AD549" s="1"/>
       <c r="AE549" s="1"/>
     </row>
-    <row r="550" spans="1:31" ht="15.75" customHeight="1">
+    <row r="550" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -19578,7 +19578,7 @@
       <c r="AD550" s="1"/>
       <c r="AE550" s="1"/>
     </row>
-    <row r="551" spans="1:31" ht="15.75" customHeight="1">
+    <row r="551" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -19611,7 +19611,7 @@
       <c r="AD551" s="1"/>
       <c r="AE551" s="1"/>
     </row>
-    <row r="552" spans="1:31" ht="15.75" customHeight="1">
+    <row r="552" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -19644,7 +19644,7 @@
       <c r="AD552" s="1"/>
       <c r="AE552" s="1"/>
     </row>
-    <row r="553" spans="1:31" ht="15.75" customHeight="1">
+    <row r="553" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -19677,7 +19677,7 @@
       <c r="AD553" s="1"/>
       <c r="AE553" s="1"/>
     </row>
-    <row r="554" spans="1:31" ht="15.75" customHeight="1">
+    <row r="554" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -19710,7 +19710,7 @@
       <c r="AD554" s="1"/>
       <c r="AE554" s="1"/>
     </row>
-    <row r="555" spans="1:31" ht="15.75" customHeight="1">
+    <row r="555" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -19743,7 +19743,7 @@
       <c r="AD555" s="1"/>
       <c r="AE555" s="1"/>
     </row>
-    <row r="556" spans="1:31" ht="15.75" customHeight="1">
+    <row r="556" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -19776,7 +19776,7 @@
       <c r="AD556" s="1"/>
       <c r="AE556" s="1"/>
     </row>
-    <row r="557" spans="1:31" ht="15.75" customHeight="1">
+    <row r="557" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -19809,7 +19809,7 @@
       <c r="AD557" s="1"/>
       <c r="AE557" s="1"/>
     </row>
-    <row r="558" spans="1:31" ht="15.75" customHeight="1">
+    <row r="558" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -19842,7 +19842,7 @@
       <c r="AD558" s="1"/>
       <c r="AE558" s="1"/>
     </row>
-    <row r="559" spans="1:31" ht="15.75" customHeight="1">
+    <row r="559" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -19875,7 +19875,7 @@
       <c r="AD559" s="1"/>
       <c r="AE559" s="1"/>
     </row>
-    <row r="560" spans="1:31" ht="15.75" customHeight="1">
+    <row r="560" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -19908,7 +19908,7 @@
       <c r="AD560" s="1"/>
       <c r="AE560" s="1"/>
     </row>
-    <row r="561" spans="1:31" ht="15.75" customHeight="1">
+    <row r="561" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -19941,7 +19941,7 @@
       <c r="AD561" s="1"/>
       <c r="AE561" s="1"/>
     </row>
-    <row r="562" spans="1:31" ht="15.75" customHeight="1">
+    <row r="562" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -19974,7 +19974,7 @@
       <c r="AD562" s="1"/>
       <c r="AE562" s="1"/>
     </row>
-    <row r="563" spans="1:31" ht="15.75" customHeight="1">
+    <row r="563" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -20007,7 +20007,7 @@
       <c r="AD563" s="1"/>
       <c r="AE563" s="1"/>
     </row>
-    <row r="564" spans="1:31" ht="15.75" customHeight="1">
+    <row r="564" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -20040,7 +20040,7 @@
       <c r="AD564" s="1"/>
       <c r="AE564" s="1"/>
     </row>
-    <row r="565" spans="1:31" ht="15.75" customHeight="1">
+    <row r="565" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -20073,7 +20073,7 @@
       <c r="AD565" s="1"/>
       <c r="AE565" s="1"/>
     </row>
-    <row r="566" spans="1:31" ht="15.75" customHeight="1">
+    <row r="566" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -20106,7 +20106,7 @@
       <c r="AD566" s="1"/>
       <c r="AE566" s="1"/>
     </row>
-    <row r="567" spans="1:31" ht="15.75" customHeight="1">
+    <row r="567" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -20139,7 +20139,7 @@
       <c r="AD567" s="1"/>
       <c r="AE567" s="1"/>
     </row>
-    <row r="568" spans="1:31" ht="15.75" customHeight="1">
+    <row r="568" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -20172,7 +20172,7 @@
       <c r="AD568" s="1"/>
       <c r="AE568" s="1"/>
     </row>
-    <row r="569" spans="1:31" ht="15.75" customHeight="1">
+    <row r="569" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -20205,7 +20205,7 @@
       <c r="AD569" s="1"/>
       <c r="AE569" s="1"/>
     </row>
-    <row r="570" spans="1:31" ht="15.75" customHeight="1">
+    <row r="570" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -20238,7 +20238,7 @@
       <c r="AD570" s="1"/>
       <c r="AE570" s="1"/>
     </row>
-    <row r="571" spans="1:31" ht="15.75" customHeight="1">
+    <row r="571" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -20271,7 +20271,7 @@
       <c r="AD571" s="1"/>
       <c r="AE571" s="1"/>
     </row>
-    <row r="572" spans="1:31" ht="15.75" customHeight="1">
+    <row r="572" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -20304,7 +20304,7 @@
       <c r="AD572" s="1"/>
       <c r="AE572" s="1"/>
     </row>
-    <row r="573" spans="1:31" ht="15.75" customHeight="1">
+    <row r="573" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -20337,7 +20337,7 @@
       <c r="AD573" s="1"/>
       <c r="AE573" s="1"/>
     </row>
-    <row r="574" spans="1:31" ht="15.75" customHeight="1">
+    <row r="574" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -20370,7 +20370,7 @@
       <c r="AD574" s="1"/>
       <c r="AE574" s="1"/>
     </row>
-    <row r="575" spans="1:31" ht="15.75" customHeight="1">
+    <row r="575" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -20403,7 +20403,7 @@
       <c r="AD575" s="1"/>
       <c r="AE575" s="1"/>
     </row>
-    <row r="576" spans="1:31" ht="15.75" customHeight="1">
+    <row r="576" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -20436,7 +20436,7 @@
       <c r="AD576" s="1"/>
       <c r="AE576" s="1"/>
     </row>
-    <row r="577" spans="1:31" ht="15.75" customHeight="1">
+    <row r="577" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -20469,7 +20469,7 @@
       <c r="AD577" s="1"/>
       <c r="AE577" s="1"/>
     </row>
-    <row r="578" spans="1:31" ht="15.75" customHeight="1">
+    <row r="578" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -20502,7 +20502,7 @@
       <c r="AD578" s="1"/>
       <c r="AE578" s="1"/>
     </row>
-    <row r="579" spans="1:31" ht="15.75" customHeight="1">
+    <row r="579" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -20535,7 +20535,7 @@
       <c r="AD579" s="1"/>
       <c r="AE579" s="1"/>
     </row>
-    <row r="580" spans="1:31" ht="15.75" customHeight="1">
+    <row r="580" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -20568,7 +20568,7 @@
       <c r="AD580" s="1"/>
       <c r="AE580" s="1"/>
     </row>
-    <row r="581" spans="1:31" ht="15.75" customHeight="1">
+    <row r="581" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -20601,7 +20601,7 @@
       <c r="AD581" s="1"/>
       <c r="AE581" s="1"/>
     </row>
-    <row r="582" spans="1:31" ht="15.75" customHeight="1">
+    <row r="582" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -20634,7 +20634,7 @@
       <c r="AD582" s="1"/>
       <c r="AE582" s="1"/>
     </row>
-    <row r="583" spans="1:31" ht="15.75" customHeight="1">
+    <row r="583" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -20667,7 +20667,7 @@
       <c r="AD583" s="1"/>
       <c r="AE583" s="1"/>
     </row>
-    <row r="584" spans="1:31" ht="15.75" customHeight="1">
+    <row r="584" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -20700,7 +20700,7 @@
       <c r="AD584" s="1"/>
       <c r="AE584" s="1"/>
     </row>
-    <row r="585" spans="1:31" ht="15.75" customHeight="1">
+    <row r="585" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -20733,7 +20733,7 @@
       <c r="AD585" s="1"/>
       <c r="AE585" s="1"/>
     </row>
-    <row r="586" spans="1:31" ht="15.75" customHeight="1">
+    <row r="586" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -20766,7 +20766,7 @@
       <c r="AD586" s="1"/>
       <c r="AE586" s="1"/>
     </row>
-    <row r="587" spans="1:31" ht="15.75" customHeight="1">
+    <row r="587" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -20799,7 +20799,7 @@
       <c r="AD587" s="1"/>
       <c r="AE587" s="1"/>
     </row>
-    <row r="588" spans="1:31" ht="15.75" customHeight="1">
+    <row r="588" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -20832,7 +20832,7 @@
       <c r="AD588" s="1"/>
       <c r="AE588" s="1"/>
     </row>
-    <row r="589" spans="1:31" ht="15.75" customHeight="1">
+    <row r="589" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -20865,7 +20865,7 @@
       <c r="AD589" s="1"/>
       <c r="AE589" s="1"/>
     </row>
-    <row r="590" spans="1:31" ht="15.75" customHeight="1">
+    <row r="590" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -20898,7 +20898,7 @@
       <c r="AD590" s="1"/>
       <c r="AE590" s="1"/>
     </row>
-    <row r="591" spans="1:31" ht="15.75" customHeight="1">
+    <row r="591" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -20931,7 +20931,7 @@
       <c r="AD591" s="1"/>
       <c r="AE591" s="1"/>
     </row>
-    <row r="592" spans="1:31" ht="15.75" customHeight="1">
+    <row r="592" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -20964,7 +20964,7 @@
       <c r="AD592" s="1"/>
       <c r="AE592" s="1"/>
     </row>
-    <row r="593" spans="1:31" ht="15.75" customHeight="1">
+    <row r="593" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -20997,7 +20997,7 @@
       <c r="AD593" s="1"/>
       <c r="AE593" s="1"/>
     </row>
-    <row r="594" spans="1:31" ht="15.75" customHeight="1">
+    <row r="594" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -21030,7 +21030,7 @@
       <c r="AD594" s="1"/>
       <c r="AE594" s="1"/>
     </row>
-    <row r="595" spans="1:31" ht="15.75" customHeight="1">
+    <row r="595" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -21063,7 +21063,7 @@
       <c r="AD595" s="1"/>
       <c r="AE595" s="1"/>
     </row>
-    <row r="596" spans="1:31" ht="15.75" customHeight="1">
+    <row r="596" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -21096,7 +21096,7 @@
       <c r="AD596" s="1"/>
       <c r="AE596" s="1"/>
     </row>
-    <row r="597" spans="1:31" ht="15.75" customHeight="1">
+    <row r="597" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -21129,7 +21129,7 @@
       <c r="AD597" s="1"/>
       <c r="AE597" s="1"/>
     </row>
-    <row r="598" spans="1:31" ht="15.75" customHeight="1">
+    <row r="598" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -21162,7 +21162,7 @@
       <c r="AD598" s="1"/>
       <c r="AE598" s="1"/>
     </row>
-    <row r="599" spans="1:31" ht="15.75" customHeight="1">
+    <row r="599" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -21195,7 +21195,7 @@
       <c r="AD599" s="1"/>
       <c r="AE599" s="1"/>
     </row>
-    <row r="600" spans="1:31" ht="15.75" customHeight="1">
+    <row r="600" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -21228,7 +21228,7 @@
       <c r="AD600" s="1"/>
       <c r="AE600" s="1"/>
     </row>
-    <row r="601" spans="1:31" ht="15.75" customHeight="1">
+    <row r="601" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -21261,7 +21261,7 @@
       <c r="AD601" s="1"/>
       <c r="AE601" s="1"/>
     </row>
-    <row r="602" spans="1:31" ht="15.75" customHeight="1">
+    <row r="602" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -21294,7 +21294,7 @@
       <c r="AD602" s="1"/>
       <c r="AE602" s="1"/>
     </row>
-    <row r="603" spans="1:31" ht="15.75" customHeight="1">
+    <row r="603" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -21327,7 +21327,7 @@
       <c r="AD603" s="1"/>
       <c r="AE603" s="1"/>
     </row>
-    <row r="604" spans="1:31" ht="15.75" customHeight="1">
+    <row r="604" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -21360,7 +21360,7 @@
       <c r="AD604" s="1"/>
       <c r="AE604" s="1"/>
     </row>
-    <row r="605" spans="1:31" ht="15.75" customHeight="1">
+    <row r="605" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -21393,7 +21393,7 @@
       <c r="AD605" s="1"/>
       <c r="AE605" s="1"/>
     </row>
-    <row r="606" spans="1:31" ht="15.75" customHeight="1">
+    <row r="606" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -21426,7 +21426,7 @@
       <c r="AD606" s="1"/>
       <c r="AE606" s="1"/>
     </row>
-    <row r="607" spans="1:31" ht="15.75" customHeight="1">
+    <row r="607" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -21459,7 +21459,7 @@
       <c r="AD607" s="1"/>
       <c r="AE607" s="1"/>
     </row>
-    <row r="608" spans="1:31" ht="15.75" customHeight="1">
+    <row r="608" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -21492,7 +21492,7 @@
       <c r="AD608" s="1"/>
       <c r="AE608" s="1"/>
     </row>
-    <row r="609" spans="1:31" ht="15.75" customHeight="1">
+    <row r="609" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -21525,7 +21525,7 @@
       <c r="AD609" s="1"/>
       <c r="AE609" s="1"/>
     </row>
-    <row r="610" spans="1:31" ht="15.75" customHeight="1">
+    <row r="610" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -21558,7 +21558,7 @@
       <c r="AD610" s="1"/>
       <c r="AE610" s="1"/>
     </row>
-    <row r="611" spans="1:31" ht="15.75" customHeight="1">
+    <row r="611" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -21591,7 +21591,7 @@
       <c r="AD611" s="1"/>
       <c r="AE611" s="1"/>
     </row>
-    <row r="612" spans="1:31" ht="15.75" customHeight="1">
+    <row r="612" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -21624,7 +21624,7 @@
       <c r="AD612" s="1"/>
       <c r="AE612" s="1"/>
     </row>
-    <row r="613" spans="1:31" ht="15.75" customHeight="1">
+    <row r="613" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -21657,7 +21657,7 @@
       <c r="AD613" s="1"/>
       <c r="AE613" s="1"/>
     </row>
-    <row r="614" spans="1:31" ht="15.75" customHeight="1">
+    <row r="614" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -21690,7 +21690,7 @@
       <c r="AD614" s="1"/>
       <c r="AE614" s="1"/>
     </row>
-    <row r="615" spans="1:31" ht="15.75" customHeight="1">
+    <row r="615" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -21723,7 +21723,7 @@
       <c r="AD615" s="1"/>
       <c r="AE615" s="1"/>
     </row>
-    <row r="616" spans="1:31" ht="15.75" customHeight="1">
+    <row r="616" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -21756,7 +21756,7 @@
       <c r="AD616" s="1"/>
       <c r="AE616" s="1"/>
     </row>
-    <row r="617" spans="1:31" ht="15.75" customHeight="1">
+    <row r="617" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -21789,7 +21789,7 @@
       <c r="AD617" s="1"/>
       <c r="AE617" s="1"/>
     </row>
-    <row r="618" spans="1:31" ht="15.75" customHeight="1">
+    <row r="618" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -21822,7 +21822,7 @@
       <c r="AD618" s="1"/>
       <c r="AE618" s="1"/>
     </row>
-    <row r="619" spans="1:31" ht="15.75" customHeight="1">
+    <row r="619" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -21855,7 +21855,7 @@
       <c r="AD619" s="1"/>
       <c r="AE619" s="1"/>
     </row>
-    <row r="620" spans="1:31" ht="15.75" customHeight="1">
+    <row r="620" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -21888,7 +21888,7 @@
       <c r="AD620" s="1"/>
       <c r="AE620" s="1"/>
     </row>
-    <row r="621" spans="1:31" ht="15.75" customHeight="1">
+    <row r="621" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -21921,7 +21921,7 @@
       <c r="AD621" s="1"/>
       <c r="AE621" s="1"/>
     </row>
-    <row r="622" spans="1:31" ht="15.75" customHeight="1">
+    <row r="622" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -21954,7 +21954,7 @@
       <c r="AD622" s="1"/>
       <c r="AE622" s="1"/>
     </row>
-    <row r="623" spans="1:31" ht="15.75" customHeight="1">
+    <row r="623" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -21987,7 +21987,7 @@
       <c r="AD623" s="1"/>
       <c r="AE623" s="1"/>
     </row>
-    <row r="624" spans="1:31" ht="15.75" customHeight="1">
+    <row r="624" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -22020,7 +22020,7 @@
       <c r="AD624" s="1"/>
       <c r="AE624" s="1"/>
     </row>
-    <row r="625" spans="1:31" ht="15.75" customHeight="1">
+    <row r="625" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -22053,7 +22053,7 @@
       <c r="AD625" s="1"/>
       <c r="AE625" s="1"/>
     </row>
-    <row r="626" spans="1:31" ht="15.75" customHeight="1">
+    <row r="626" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -22086,7 +22086,7 @@
       <c r="AD626" s="1"/>
       <c r="AE626" s="1"/>
     </row>
-    <row r="627" spans="1:31" ht="15.75" customHeight="1">
+    <row r="627" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -22119,7 +22119,7 @@
       <c r="AD627" s="1"/>
       <c r="AE627" s="1"/>
     </row>
-    <row r="628" spans="1:31" ht="15.75" customHeight="1">
+    <row r="628" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -22152,7 +22152,7 @@
       <c r="AD628" s="1"/>
       <c r="AE628" s="1"/>
     </row>
-    <row r="629" spans="1:31" ht="15.75" customHeight="1">
+    <row r="629" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -22185,7 +22185,7 @@
       <c r="AD629" s="1"/>
       <c r="AE629" s="1"/>
     </row>
-    <row r="630" spans="1:31" ht="15.75" customHeight="1">
+    <row r="630" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -22218,7 +22218,7 @@
       <c r="AD630" s="1"/>
       <c r="AE630" s="1"/>
     </row>
-    <row r="631" spans="1:31" ht="15.75" customHeight="1">
+    <row r="631" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -22251,7 +22251,7 @@
       <c r="AD631" s="1"/>
       <c r="AE631" s="1"/>
     </row>
-    <row r="632" spans="1:31" ht="15.75" customHeight="1">
+    <row r="632" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -22284,7 +22284,7 @@
       <c r="AD632" s="1"/>
       <c r="AE632" s="1"/>
     </row>
-    <row r="633" spans="1:31" ht="15.75" customHeight="1">
+    <row r="633" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -22317,7 +22317,7 @@
       <c r="AD633" s="1"/>
       <c r="AE633" s="1"/>
     </row>
-    <row r="634" spans="1:31" ht="15.75" customHeight="1">
+    <row r="634" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -22350,7 +22350,7 @@
       <c r="AD634" s="1"/>
       <c r="AE634" s="1"/>
     </row>
-    <row r="635" spans="1:31" ht="15.75" customHeight="1">
+    <row r="635" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -22383,7 +22383,7 @@
       <c r="AD635" s="1"/>
       <c r="AE635" s="1"/>
     </row>
-    <row r="636" spans="1:31" ht="15.75" customHeight="1">
+    <row r="636" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -22416,7 +22416,7 @@
       <c r="AD636" s="1"/>
       <c r="AE636" s="1"/>
     </row>
-    <row r="637" spans="1:31" ht="15.75" customHeight="1">
+    <row r="637" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -22449,7 +22449,7 @@
       <c r="AD637" s="1"/>
       <c r="AE637" s="1"/>
     </row>
-    <row r="638" spans="1:31" ht="15.75" customHeight="1">
+    <row r="638" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -22482,7 +22482,7 @@
       <c r="AD638" s="1"/>
       <c r="AE638" s="1"/>
     </row>
-    <row r="639" spans="1:31" ht="15.75" customHeight="1">
+    <row r="639" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -22515,7 +22515,7 @@
       <c r="AD639" s="1"/>
       <c r="AE639" s="1"/>
     </row>
-    <row r="640" spans="1:31" ht="15.75" customHeight="1">
+    <row r="640" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -22548,7 +22548,7 @@
       <c r="AD640" s="1"/>
       <c r="AE640" s="1"/>
     </row>
-    <row r="641" spans="1:31" ht="15.75" customHeight="1">
+    <row r="641" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -22581,7 +22581,7 @@
       <c r="AD641" s="1"/>
       <c r="AE641" s="1"/>
     </row>
-    <row r="642" spans="1:31" ht="15.75" customHeight="1">
+    <row r="642" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -22614,7 +22614,7 @@
       <c r="AD642" s="1"/>
       <c r="AE642" s="1"/>
     </row>
-    <row r="643" spans="1:31" ht="15.75" customHeight="1">
+    <row r="643" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -22647,7 +22647,7 @@
       <c r="AD643" s="1"/>
       <c r="AE643" s="1"/>
     </row>
-    <row r="644" spans="1:31" ht="15.75" customHeight="1">
+    <row r="644" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -22680,7 +22680,7 @@
       <c r="AD644" s="1"/>
       <c r="AE644" s="1"/>
     </row>
-    <row r="645" spans="1:31" ht="15.75" customHeight="1">
+    <row r="645" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -22713,7 +22713,7 @@
       <c r="AD645" s="1"/>
       <c r="AE645" s="1"/>
     </row>
-    <row r="646" spans="1:31" ht="15.75" customHeight="1">
+    <row r="646" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -22746,7 +22746,7 @@
       <c r="AD646" s="1"/>
       <c r="AE646" s="1"/>
     </row>
-    <row r="647" spans="1:31" ht="15.75" customHeight="1">
+    <row r="647" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -22779,7 +22779,7 @@
       <c r="AD647" s="1"/>
       <c r="AE647" s="1"/>
     </row>
-    <row r="648" spans="1:31" ht="15.75" customHeight="1">
+    <row r="648" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -22812,7 +22812,7 @@
       <c r="AD648" s="1"/>
       <c r="AE648" s="1"/>
     </row>
-    <row r="649" spans="1:31" ht="15.75" customHeight="1">
+    <row r="649" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -22845,7 +22845,7 @@
       <c r="AD649" s="1"/>
       <c r="AE649" s="1"/>
     </row>
-    <row r="650" spans="1:31" ht="15.75" customHeight="1">
+    <row r="650" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -22878,7 +22878,7 @@
       <c r="AD650" s="1"/>
       <c r="AE650" s="1"/>
     </row>
-    <row r="651" spans="1:31" ht="15.75" customHeight="1">
+    <row r="651" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -22911,7 +22911,7 @@
       <c r="AD651" s="1"/>
       <c r="AE651" s="1"/>
     </row>
-    <row r="652" spans="1:31" ht="15.75" customHeight="1">
+    <row r="652" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -22944,7 +22944,7 @@
       <c r="AD652" s="1"/>
       <c r="AE652" s="1"/>
     </row>
-    <row r="653" spans="1:31" ht="15.75" customHeight="1">
+    <row r="653" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -22977,7 +22977,7 @@
       <c r="AD653" s="1"/>
       <c r="AE653" s="1"/>
     </row>
-    <row r="654" spans="1:31" ht="15.75" customHeight="1">
+    <row r="654" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -23010,7 +23010,7 @@
       <c r="AD654" s="1"/>
       <c r="AE654" s="1"/>
     </row>
-    <row r="655" spans="1:31" ht="15.75" customHeight="1">
+    <row r="655" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -23043,7 +23043,7 @@
       <c r="AD655" s="1"/>
       <c r="AE655" s="1"/>
     </row>
-    <row r="656" spans="1:31" ht="15.75" customHeight="1">
+    <row r="656" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -23076,7 +23076,7 @@
       <c r="AD656" s="1"/>
       <c r="AE656" s="1"/>
     </row>
-    <row r="657" spans="1:31" ht="15.75" customHeight="1">
+    <row r="657" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -23109,7 +23109,7 @@
       <c r="AD657" s="1"/>
       <c r="AE657" s="1"/>
     </row>
-    <row r="658" spans="1:31" ht="15.75" customHeight="1">
+    <row r="658" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -23142,7 +23142,7 @@
       <c r="AD658" s="1"/>
       <c r="AE658" s="1"/>
     </row>
-    <row r="659" spans="1:31" ht="15.75" customHeight="1">
+    <row r="659" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -23175,7 +23175,7 @@
       <c r="AD659" s="1"/>
       <c r="AE659" s="1"/>
     </row>
-    <row r="660" spans="1:31" ht="15.75" customHeight="1">
+    <row r="660" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -23208,7 +23208,7 @@
       <c r="AD660" s="1"/>
       <c r="AE660" s="1"/>
     </row>
-    <row r="661" spans="1:31" ht="15.75" customHeight="1">
+    <row r="661" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -23241,7 +23241,7 @@
       <c r="AD661" s="1"/>
       <c r="AE661" s="1"/>
     </row>
-    <row r="662" spans="1:31" ht="15.75" customHeight="1">
+    <row r="662" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -23274,7 +23274,7 @@
       <c r="AD662" s="1"/>
       <c r="AE662" s="1"/>
     </row>
-    <row r="663" spans="1:31" ht="15.75" customHeight="1">
+    <row r="663" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -23307,7 +23307,7 @@
       <c r="AD663" s="1"/>
       <c r="AE663" s="1"/>
     </row>
-    <row r="664" spans="1:31" ht="15.75" customHeight="1">
+    <row r="664" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -23340,7 +23340,7 @@
       <c r="AD664" s="1"/>
       <c r="AE664" s="1"/>
     </row>
-    <row r="665" spans="1:31" ht="15.75" customHeight="1">
+    <row r="665" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -23373,7 +23373,7 @@
       <c r="AD665" s="1"/>
       <c r="AE665" s="1"/>
     </row>
-    <row r="666" spans="1:31" ht="15.75" customHeight="1">
+    <row r="666" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -23406,7 +23406,7 @@
       <c r="AD666" s="1"/>
       <c r="AE666" s="1"/>
     </row>
-    <row r="667" spans="1:31" ht="15.75" customHeight="1">
+    <row r="667" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -23439,7 +23439,7 @@
       <c r="AD667" s="1"/>
       <c r="AE667" s="1"/>
     </row>
-    <row r="668" spans="1:31" ht="15.75" customHeight="1">
+    <row r="668" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -23472,7 +23472,7 @@
       <c r="AD668" s="1"/>
       <c r="AE668" s="1"/>
     </row>
-    <row r="669" spans="1:31" ht="15.75" customHeight="1">
+    <row r="669" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -23505,7 +23505,7 @@
       <c r="AD669" s="1"/>
       <c r="AE669" s="1"/>
     </row>
-    <row r="670" spans="1:31" ht="15.75" customHeight="1">
+    <row r="670" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -23538,7 +23538,7 @@
       <c r="AD670" s="1"/>
       <c r="AE670" s="1"/>
     </row>
-    <row r="671" spans="1:31" ht="15.75" customHeight="1">
+    <row r="671" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -23571,7 +23571,7 @@
       <c r="AD671" s="1"/>
       <c r="AE671" s="1"/>
     </row>
-    <row r="672" spans="1:31" ht="15.75" customHeight="1">
+    <row r="672" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -23604,7 +23604,7 @@
       <c r="AD672" s="1"/>
       <c r="AE672" s="1"/>
     </row>
-    <row r="673" spans="1:31" ht="15.75" customHeight="1">
+    <row r="673" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -23637,7 +23637,7 @@
       <c r="AD673" s="1"/>
       <c r="AE673" s="1"/>
     </row>
-    <row r="674" spans="1:31" ht="15.75" customHeight="1">
+    <row r="674" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -23670,7 +23670,7 @@
       <c r="AD674" s="1"/>
       <c r="AE674" s="1"/>
     </row>
-    <row r="675" spans="1:31" ht="15.75" customHeight="1">
+    <row r="675" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -23703,7 +23703,7 @@
       <c r="AD675" s="1"/>
       <c r="AE675" s="1"/>
     </row>
-    <row r="676" spans="1:31" ht="15.75" customHeight="1">
+    <row r="676" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -23736,7 +23736,7 @@
       <c r="AD676" s="1"/>
       <c r="AE676" s="1"/>
     </row>
-    <row r="677" spans="1:31" ht="15.75" customHeight="1">
+    <row r="677" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -23769,7 +23769,7 @@
       <c r="AD677" s="1"/>
       <c r="AE677" s="1"/>
     </row>
-    <row r="678" spans="1:31" ht="15.75" customHeight="1">
+    <row r="678" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -23802,7 +23802,7 @@
       <c r="AD678" s="1"/>
       <c r="AE678" s="1"/>
     </row>
-    <row r="679" spans="1:31" ht="15.75" customHeight="1">
+    <row r="679" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -23835,7 +23835,7 @@
       <c r="AD679" s="1"/>
       <c r="AE679" s="1"/>
     </row>
-    <row r="680" spans="1:31" ht="15.75" customHeight="1">
+    <row r="680" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -23868,7 +23868,7 @@
       <c r="AD680" s="1"/>
       <c r="AE680" s="1"/>
     </row>
-    <row r="681" spans="1:31" ht="15.75" customHeight="1">
+    <row r="681" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -23901,7 +23901,7 @@
       <c r="AD681" s="1"/>
       <c r="AE681" s="1"/>
     </row>
-    <row r="682" spans="1:31" ht="15.75" customHeight="1">
+    <row r="682" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -23934,7 +23934,7 @@
       <c r="AD682" s="1"/>
       <c r="AE682" s="1"/>
     </row>
-    <row r="683" spans="1:31" ht="15.75" customHeight="1">
+    <row r="683" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -23967,7 +23967,7 @@
       <c r="AD683" s="1"/>
       <c r="AE683" s="1"/>
     </row>
-    <row r="684" spans="1:31" ht="15.75" customHeight="1">
+    <row r="684" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -24000,7 +24000,7 @@
       <c r="AD684" s="1"/>
       <c r="AE684" s="1"/>
     </row>
-    <row r="685" spans="1:31" ht="15.75" customHeight="1">
+    <row r="685" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -24033,7 +24033,7 @@
       <c r="AD685" s="1"/>
       <c r="AE685" s="1"/>
     </row>
-    <row r="686" spans="1:31" ht="15.75" customHeight="1">
+    <row r="686" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -24066,7 +24066,7 @@
       <c r="AD686" s="1"/>
       <c r="AE686" s="1"/>
     </row>
-    <row r="687" spans="1:31" ht="15.75" customHeight="1">
+    <row r="687" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -24099,7 +24099,7 @@
       <c r="AD687" s="1"/>
       <c r="AE687" s="1"/>
     </row>
-    <row r="688" spans="1:31" ht="15.75" customHeight="1">
+    <row r="688" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -24132,7 +24132,7 @@
       <c r="AD688" s="1"/>
       <c r="AE688" s="1"/>
     </row>
-    <row r="689" spans="1:31" ht="15.75" customHeight="1">
+    <row r="689" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -24165,7 +24165,7 @@
       <c r="AD689" s="1"/>
       <c r="AE689" s="1"/>
     </row>
-    <row r="690" spans="1:31" ht="15.75" customHeight="1">
+    <row r="690" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -24198,7 +24198,7 @@
       <c r="AD690" s="1"/>
       <c r="AE690" s="1"/>
     </row>
-    <row r="691" spans="1:31" ht="15.75" customHeight="1">
+    <row r="691" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -24231,7 +24231,7 @@
       <c r="AD691" s="1"/>
       <c r="AE691" s="1"/>
     </row>
-    <row r="692" spans="1:31" ht="15.75" customHeight="1">
+    <row r="692" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -24264,7 +24264,7 @@
       <c r="AD692" s="1"/>
       <c r="AE692" s="1"/>
     </row>
-    <row r="693" spans="1:31" ht="15.75" customHeight="1">
+    <row r="693" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -24297,7 +24297,7 @@
       <c r="AD693" s="1"/>
       <c r="AE693" s="1"/>
     </row>
-    <row r="694" spans="1:31" ht="15.75" customHeight="1">
+    <row r="694" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -24330,7 +24330,7 @@
       <c r="AD694" s="1"/>
       <c r="AE694" s="1"/>
     </row>
-    <row r="695" spans="1:31" ht="15.75" customHeight="1">
+    <row r="695" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -24363,7 +24363,7 @@
       <c r="AD695" s="1"/>
       <c r="AE695" s="1"/>
     </row>
-    <row r="696" spans="1:31" ht="15.75" customHeight="1">
+    <row r="696" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -24396,7 +24396,7 @@
       <c r="AD696" s="1"/>
       <c r="AE696" s="1"/>
     </row>
-    <row r="697" spans="1:31" ht="15.75" customHeight="1">
+    <row r="697" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -24429,7 +24429,7 @@
       <c r="AD697" s="1"/>
       <c r="AE697" s="1"/>
     </row>
-    <row r="698" spans="1:31" ht="15.75" customHeight="1">
+    <row r="698" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -24462,7 +24462,7 @@
       <c r="AD698" s="1"/>
       <c r="AE698" s="1"/>
     </row>
-    <row r="699" spans="1:31" ht="15.75" customHeight="1">
+    <row r="699" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -24495,7 +24495,7 @@
       <c r="AD699" s="1"/>
       <c r="AE699" s="1"/>
     </row>
-    <row r="700" spans="1:31" ht="15.75" customHeight="1">
+    <row r="700" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -24528,7 +24528,7 @@
       <c r="AD700" s="1"/>
       <c r="AE700" s="1"/>
     </row>
-    <row r="701" spans="1:31" ht="15.75" customHeight="1">
+    <row r="701" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -24561,7 +24561,7 @@
       <c r="AD701" s="1"/>
       <c r="AE701" s="1"/>
     </row>
-    <row r="702" spans="1:31" ht="15.75" customHeight="1">
+    <row r="702" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -24594,7 +24594,7 @@
       <c r="AD702" s="1"/>
       <c r="AE702" s="1"/>
     </row>
-    <row r="703" spans="1:31" ht="15.75" customHeight="1">
+    <row r="703" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -24627,7 +24627,7 @@
       <c r="AD703" s="1"/>
       <c r="AE703" s="1"/>
     </row>
-    <row r="704" spans="1:31" ht="15.75" customHeight="1">
+    <row r="704" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -24660,7 +24660,7 @@
       <c r="AD704" s="1"/>
       <c r="AE704" s="1"/>
     </row>
-    <row r="705" spans="1:31" ht="15.75" customHeight="1">
+    <row r="705" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -24693,7 +24693,7 @@
       <c r="AD705" s="1"/>
       <c r="AE705" s="1"/>
     </row>
-    <row r="706" spans="1:31" ht="15.75" customHeight="1">
+    <row r="706" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -24726,7 +24726,7 @@
       <c r="AD706" s="1"/>
       <c r="AE706" s="1"/>
     </row>
-    <row r="707" spans="1:31" ht="15.75" customHeight="1">
+    <row r="707" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -24759,7 +24759,7 @@
       <c r="AD707" s="1"/>
       <c r="AE707" s="1"/>
     </row>
-    <row r="708" spans="1:31" ht="15.75" customHeight="1">
+    <row r="708" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -24792,7 +24792,7 @@
       <c r="AD708" s="1"/>
       <c r="AE708" s="1"/>
     </row>
-    <row r="709" spans="1:31" ht="15.75" customHeight="1">
+    <row r="709" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -24825,7 +24825,7 @@
       <c r="AD709" s="1"/>
       <c r="AE709" s="1"/>
     </row>
-    <row r="710" spans="1:31" ht="15.75" customHeight="1">
+    <row r="710" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -24858,7 +24858,7 @@
       <c r="AD710" s="1"/>
       <c r="AE710" s="1"/>
     </row>
-    <row r="711" spans="1:31" ht="15.75" customHeight="1">
+    <row r="711" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -24891,7 +24891,7 @@
       <c r="AD711" s="1"/>
       <c r="AE711" s="1"/>
     </row>
-    <row r="712" spans="1:31" ht="15.75" customHeight="1">
+    <row r="712" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -24924,7 +24924,7 @@
       <c r="AD712" s="1"/>
       <c r="AE712" s="1"/>
     </row>
-    <row r="713" spans="1:31" ht="15.75" customHeight="1">
+    <row r="713" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -24957,7 +24957,7 @@
       <c r="AD713" s="1"/>
       <c r="AE713" s="1"/>
     </row>
-    <row r="714" spans="1:31" ht="15.75" customHeight="1">
+    <row r="714" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -24990,7 +24990,7 @@
       <c r="AD714" s="1"/>
       <c r="AE714" s="1"/>
     </row>
-    <row r="715" spans="1:31" ht="15.75" customHeight="1">
+    <row r="715" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -25023,7 +25023,7 @@
       <c r="AD715" s="1"/>
       <c r="AE715" s="1"/>
     </row>
-    <row r="716" spans="1:31" ht="15.75" customHeight="1">
+    <row r="716" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -25056,7 +25056,7 @@
       <c r="AD716" s="1"/>
       <c r="AE716" s="1"/>
     </row>
-    <row r="717" spans="1:31" ht="15.75" customHeight="1">
+    <row r="717" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -25089,7 +25089,7 @@
       <c r="AD717" s="1"/>
       <c r="AE717" s="1"/>
     </row>
-    <row r="718" spans="1:31" ht="15.75" customHeight="1">
+    <row r="718" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -25122,7 +25122,7 @@
       <c r="AD718" s="1"/>
       <c r="AE718" s="1"/>
     </row>
-    <row r="719" spans="1:31" ht="15.75" customHeight="1">
+    <row r="719" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -25155,7 +25155,7 @@
       <c r="AD719" s="1"/>
       <c r="AE719" s="1"/>
     </row>
-    <row r="720" spans="1:31" ht="15.75" customHeight="1">
+    <row r="720" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -25188,7 +25188,7 @@
       <c r="AD720" s="1"/>
       <c r="AE720" s="1"/>
     </row>
-    <row r="721" spans="1:31" ht="15.75" customHeight="1">
+    <row r="721" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -25221,7 +25221,7 @@
       <c r="AD721" s="1"/>
       <c r="AE721" s="1"/>
     </row>
-    <row r="722" spans="1:31" ht="15.75" customHeight="1">
+    <row r="722" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -25254,7 +25254,7 @@
       <c r="AD722" s="1"/>
       <c r="AE722" s="1"/>
     </row>
-    <row r="723" spans="1:31" ht="15.75" customHeight="1">
+    <row r="723" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -25287,7 +25287,7 @@
       <c r="AD723" s="1"/>
       <c r="AE723" s="1"/>
     </row>
-    <row r="724" spans="1:31" ht="15.75" customHeight="1">
+    <row r="724" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -25320,7 +25320,7 @@
       <c r="AD724" s="1"/>
       <c r="AE724" s="1"/>
     </row>
-    <row r="725" spans="1:31" ht="15.75" customHeight="1">
+    <row r="725" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -25353,7 +25353,7 @@
       <c r="AD725" s="1"/>
       <c r="AE725" s="1"/>
     </row>
-    <row r="726" spans="1:31" ht="15.75" customHeight="1">
+    <row r="726" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -25386,7 +25386,7 @@
       <c r="AD726" s="1"/>
       <c r="AE726" s="1"/>
     </row>
-    <row r="727" spans="1:31" ht="15.75" customHeight="1">
+    <row r="727" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -25419,7 +25419,7 @@
       <c r="AD727" s="1"/>
       <c r="AE727" s="1"/>
     </row>
-    <row r="728" spans="1:31" ht="15.75" customHeight="1">
+    <row r="728" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -25452,7 +25452,7 @@
       <c r="AD728" s="1"/>
       <c r="AE728" s="1"/>
     </row>
-    <row r="729" spans="1:31" ht="15.75" customHeight="1">
+    <row r="729" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -25485,7 +25485,7 @@
       <c r="AD729" s="1"/>
       <c r="AE729" s="1"/>
     </row>
-    <row r="730" spans="1:31" ht="15.75" customHeight="1">
+    <row r="730" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -25518,7 +25518,7 @@
       <c r="AD730" s="1"/>
       <c r="AE730" s="1"/>
     </row>
-    <row r="731" spans="1:31" ht="15.75" customHeight="1">
+    <row r="731" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -25551,7 +25551,7 @@
       <c r="AD731" s="1"/>
       <c r="AE731" s="1"/>
     </row>
-    <row r="732" spans="1:31" ht="15.75" customHeight="1">
+    <row r="732" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -25584,7 +25584,7 @@
       <c r="AD732" s="1"/>
       <c r="AE732" s="1"/>
     </row>
-    <row r="733" spans="1:31" ht="15.75" customHeight="1">
+    <row r="733" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -25617,7 +25617,7 @@
       <c r="AD733" s="1"/>
       <c r="AE733" s="1"/>
     </row>
-    <row r="734" spans="1:31" ht="15.75" customHeight="1">
+    <row r="734" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -25650,7 +25650,7 @@
       <c r="AD734" s="1"/>
       <c r="AE734" s="1"/>
     </row>
-    <row r="735" spans="1:31" ht="15.75" customHeight="1">
+    <row r="735" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -25683,7 +25683,7 @@
       <c r="AD735" s="1"/>
       <c r="AE735" s="1"/>
     </row>
-    <row r="736" spans="1:31" ht="15.75" customHeight="1">
+    <row r="736" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -25716,7 +25716,7 @@
       <c r="AD736" s="1"/>
       <c r="AE736" s="1"/>
     </row>
-    <row r="737" spans="1:31" ht="15.75" customHeight="1">
+    <row r="737" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -25749,7 +25749,7 @@
       <c r="AD737" s="1"/>
       <c r="AE737" s="1"/>
     </row>
-    <row r="738" spans="1:31" ht="15.75" customHeight="1">
+    <row r="738" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -25782,7 +25782,7 @@
       <c r="AD738" s="1"/>
       <c r="AE738" s="1"/>
     </row>
-    <row r="739" spans="1:31" ht="15.75" customHeight="1">
+    <row r="739" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -25815,7 +25815,7 @@
       <c r="AD739" s="1"/>
       <c r="AE739" s="1"/>
     </row>
-    <row r="740" spans="1:31" ht="15.75" customHeight="1">
+    <row r="740" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -25848,7 +25848,7 @@
       <c r="AD740" s="1"/>
       <c r="AE740" s="1"/>
     </row>
-    <row r="741" spans="1:31" ht="15.75" customHeight="1">
+    <row r="741" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -25881,7 +25881,7 @@
       <c r="AD741" s="1"/>
       <c r="AE741" s="1"/>
     </row>
-    <row r="742" spans="1:31" ht="15.75" customHeight="1">
+    <row r="742" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -25914,7 +25914,7 @@
       <c r="AD742" s="1"/>
       <c r="AE742" s="1"/>
     </row>
-    <row r="743" spans="1:31" ht="15.75" customHeight="1">
+    <row r="743" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -25947,7 +25947,7 @@
       <c r="AD743" s="1"/>
       <c r="AE743" s="1"/>
     </row>
-    <row r="744" spans="1:31" ht="15.75" customHeight="1">
+    <row r="744" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -25980,7 +25980,7 @@
       <c r="AD744" s="1"/>
       <c r="AE744" s="1"/>
     </row>
-    <row r="745" spans="1:31" ht="15.75" customHeight="1">
+    <row r="745" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -26013,7 +26013,7 @@
       <c r="AD745" s="1"/>
       <c r="AE745" s="1"/>
     </row>
-    <row r="746" spans="1:31" ht="15.75" customHeight="1">
+    <row r="746" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -26046,7 +26046,7 @@
       <c r="AD746" s="1"/>
       <c r="AE746" s="1"/>
     </row>
-    <row r="747" spans="1:31" ht="15.75" customHeight="1">
+    <row r="747" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -26079,7 +26079,7 @@
       <c r="AD747" s="1"/>
       <c r="AE747" s="1"/>
     </row>
-    <row r="748" spans="1:31" ht="15.75" customHeight="1">
+    <row r="748" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -26112,7 +26112,7 @@
       <c r="AD748" s="1"/>
       <c r="AE748" s="1"/>
     </row>
-    <row r="749" spans="1:31" ht="15.75" customHeight="1">
+    <row r="749" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -26145,7 +26145,7 @@
       <c r="AD749" s="1"/>
       <c r="AE749" s="1"/>
     </row>
-    <row r="750" spans="1:31" ht="15.75" customHeight="1">
+    <row r="750" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -26178,7 +26178,7 @@
       <c r="AD750" s="1"/>
       <c r="AE750" s="1"/>
     </row>
-    <row r="751" spans="1:31" ht="15.75" customHeight="1">
+    <row r="751" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -26211,7 +26211,7 @@
       <c r="AD751" s="1"/>
       <c r="AE751" s="1"/>
     </row>
-    <row r="752" spans="1:31" ht="15.75" customHeight="1">
+    <row r="752" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -26244,7 +26244,7 @@
       <c r="AD752" s="1"/>
       <c r="AE752" s="1"/>
     </row>
-    <row r="753" spans="1:31" ht="15.75" customHeight="1">
+    <row r="753" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26277,7 +26277,7 @@
       <c r="AD753" s="1"/>
       <c r="AE753" s="1"/>
     </row>
-    <row r="754" spans="1:31" ht="15.75" customHeight="1">
+    <row r="754" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26310,7 +26310,7 @@
       <c r="AD754" s="1"/>
       <c r="AE754" s="1"/>
     </row>
-    <row r="755" spans="1:31" ht="15.75" customHeight="1">
+    <row r="755" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26343,7 +26343,7 @@
       <c r="AD755" s="1"/>
       <c r="AE755" s="1"/>
     </row>
-    <row r="756" spans="1:31" ht="15.75" customHeight="1">
+    <row r="756" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26376,7 +26376,7 @@
       <c r="AD756" s="1"/>
       <c r="AE756" s="1"/>
     </row>
-    <row r="757" spans="1:31" ht="15.75" customHeight="1">
+    <row r="757" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26409,7 +26409,7 @@
       <c r="AD757" s="1"/>
       <c r="AE757" s="1"/>
     </row>
-    <row r="758" spans="1:31" ht="15.75" customHeight="1">
+    <row r="758" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26442,7 +26442,7 @@
       <c r="AD758" s="1"/>
       <c r="AE758" s="1"/>
     </row>
-    <row r="759" spans="1:31" ht="15.75" customHeight="1">
+    <row r="759" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26475,7 +26475,7 @@
       <c r="AD759" s="1"/>
       <c r="AE759" s="1"/>
     </row>
-    <row r="760" spans="1:31" ht="15.75" customHeight="1">
+    <row r="760" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -26508,7 +26508,7 @@
       <c r="AD760" s="1"/>
       <c r="AE760" s="1"/>
     </row>
-    <row r="761" spans="1:31" ht="15.75" customHeight="1">
+    <row r="761" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -26541,7 +26541,7 @@
       <c r="AD761" s="1"/>
       <c r="AE761" s="1"/>
     </row>
-    <row r="762" spans="1:31" ht="15.75" customHeight="1">
+    <row r="762" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -26574,7 +26574,7 @@
       <c r="AD762" s="1"/>
       <c r="AE762" s="1"/>
     </row>
-    <row r="763" spans="1:31" ht="15.75" customHeight="1">
+    <row r="763" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -26607,7 +26607,7 @@
       <c r="AD763" s="1"/>
       <c r="AE763" s="1"/>
     </row>
-    <row r="764" spans="1:31" ht="15.75" customHeight="1">
+    <row r="764" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -26640,7 +26640,7 @@
       <c r="AD764" s="1"/>
       <c r="AE764" s="1"/>
     </row>
-    <row r="765" spans="1:31" ht="15.75" customHeight="1">
+    <row r="765" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -26673,7 +26673,7 @@
       <c r="AD765" s="1"/>
       <c r="AE765" s="1"/>
     </row>
-    <row r="766" spans="1:31" ht="15.75" customHeight="1">
+    <row r="766" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -26706,7 +26706,7 @@
       <c r="AD766" s="1"/>
       <c r="AE766" s="1"/>
     </row>
-    <row r="767" spans="1:31" ht="15.75" customHeight="1">
+    <row r="767" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -26739,7 +26739,7 @@
       <c r="AD767" s="1"/>
       <c r="AE767" s="1"/>
     </row>
-    <row r="768" spans="1:31" ht="15.75" customHeight="1">
+    <row r="768" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -26772,7 +26772,7 @@
       <c r="AD768" s="1"/>
       <c r="AE768" s="1"/>
     </row>
-    <row r="769" spans="1:31" ht="15.75" customHeight="1">
+    <row r="769" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -26805,7 +26805,7 @@
       <c r="AD769" s="1"/>
       <c r="AE769" s="1"/>
     </row>
-    <row r="770" spans="1:31" ht="15.75" customHeight="1">
+    <row r="770" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -26838,7 +26838,7 @@
       <c r="AD770" s="1"/>
       <c r="AE770" s="1"/>
     </row>
-    <row r="771" spans="1:31" ht="15.75" customHeight="1">
+    <row r="771" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -26871,7 +26871,7 @@
       <c r="AD771" s="1"/>
       <c r="AE771" s="1"/>
     </row>
-    <row r="772" spans="1:31" ht="15.75" customHeight="1">
+    <row r="772" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -26904,7 +26904,7 @@
       <c r="AD772" s="1"/>
       <c r="AE772" s="1"/>
     </row>
-    <row r="773" spans="1:31" ht="15.75" customHeight="1">
+    <row r="773" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -26937,7 +26937,7 @@
       <c r="AD773" s="1"/>
       <c r="AE773" s="1"/>
     </row>
-    <row r="774" spans="1:31" ht="15.75" customHeight="1">
+    <row r="774" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -26970,7 +26970,7 @@
       <c r="AD774" s="1"/>
       <c r="AE774" s="1"/>
     </row>
-    <row r="775" spans="1:31" ht="15.75" customHeight="1">
+    <row r="775" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -27003,7 +27003,7 @@
       <c r="AD775" s="1"/>
       <c r="AE775" s="1"/>
     </row>
-    <row r="776" spans="1:31" ht="15.75" customHeight="1">
+    <row r="776" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -27036,7 +27036,7 @@
       <c r="AD776" s="1"/>
       <c r="AE776" s="1"/>
     </row>
-    <row r="777" spans="1:31" ht="15.75" customHeight="1">
+    <row r="777" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -27069,7 +27069,7 @@
       <c r="AD777" s="1"/>
       <c r="AE777" s="1"/>
     </row>
-    <row r="778" spans="1:31" ht="15.75" customHeight="1">
+    <row r="778" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -27102,7 +27102,7 @@
       <c r="AD778" s="1"/>
       <c r="AE778" s="1"/>
     </row>
-    <row r="779" spans="1:31" ht="15.75" customHeight="1">
+    <row r="779" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -27135,7 +27135,7 @@
       <c r="AD779" s="1"/>
       <c r="AE779" s="1"/>
     </row>
-    <row r="780" spans="1:31" ht="15.75" customHeight="1">
+    <row r="780" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27168,7 +27168,7 @@
       <c r="AD780" s="1"/>
       <c r="AE780" s="1"/>
     </row>
-    <row r="781" spans="1:31" ht="15.75" customHeight="1">
+    <row r="781" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27201,7 +27201,7 @@
       <c r="AD781" s="1"/>
       <c r="AE781" s="1"/>
     </row>
-    <row r="782" spans="1:31" ht="15.75" customHeight="1">
+    <row r="782" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27234,7 +27234,7 @@
       <c r="AD782" s="1"/>
       <c r="AE782" s="1"/>
     </row>
-    <row r="783" spans="1:31" ht="15.75" customHeight="1">
+    <row r="783" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27267,7 +27267,7 @@
       <c r="AD783" s="1"/>
       <c r="AE783" s="1"/>
     </row>
-    <row r="784" spans="1:31" ht="15.75" customHeight="1">
+    <row r="784" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27300,7 +27300,7 @@
       <c r="AD784" s="1"/>
       <c r="AE784" s="1"/>
     </row>
-    <row r="785" spans="1:31" ht="15.75" customHeight="1">
+    <row r="785" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27333,7 +27333,7 @@
       <c r="AD785" s="1"/>
       <c r="AE785" s="1"/>
     </row>
-    <row r="786" spans="1:31" ht="15.75" customHeight="1">
+    <row r="786" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27366,7 +27366,7 @@
       <c r="AD786" s="1"/>
       <c r="AE786" s="1"/>
     </row>
-    <row r="787" spans="1:31" ht="15.75" customHeight="1">
+    <row r="787" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27399,7 +27399,7 @@
       <c r="AD787" s="1"/>
       <c r="AE787" s="1"/>
     </row>
-    <row r="788" spans="1:31" ht="15.75" customHeight="1">
+    <row r="788" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27432,7 +27432,7 @@
       <c r="AD788" s="1"/>
       <c r="AE788" s="1"/>
     </row>
-    <row r="789" spans="1:31" ht="15.75" customHeight="1">
+    <row r="789" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -27465,7 +27465,7 @@
       <c r="AD789" s="1"/>
       <c r="AE789" s="1"/>
     </row>
-    <row r="790" spans="1:31" ht="15.75" customHeight="1">
+    <row r="790" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -27498,7 +27498,7 @@
       <c r="AD790" s="1"/>
       <c r="AE790" s="1"/>
     </row>
-    <row r="791" spans="1:31" ht="15.75" customHeight="1">
+    <row r="791" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -27531,7 +27531,7 @@
       <c r="AD791" s="1"/>
       <c r="AE791" s="1"/>
     </row>
-    <row r="792" spans="1:31" ht="15.75" customHeight="1">
+    <row r="792" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -27564,7 +27564,7 @@
       <c r="AD792" s="1"/>
       <c r="AE792" s="1"/>
     </row>
-    <row r="793" spans="1:31" ht="15.75" customHeight="1">
+    <row r="793" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -27597,7 +27597,7 @@
       <c r="AD793" s="1"/>
       <c r="AE793" s="1"/>
     </row>
-    <row r="794" spans="1:31" ht="15.75" customHeight="1">
+    <row r="794" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -27630,7 +27630,7 @@
       <c r="AD794" s="1"/>
       <c r="AE794" s="1"/>
     </row>
-    <row r="795" spans="1:31" ht="15.75" customHeight="1">
+    <row r="795" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -27663,7 +27663,7 @@
       <c r="AD795" s="1"/>
       <c r="AE795" s="1"/>
     </row>
-    <row r="796" spans="1:31" ht="15.75" customHeight="1">
+    <row r="796" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -27696,7 +27696,7 @@
       <c r="AD796" s="1"/>
       <c r="AE796" s="1"/>
     </row>
-    <row r="797" spans="1:31" ht="15.75" customHeight="1">
+    <row r="797" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -27729,7 +27729,7 @@
       <c r="AD797" s="1"/>
       <c r="AE797" s="1"/>
     </row>
-    <row r="798" spans="1:31" ht="15.75" customHeight="1">
+    <row r="798" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -27762,7 +27762,7 @@
       <c r="AD798" s="1"/>
       <c r="AE798" s="1"/>
     </row>
-    <row r="799" spans="1:31" ht="15.75" customHeight="1">
+    <row r="799" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -27795,7 +27795,7 @@
       <c r="AD799" s="1"/>
       <c r="AE799" s="1"/>
     </row>
-    <row r="800" spans="1:31" ht="15.75" customHeight="1">
+    <row r="800" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -27828,7 +27828,7 @@
       <c r="AD800" s="1"/>
       <c r="AE800" s="1"/>
     </row>
-    <row r="801" spans="1:31" ht="15.75" customHeight="1">
+    <row r="801" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -27861,7 +27861,7 @@
       <c r="AD801" s="1"/>
       <c r="AE801" s="1"/>
     </row>
-    <row r="802" spans="1:31" ht="15.75" customHeight="1">
+    <row r="802" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -27894,7 +27894,7 @@
       <c r="AD802" s="1"/>
       <c r="AE802" s="1"/>
     </row>
-    <row r="803" spans="1:31" ht="15.75" customHeight="1">
+    <row r="803" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -27927,7 +27927,7 @@
       <c r="AD803" s="1"/>
       <c r="AE803" s="1"/>
     </row>
-    <row r="804" spans="1:31" ht="15.75" customHeight="1">
+    <row r="804" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -27960,7 +27960,7 @@
       <c r="AD804" s="1"/>
       <c r="AE804" s="1"/>
     </row>
-    <row r="805" spans="1:31" ht="15.75" customHeight="1">
+    <row r="805" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -27993,7 +27993,7 @@
       <c r="AD805" s="1"/>
       <c r="AE805" s="1"/>
     </row>
-    <row r="806" spans="1:31" ht="15.75" customHeight="1">
+    <row r="806" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -28026,7 +28026,7 @@
       <c r="AD806" s="1"/>
       <c r="AE806" s="1"/>
     </row>
-    <row r="807" spans="1:31" ht="15.75" customHeight="1">
+    <row r="807" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -28059,7 +28059,7 @@
       <c r="AD807" s="1"/>
       <c r="AE807" s="1"/>
     </row>
-    <row r="808" spans="1:31" ht="15.75" customHeight="1">
+    <row r="808" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -28092,7 +28092,7 @@
       <c r="AD808" s="1"/>
       <c r="AE808" s="1"/>
     </row>
-    <row r="809" spans="1:31" ht="15.75" customHeight="1">
+    <row r="809" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -28125,7 +28125,7 @@
       <c r="AD809" s="1"/>
       <c r="AE809" s="1"/>
     </row>
-    <row r="810" spans="1:31" ht="15.75" customHeight="1">
+    <row r="810" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28158,7 +28158,7 @@
       <c r="AD810" s="1"/>
       <c r="AE810" s="1"/>
     </row>
-    <row r="811" spans="1:31" ht="15.75" customHeight="1">
+    <row r="811" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28191,7 +28191,7 @@
       <c r="AD811" s="1"/>
       <c r="AE811" s="1"/>
     </row>
-    <row r="812" spans="1:31" ht="15.75" customHeight="1">
+    <row r="812" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28224,7 +28224,7 @@
       <c r="AD812" s="1"/>
       <c r="AE812" s="1"/>
     </row>
-    <row r="813" spans="1:31" ht="15.75" customHeight="1">
+    <row r="813" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28257,7 +28257,7 @@
       <c r="AD813" s="1"/>
       <c r="AE813" s="1"/>
     </row>
-    <row r="814" spans="1:31" ht="15.75" customHeight="1">
+    <row r="814" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28290,7 +28290,7 @@
       <c r="AD814" s="1"/>
       <c r="AE814" s="1"/>
     </row>
-    <row r="815" spans="1:31" ht="15.75" customHeight="1">
+    <row r="815" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28323,7 +28323,7 @@
       <c r="AD815" s="1"/>
       <c r="AE815" s="1"/>
     </row>
-    <row r="816" spans="1:31" ht="15.75" customHeight="1">
+    <row r="816" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28356,7 +28356,7 @@
       <c r="AD816" s="1"/>
       <c r="AE816" s="1"/>
     </row>
-    <row r="817" spans="1:31" ht="15.75" customHeight="1">
+    <row r="817" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28389,7 +28389,7 @@
       <c r="AD817" s="1"/>
       <c r="AE817" s="1"/>
     </row>
-    <row r="818" spans="1:31" ht="15.75" customHeight="1">
+    <row r="818" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28422,7 +28422,7 @@
       <c r="AD818" s="1"/>
       <c r="AE818" s="1"/>
     </row>
-    <row r="819" spans="1:31" ht="15.75" customHeight="1">
+    <row r="819" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -28455,7 +28455,7 @@
       <c r="AD819" s="1"/>
       <c r="AE819" s="1"/>
     </row>
-    <row r="820" spans="1:31" ht="15.75" customHeight="1">
+    <row r="820" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -28488,7 +28488,7 @@
       <c r="AD820" s="1"/>
       <c r="AE820" s="1"/>
     </row>
-    <row r="821" spans="1:31" ht="15.75" customHeight="1">
+    <row r="821" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -28521,7 +28521,7 @@
       <c r="AD821" s="1"/>
       <c r="AE821" s="1"/>
     </row>
-    <row r="822" spans="1:31" ht="15.75" customHeight="1">
+    <row r="822" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -28554,7 +28554,7 @@
       <c r="AD822" s="1"/>
       <c r="AE822" s="1"/>
     </row>
-    <row r="823" spans="1:31" ht="15.75" customHeight="1">
+    <row r="823" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -28587,7 +28587,7 @@
       <c r="AD823" s="1"/>
       <c r="AE823" s="1"/>
     </row>
-    <row r="824" spans="1:31" ht="15.75" customHeight="1">
+    <row r="824" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -28620,7 +28620,7 @@
       <c r="AD824" s="1"/>
       <c r="AE824" s="1"/>
     </row>
-    <row r="825" spans="1:31" ht="15.75" customHeight="1">
+    <row r="825" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -28653,7 +28653,7 @@
       <c r="AD825" s="1"/>
       <c r="AE825" s="1"/>
     </row>
-    <row r="826" spans="1:31" ht="15.75" customHeight="1">
+    <row r="826" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -28686,7 +28686,7 @@
       <c r="AD826" s="1"/>
       <c r="AE826" s="1"/>
     </row>
-    <row r="827" spans="1:31" ht="15.75" customHeight="1">
+    <row r="827" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -28719,7 +28719,7 @@
       <c r="AD827" s="1"/>
       <c r="AE827" s="1"/>
     </row>
-    <row r="828" spans="1:31" ht="15.75" customHeight="1">
+    <row r="828" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -28752,7 +28752,7 @@
       <c r="AD828" s="1"/>
       <c r="AE828" s="1"/>
     </row>
-    <row r="829" spans="1:31" ht="15.75" customHeight="1">
+    <row r="829" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -28785,7 +28785,7 @@
       <c r="AD829" s="1"/>
       <c r="AE829" s="1"/>
     </row>
-    <row r="830" spans="1:31" ht="15.75" customHeight="1">
+    <row r="830" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -28818,7 +28818,7 @@
       <c r="AD830" s="1"/>
       <c r="AE830" s="1"/>
     </row>
-    <row r="831" spans="1:31" ht="15.75" customHeight="1">
+    <row r="831" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -28851,7 +28851,7 @@
       <c r="AD831" s="1"/>
       <c r="AE831" s="1"/>
     </row>
-    <row r="832" spans="1:31" ht="15.75" customHeight="1">
+    <row r="832" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -28884,7 +28884,7 @@
       <c r="AD832" s="1"/>
       <c r="AE832" s="1"/>
     </row>
-    <row r="833" spans="1:31" ht="15.75" customHeight="1">
+    <row r="833" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -28917,7 +28917,7 @@
       <c r="AD833" s="1"/>
       <c r="AE833" s="1"/>
     </row>
-    <row r="834" spans="1:31" ht="15.75" customHeight="1">
+    <row r="834" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -28950,7 +28950,7 @@
       <c r="AD834" s="1"/>
       <c r="AE834" s="1"/>
     </row>
-    <row r="835" spans="1:31" ht="15.75" customHeight="1">
+    <row r="835" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -28983,7 +28983,7 @@
       <c r="AD835" s="1"/>
       <c r="AE835" s="1"/>
     </row>
-    <row r="836" spans="1:31" ht="15.75" customHeight="1">
+    <row r="836" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -29016,7 +29016,7 @@
       <c r="AD836" s="1"/>
       <c r="AE836" s="1"/>
     </row>
-    <row r="837" spans="1:31" ht="15.75" customHeight="1">
+    <row r="837" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -29049,7 +29049,7 @@
       <c r="AD837" s="1"/>
       <c r="AE837" s="1"/>
     </row>
-    <row r="838" spans="1:31" ht="15.75" customHeight="1">
+    <row r="838" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -29082,7 +29082,7 @@
       <c r="AD838" s="1"/>
       <c r="AE838" s="1"/>
     </row>
-    <row r="839" spans="1:31" ht="15.75" customHeight="1">
+    <row r="839" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -29115,7 +29115,7 @@
       <c r="AD839" s="1"/>
       <c r="AE839" s="1"/>
     </row>
-    <row r="840" spans="1:31" ht="15.75" customHeight="1">
+    <row r="840" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29148,7 +29148,7 @@
       <c r="AD840" s="1"/>
       <c r="AE840" s="1"/>
     </row>
-    <row r="841" spans="1:31" ht="15.75" customHeight="1">
+    <row r="841" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29181,7 +29181,7 @@
       <c r="AD841" s="1"/>
       <c r="AE841" s="1"/>
     </row>
-    <row r="842" spans="1:31" ht="15.75" customHeight="1">
+    <row r="842" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29214,7 +29214,7 @@
       <c r="AD842" s="1"/>
       <c r="AE842" s="1"/>
     </row>
-    <row r="843" spans="1:31" ht="15.75" customHeight="1">
+    <row r="843" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29247,7 +29247,7 @@
       <c r="AD843" s="1"/>
       <c r="AE843" s="1"/>
     </row>
-    <row r="844" spans="1:31" ht="15.75" customHeight="1">
+    <row r="844" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29280,7 +29280,7 @@
       <c r="AD844" s="1"/>
       <c r="AE844" s="1"/>
     </row>
-    <row r="845" spans="1:31" ht="15.75" customHeight="1">
+    <row r="845" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29313,7 +29313,7 @@
       <c r="AD845" s="1"/>
       <c r="AE845" s="1"/>
     </row>
-    <row r="846" spans="1:31" ht="15.75" customHeight="1">
+    <row r="846" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29346,7 +29346,7 @@
       <c r="AD846" s="1"/>
       <c r="AE846" s="1"/>
     </row>
-    <row r="847" spans="1:31" ht="15.75" customHeight="1">
+    <row r="847" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29379,7 +29379,7 @@
       <c r="AD847" s="1"/>
       <c r="AE847" s="1"/>
     </row>
-    <row r="848" spans="1:31" ht="15.75" customHeight="1">
+    <row r="848" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -29412,7 +29412,7 @@
       <c r="AD848" s="1"/>
       <c r="AE848" s="1"/>
     </row>
-    <row r="849" spans="1:31" ht="15.75" customHeight="1">
+    <row r="849" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -29445,7 +29445,7 @@
       <c r="AD849" s="1"/>
       <c r="AE849" s="1"/>
     </row>
-    <row r="850" spans="1:31" ht="15.75" customHeight="1">
+    <row r="850" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -29478,7 +29478,7 @@
       <c r="AD850" s="1"/>
       <c r="AE850" s="1"/>
     </row>
-    <row r="851" spans="1:31" ht="15.75" customHeight="1">
+    <row r="851" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -29511,7 +29511,7 @@
       <c r="AD851" s="1"/>
       <c r="AE851" s="1"/>
     </row>
-    <row r="852" spans="1:31" ht="15.75" customHeight="1">
+    <row r="852" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -29544,7 +29544,7 @@
       <c r="AD852" s="1"/>
       <c r="AE852" s="1"/>
     </row>
-    <row r="853" spans="1:31" ht="15.75" customHeight="1">
+    <row r="853" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -29577,7 +29577,7 @@
       <c r="AD853" s="1"/>
       <c r="AE853" s="1"/>
     </row>
-    <row r="854" spans="1:31" ht="15.75" customHeight="1">
+    <row r="854" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -29610,7 +29610,7 @@
       <c r="AD854" s="1"/>
       <c r="AE854" s="1"/>
     </row>
-    <row r="855" spans="1:31" ht="15.75" customHeight="1">
+    <row r="855" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -29643,7 +29643,7 @@
       <c r="AD855" s="1"/>
       <c r="AE855" s="1"/>
     </row>
-    <row r="856" spans="1:31" ht="15.75" customHeight="1">
+    <row r="856" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -29676,7 +29676,7 @@
       <c r="AD856" s="1"/>
       <c r="AE856" s="1"/>
     </row>
-    <row r="857" spans="1:31" ht="15.75" customHeight="1">
+    <row r="857" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -29709,7 +29709,7 @@
       <c r="AD857" s="1"/>
       <c r="AE857" s="1"/>
     </row>
-    <row r="858" spans="1:31" ht="15.75" customHeight="1">
+    <row r="858" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -29742,7 +29742,7 @@
       <c r="AD858" s="1"/>
       <c r="AE858" s="1"/>
     </row>
-    <row r="859" spans="1:31" ht="15.75" customHeight="1">
+    <row r="859" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -29775,7 +29775,7 @@
       <c r="AD859" s="1"/>
       <c r="AE859" s="1"/>
     </row>
-    <row r="860" spans="1:31" ht="15.75" customHeight="1">
+    <row r="860" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -29808,7 +29808,7 @@
       <c r="AD860" s="1"/>
       <c r="AE860" s="1"/>
     </row>
-    <row r="861" spans="1:31" ht="15.75" customHeight="1">
+    <row r="861" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -29841,7 +29841,7 @@
       <c r="AD861" s="1"/>
       <c r="AE861" s="1"/>
     </row>
-    <row r="862" spans="1:31" ht="15.75" customHeight="1">
+    <row r="862" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -29874,7 +29874,7 @@
       <c r="AD862" s="1"/>
       <c r="AE862" s="1"/>
     </row>
-    <row r="863" spans="1:31" ht="15.75" customHeight="1">
+    <row r="863" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -29907,7 +29907,7 @@
       <c r="AD863" s="1"/>
       <c r="AE863" s="1"/>
     </row>
-    <row r="864" spans="1:31" ht="15.75" customHeight="1">
+    <row r="864" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -29940,7 +29940,7 @@
       <c r="AD864" s="1"/>
       <c r="AE864" s="1"/>
     </row>
-    <row r="865" spans="1:31" ht="15.75" customHeight="1">
+    <row r="865" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -29973,7 +29973,7 @@
       <c r="AD865" s="1"/>
       <c r="AE865" s="1"/>
     </row>
-    <row r="866" spans="1:31" ht="15.75" customHeight="1">
+    <row r="866" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -30006,7 +30006,7 @@
       <c r="AD866" s="1"/>
       <c r="AE866" s="1"/>
     </row>
-    <row r="867" spans="1:31" ht="15.75" customHeight="1">
+    <row r="867" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -30039,7 +30039,7 @@
       <c r="AD867" s="1"/>
       <c r="AE867" s="1"/>
     </row>
-    <row r="868" spans="1:31" ht="15.75" customHeight="1">
+    <row r="868" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -30072,7 +30072,7 @@
       <c r="AD868" s="1"/>
       <c r="AE868" s="1"/>
     </row>
-    <row r="869" spans="1:31" ht="15.75" customHeight="1">
+    <row r="869" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -30105,7 +30105,7 @@
       <c r="AD869" s="1"/>
       <c r="AE869" s="1"/>
     </row>
-    <row r="870" spans="1:31" ht="15.75" customHeight="1">
+    <row r="870" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -30138,7 +30138,7 @@
       <c r="AD870" s="1"/>
       <c r="AE870" s="1"/>
     </row>
-    <row r="871" spans="1:31" ht="15.75" customHeight="1">
+    <row r="871" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30171,7 +30171,7 @@
       <c r="AD871" s="1"/>
       <c r="AE871" s="1"/>
     </row>
-    <row r="872" spans="1:31" ht="15.75" customHeight="1">
+    <row r="872" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30204,7 +30204,7 @@
       <c r="AD872" s="1"/>
       <c r="AE872" s="1"/>
     </row>
-    <row r="873" spans="1:31" ht="15.75" customHeight="1">
+    <row r="873" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30237,7 +30237,7 @@
       <c r="AD873" s="1"/>
       <c r="AE873" s="1"/>
     </row>
-    <row r="874" spans="1:31" ht="15.75" customHeight="1">
+    <row r="874" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30270,7 +30270,7 @@
       <c r="AD874" s="1"/>
       <c r="AE874" s="1"/>
     </row>
-    <row r="875" spans="1:31" ht="15.75" customHeight="1">
+    <row r="875" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30303,7 +30303,7 @@
       <c r="AD875" s="1"/>
       <c r="AE875" s="1"/>
     </row>
-    <row r="876" spans="1:31" ht="15.75" customHeight="1">
+    <row r="876" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30336,7 +30336,7 @@
       <c r="AD876" s="1"/>
       <c r="AE876" s="1"/>
     </row>
-    <row r="877" spans="1:31" ht="15.75" customHeight="1">
+    <row r="877" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30369,7 +30369,7 @@
       <c r="AD877" s="1"/>
       <c r="AE877" s="1"/>
     </row>
-    <row r="878" spans="1:31" ht="15.75" customHeight="1">
+    <row r="878" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -30402,7 +30402,7 @@
       <c r="AD878" s="1"/>
       <c r="AE878" s="1"/>
     </row>
-    <row r="879" spans="1:31" ht="15.75" customHeight="1">
+    <row r="879" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -30435,7 +30435,7 @@
       <c r="AD879" s="1"/>
       <c r="AE879" s="1"/>
     </row>
-    <row r="880" spans="1:31" ht="15.75" customHeight="1">
+    <row r="880" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -30468,7 +30468,7 @@
       <c r="AD880" s="1"/>
       <c r="AE880" s="1"/>
     </row>
-    <row r="881" spans="1:31" ht="15.75" customHeight="1">
+    <row r="881" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -30501,7 +30501,7 @@
       <c r="AD881" s="1"/>
       <c r="AE881" s="1"/>
     </row>
-    <row r="882" spans="1:31" ht="15.75" customHeight="1">
+    <row r="882" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -30534,7 +30534,7 @@
       <c r="AD882" s="1"/>
       <c r="AE882" s="1"/>
     </row>
-    <row r="883" spans="1:31" ht="15.75" customHeight="1">
+    <row r="883" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -30567,7 +30567,7 @@
       <c r="AD883" s="1"/>
       <c r="AE883" s="1"/>
     </row>
-    <row r="884" spans="1:31" ht="15.75" customHeight="1">
+    <row r="884" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -30600,7 +30600,7 @@
       <c r="AD884" s="1"/>
       <c r="AE884" s="1"/>
     </row>
-    <row r="885" spans="1:31" ht="15.75" customHeight="1">
+    <row r="885" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -30633,7 +30633,7 @@
       <c r="AD885" s="1"/>
       <c r="AE885" s="1"/>
     </row>
-    <row r="886" spans="1:31" ht="15.75" customHeight="1">
+    <row r="886" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -30666,7 +30666,7 @@
       <c r="AD886" s="1"/>
       <c r="AE886" s="1"/>
     </row>
-    <row r="887" spans="1:31" ht="15.75" customHeight="1">
+    <row r="887" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -30699,7 +30699,7 @@
       <c r="AD887" s="1"/>
       <c r="AE887" s="1"/>
     </row>
-    <row r="888" spans="1:31" ht="15.75" customHeight="1">
+    <row r="888" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -30732,7 +30732,7 @@
       <c r="AD888" s="1"/>
       <c r="AE888" s="1"/>
     </row>
-    <row r="889" spans="1:31" ht="15.75" customHeight="1">
+    <row r="889" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -30765,7 +30765,7 @@
       <c r="AD889" s="1"/>
       <c r="AE889" s="1"/>
     </row>
-    <row r="890" spans="1:31" ht="15.75" customHeight="1">
+    <row r="890" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -30798,7 +30798,7 @@
       <c r="AD890" s="1"/>
       <c r="AE890" s="1"/>
     </row>
-    <row r="891" spans="1:31" ht="15.75" customHeight="1">
+    <row r="891" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -30831,7 +30831,7 @@
       <c r="AD891" s="1"/>
       <c r="AE891" s="1"/>
     </row>
-    <row r="892" spans="1:31" ht="15.75" customHeight="1">
+    <row r="892" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -30864,7 +30864,7 @@
       <c r="AD892" s="1"/>
       <c r="AE892" s="1"/>
     </row>
-    <row r="893" spans="1:31" ht="15.75" customHeight="1">
+    <row r="893" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -30897,7 +30897,7 @@
       <c r="AD893" s="1"/>
       <c r="AE893" s="1"/>
     </row>
-    <row r="894" spans="1:31" ht="15.75" customHeight="1">
+    <row r="894" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -30930,7 +30930,7 @@
       <c r="AD894" s="1"/>
       <c r="AE894" s="1"/>
     </row>
-    <row r="895" spans="1:31" ht="15.75" customHeight="1">
+    <row r="895" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -30963,7 +30963,7 @@
       <c r="AD895" s="1"/>
       <c r="AE895" s="1"/>
     </row>
-    <row r="896" spans="1:31" ht="15.75" customHeight="1">
+    <row r="896" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -30996,7 +30996,7 @@
       <c r="AD896" s="1"/>
       <c r="AE896" s="1"/>
     </row>
-    <row r="897" spans="1:31" ht="15.75" customHeight="1">
+    <row r="897" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -31029,7 +31029,7 @@
       <c r="AD897" s="1"/>
       <c r="AE897" s="1"/>
     </row>
-    <row r="898" spans="1:31" ht="15.75" customHeight="1">
+    <row r="898" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -31062,7 +31062,7 @@
       <c r="AD898" s="1"/>
       <c r="AE898" s="1"/>
     </row>
-    <row r="899" spans="1:31" ht="15.75" customHeight="1">
+    <row r="899" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -31095,7 +31095,7 @@
       <c r="AD899" s="1"/>
       <c r="AE899" s="1"/>
     </row>
-    <row r="900" spans="1:31" ht="15.75" customHeight="1">
+    <row r="900" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -31128,7 +31128,7 @@
       <c r="AD900" s="1"/>
       <c r="AE900" s="1"/>
     </row>
-    <row r="901" spans="1:31" ht="15.75" customHeight="1">
+    <row r="901" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -31161,7 +31161,7 @@
       <c r="AD901" s="1"/>
       <c r="AE901" s="1"/>
     </row>
-    <row r="902" spans="1:31" ht="15.75" customHeight="1">
+    <row r="902" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -31194,7 +31194,7 @@
       <c r="AD902" s="1"/>
       <c r="AE902" s="1"/>
     </row>
-    <row r="903" spans="1:31" ht="15.75" customHeight="1">
+    <row r="903" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -31227,7 +31227,7 @@
       <c r="AD903" s="1"/>
       <c r="AE903" s="1"/>
     </row>
-    <row r="904" spans="1:31" ht="15.75" customHeight="1">
+    <row r="904" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -31260,7 +31260,7 @@
       <c r="AD904" s="1"/>
       <c r="AE904" s="1"/>
     </row>
-    <row r="905" spans="1:31" ht="15.75" customHeight="1">
+    <row r="905" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -31293,7 +31293,7 @@
       <c r="AD905" s="1"/>
       <c r="AE905" s="1"/>
     </row>
-    <row r="906" spans="1:31" ht="15.75" customHeight="1">
+    <row r="906" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31326,7 +31326,7 @@
       <c r="AD906" s="1"/>
       <c r="AE906" s="1"/>
     </row>
-    <row r="907" spans="1:31" ht="15.75" customHeight="1">
+    <row r="907" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -31359,7 +31359,7 @@
       <c r="AD907" s="1"/>
       <c r="AE907" s="1"/>
     </row>
-    <row r="908" spans="1:31" ht="15.75" customHeight="1">
+    <row r="908" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -31392,7 +31392,7 @@
       <c r="AD908" s="1"/>
       <c r="AE908" s="1"/>
     </row>
-    <row r="909" spans="1:31" ht="15.75" customHeight="1">
+    <row r="909" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -31425,7 +31425,7 @@
       <c r="AD909" s="1"/>
       <c r="AE909" s="1"/>
     </row>
-    <row r="910" spans="1:31" ht="15.75" customHeight="1">
+    <row r="910" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -31458,7 +31458,7 @@
       <c r="AD910" s="1"/>
       <c r="AE910" s="1"/>
     </row>
-    <row r="911" spans="1:31" ht="15.75" customHeight="1">
+    <row r="911" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -31491,7 +31491,7 @@
       <c r="AD911" s="1"/>
       <c r="AE911" s="1"/>
     </row>
-    <row r="912" spans="1:31" ht="15.75" customHeight="1">
+    <row r="912" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -31524,7 +31524,7 @@
       <c r="AD912" s="1"/>
       <c r="AE912" s="1"/>
     </row>
-    <row r="913" spans="1:31" ht="15.75" customHeight="1">
+    <row r="913" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -31557,7 +31557,7 @@
       <c r="AD913" s="1"/>
       <c r="AE913" s="1"/>
     </row>
-    <row r="914" spans="1:31" ht="15.75" customHeight="1">
+    <row r="914" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -31590,7 +31590,7 @@
       <c r="AD914" s="1"/>
       <c r="AE914" s="1"/>
     </row>
-    <row r="915" spans="1:31" ht="15.75" customHeight="1">
+    <row r="915" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -31623,7 +31623,7 @@
       <c r="AD915" s="1"/>
       <c r="AE915" s="1"/>
     </row>
-    <row r="916" spans="1:31" ht="15.75" customHeight="1">
+    <row r="916" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -31656,7 +31656,7 @@
       <c r="AD916" s="1"/>
       <c r="AE916" s="1"/>
     </row>
-    <row r="917" spans="1:31" ht="15.75" customHeight="1">
+    <row r="917" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -31689,7 +31689,7 @@
       <c r="AD917" s="1"/>
       <c r="AE917" s="1"/>
     </row>
-    <row r="918" spans="1:31" ht="15.75" customHeight="1">
+    <row r="918" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -31722,7 +31722,7 @@
       <c r="AD918" s="1"/>
       <c r="AE918" s="1"/>
     </row>
-    <row r="919" spans="1:31" ht="15.75" customHeight="1">
+    <row r="919" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -31755,7 +31755,7 @@
       <c r="AD919" s="1"/>
       <c r="AE919" s="1"/>
     </row>
-    <row r="920" spans="1:31" ht="15.75" customHeight="1">
+    <row r="920" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -31788,42 +31788,9 @@
       <c r="AD920" s="1"/>
       <c r="AE920" s="1"/>
     </row>
-    <row r="921" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A921" s="1"/>
-      <c r="B921" s="1"/>
-      <c r="C921" s="1"/>
-      <c r="D921" s="1"/>
-      <c r="E921" s="1"/>
-      <c r="F921" s="1"/>
-      <c r="G921" s="1"/>
-      <c r="H921" s="1"/>
-      <c r="I921" s="1"/>
-      <c r="J921" s="1"/>
-      <c r="K921" s="1"/>
-      <c r="L921" s="1"/>
-      <c r="M921" s="1"/>
-      <c r="N921" s="1"/>
-      <c r="O921" s="1"/>
-      <c r="P921" s="1"/>
-      <c r="Q921" s="1"/>
-      <c r="R921" s="1"/>
-      <c r="S921" s="1"/>
-      <c r="T921" s="1"/>
-      <c r="U921" s="1"/>
-      <c r="V921" s="1"/>
-      <c r="W921" s="1"/>
-      <c r="X921" s="1"/>
-      <c r="Y921" s="1"/>
-      <c r="Z921" s="1"/>
-      <c r="AA921" s="1"/>
-      <c r="AB921" s="1"/>
-      <c r="AC921" s="1"/>
-      <c r="AD921" s="1"/>
-      <c r="AE921" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B13:B49"/>
+    <mergeCell ref="B13:B48"/>
     <mergeCell ref="C7:Z9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B2:Z2"/>
